--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A9A1B38-5C30-486B-900E-C66FDE1466A4}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B819AE1-0976-4C09-A98B-0A2705CC4566}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -4413,9 +4413,6 @@
     <t>인천 옹진군</t>
   </si>
   <si>
-    <t>행정기</t>
-  </si>
-  <si>
     <t>행정기관</t>
   </si>
   <si>
@@ -7527,6 +7524,10 @@
   </si>
   <si>
     <t>연기</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7764,6 +7765,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7773,10 +7778,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9856,7 +9857,7 @@
       <c r="A88" s="12" t="s">
         <v>1008</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="19" t="s">
         <v>1455</v>
       </c>
       <c r="C88" t="s">
@@ -11678,8 +11679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="J265" sqref="J265:J269"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11691,49 +11692,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B1" t="s">
         <v>1457</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1458</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1459</v>
       </c>
-      <c r="D1" t="s">
-        <v>1460</v>
-      </c>
       <c r="E1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F1" t="s">
         <v>2344</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2345</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="J1" t="s">
         <v>2346</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2348</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2349</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2347</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C2" t="s">
         <v>1461</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1462</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1463</v>
       </c>
       <c r="E2">
         <v>605237005</v>
@@ -11759,13 +11760,13 @@
         <v>919</v>
       </c>
       <c r="B3" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D3" t="s">
         <v>1464</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1465</v>
       </c>
       <c r="E3">
         <v>23913280</v>
@@ -11777,7 +11778,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I3" t="s">
         <v>286</v>
@@ -11791,13 +11792,13 @@
         <v>1006</v>
       </c>
       <c r="B4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C4" t="s">
         <v>1466</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1467</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1468</v>
       </c>
       <c r="E4">
         <v>9959983</v>
@@ -11809,7 +11810,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I4" t="s">
         <v>290</v>
@@ -11823,13 +11824,13 @@
         <v>1244</v>
       </c>
       <c r="B5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C5" t="s">
         <v>1469</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1470</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1471</v>
       </c>
       <c r="E5">
         <v>21866384</v>
@@ -11841,7 +11842,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I5" t="s">
         <v>275</v>
@@ -11855,13 +11856,13 @@
         <v>1245</v>
       </c>
       <c r="B6" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C6" t="s">
         <v>1472</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1473</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1474</v>
       </c>
       <c r="E6">
         <v>16859343</v>
@@ -11873,7 +11874,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I6" t="s">
         <v>292</v>
@@ -11887,13 +11888,13 @@
         <v>1035</v>
       </c>
       <c r="B7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C7" t="s">
         <v>1475</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1476</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1477</v>
       </c>
       <c r="E7">
         <v>17062949</v>
@@ -11905,7 +11906,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I7" t="s">
         <v>293</v>
@@ -11919,13 +11920,13 @@
         <v>412</v>
       </c>
       <c r="B8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C8" t="s">
         <v>1478</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>1479</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1480</v>
       </c>
       <c r="E8">
         <v>14215360</v>
@@ -11937,7 +11938,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I8" t="s">
         <v>871</v>
@@ -11951,13 +11952,13 @@
         <v>1032</v>
       </c>
       <c r="B9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C9" t="s">
         <v>1481</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1482</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1483</v>
       </c>
       <c r="E9">
         <v>18496071</v>
@@ -11969,7 +11970,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I9" t="s">
         <v>272</v>
@@ -11983,13 +11984,13 @@
         <v>1042</v>
       </c>
       <c r="B10" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C10" t="s">
         <v>1484</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1485</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1486</v>
       </c>
       <c r="E10">
         <v>24574349</v>
@@ -12001,7 +12002,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I10" t="s">
         <v>288</v>
@@ -12015,13 +12016,13 @@
         <v>984</v>
       </c>
       <c r="B11" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C11" t="s">
         <v>1487</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1488</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1489</v>
       </c>
       <c r="E11">
         <v>23600102</v>
@@ -12033,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I11" t="s">
         <v>294</v>
@@ -12047,13 +12048,13 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C12" t="s">
         <v>1490</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1491</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1492</v>
       </c>
       <c r="E12">
         <v>20660965</v>
@@ -12065,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I12" t="s">
         <v>267</v>
@@ -12079,13 +12080,13 @@
         <v>464</v>
       </c>
       <c r="B13" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C13" t="s">
         <v>1493</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1494</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1495</v>
       </c>
       <c r="E13">
         <v>35437538</v>
@@ -12097,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I13" t="s">
         <v>268</v>
@@ -12111,13 +12112,13 @@
         <v>501</v>
       </c>
       <c r="B14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C14" t="s">
         <v>1496</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1497</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1498</v>
       </c>
       <c r="E14">
         <v>29711421</v>
@@ -12129,7 +12130,7 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I14" t="s">
         <v>271</v>
@@ -12143,13 +12144,13 @@
         <v>140</v>
       </c>
       <c r="B15" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C15" t="s">
         <v>1499</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>1500</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1501</v>
       </c>
       <c r="E15">
         <v>17625638</v>
@@ -12161,7 +12162,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I15" t="s">
         <v>867</v>
@@ -12175,13 +12176,13 @@
         <v>130</v>
       </c>
       <c r="B16" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C16" t="s">
         <v>1502</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>1503</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1504</v>
       </c>
       <c r="E16">
         <v>23851343</v>
@@ -12193,7 +12194,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I16" t="s">
         <v>282</v>
@@ -12207,13 +12208,13 @@
         <v>1046</v>
       </c>
       <c r="B17" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C17" t="s">
         <v>1505</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>1506</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1507</v>
       </c>
       <c r="E17">
         <v>17405710</v>
@@ -12225,7 +12226,7 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I17" t="s">
         <v>273</v>
@@ -12239,13 +12240,13 @@
         <v>998</v>
       </c>
       <c r="B18" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C18" t="s">
         <v>1508</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>1509</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1510</v>
       </c>
       <c r="E18">
         <v>41436853</v>
@@ -12257,7 +12258,7 @@
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I18" t="s">
         <v>274</v>
@@ -12271,13 +12272,13 @@
         <v>1043</v>
       </c>
       <c r="B19" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C19" t="s">
         <v>1511</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>1512</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1513</v>
       </c>
       <c r="E19">
         <v>20120106</v>
@@ -12289,7 +12290,7 @@
         <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I19" t="s">
         <v>276</v>
@@ -12303,13 +12304,13 @@
         <v>1229</v>
       </c>
       <c r="B20" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C20" t="s">
         <v>1514</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>1515</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1516</v>
       </c>
       <c r="E20">
         <v>13020260</v>
@@ -12321,7 +12322,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I20" t="s">
         <v>313</v>
@@ -12335,13 +12336,13 @@
         <v>1026</v>
       </c>
       <c r="B21" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C21" t="s">
         <v>1517</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>1518</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1519</v>
       </c>
       <c r="E21">
         <v>24548520</v>
@@ -12353,7 +12354,7 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I21" t="s">
         <v>861</v>
@@ -12367,13 +12368,13 @@
         <v>1051</v>
       </c>
       <c r="B22" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C22" t="s">
         <v>1520</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>1521</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1522</v>
       </c>
       <c r="E22">
         <v>16354618</v>
@@ -12385,7 +12386,7 @@
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I22" t="s">
         <v>305</v>
@@ -12399,13 +12400,13 @@
         <v>892</v>
       </c>
       <c r="B23" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C23" t="s">
         <v>1523</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>1524</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1525</v>
       </c>
       <c r="E23">
         <v>29568929</v>
@@ -12417,7 +12418,7 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I23" t="s">
         <v>315</v>
@@ -12431,13 +12432,13 @@
         <v>1018</v>
       </c>
       <c r="B24" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C24" t="s">
         <v>1526</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>1527</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1528</v>
       </c>
       <c r="E24">
         <v>46983285</v>
@@ -12449,7 +12450,7 @@
         <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I24" t="s">
         <v>296</v>
@@ -12463,13 +12464,13 @@
         <v>101</v>
       </c>
       <c r="B25" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C25" t="s">
         <v>1529</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>1530</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1531</v>
       </c>
       <c r="E25">
         <v>39501013</v>
@@ -12481,7 +12482,7 @@
         <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I25" t="s">
         <v>306</v>
@@ -12495,13 +12496,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C26" t="s">
         <v>1532</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>1533</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1534</v>
       </c>
       <c r="E26">
         <v>33872729</v>
@@ -12513,7 +12514,7 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I26" t="s">
         <v>317</v>
@@ -12527,13 +12528,13 @@
         <v>1044</v>
       </c>
       <c r="B27" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C27" t="s">
         <v>1535</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>1536</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1537</v>
       </c>
       <c r="E27">
         <v>24590256</v>
@@ -12545,7 +12546,7 @@
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I27" t="s">
         <v>307</v>
@@ -12556,16 +12557,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B28" t="s">
         <v>1538</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>1539</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>1540</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1541</v>
       </c>
       <c r="E28">
         <v>770073413</v>
@@ -12591,13 +12592,13 @@
         <v>1184</v>
       </c>
       <c r="B29" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C29" t="s">
         <v>1542</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>1543</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1544</v>
       </c>
       <c r="E29">
         <v>2825782</v>
@@ -12609,7 +12610,7 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I29" t="s">
         <v>290</v>
@@ -12623,13 +12624,13 @@
         <v>890</v>
       </c>
       <c r="B30" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C30" t="s">
         <v>1545</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>1546</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1547</v>
       </c>
       <c r="E30">
         <v>13979612</v>
@@ -12641,7 +12642,7 @@
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I30" t="s">
         <v>309</v>
@@ -12655,13 +12656,13 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C31" t="s">
         <v>1548</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>1549</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1550</v>
       </c>
       <c r="E31">
         <v>9865235</v>
@@ -12673,7 +12674,7 @@
         <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I31" t="s">
         <v>314</v>
@@ -12687,13 +12688,13 @@
         <v>86</v>
       </c>
       <c r="B32" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C32" t="s">
         <v>1551</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>1552</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1553</v>
       </c>
       <c r="E32">
         <v>14199595</v>
@@ -12705,7 +12706,7 @@
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I32" t="s">
         <v>310</v>
@@ -12719,13 +12720,13 @@
         <v>508</v>
       </c>
       <c r="B33" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C33" t="s">
         <v>1554</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>1555</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1556</v>
       </c>
       <c r="E33">
         <v>29666238</v>
@@ -12737,7 +12738,7 @@
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I33" t="s">
         <v>868</v>
@@ -12751,13 +12752,13 @@
         <v>94</v>
       </c>
       <c r="B34" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C34" t="s">
         <v>1557</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>1558</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1559</v>
       </c>
       <c r="E34">
         <v>16631774</v>
@@ -12769,7 +12770,7 @@
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I34" t="s">
         <v>322</v>
@@ -12783,13 +12784,13 @@
         <v>199</v>
       </c>
       <c r="B35" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C35" t="s">
         <v>1560</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>1561</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1562</v>
       </c>
       <c r="E35">
         <v>26818105</v>
@@ -12801,7 +12802,7 @@
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I35" t="s">
         <v>312</v>
@@ -12815,13 +12816,13 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C36" t="s">
         <v>1563</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>1564</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1565</v>
       </c>
       <c r="E36">
         <v>39370091</v>
@@ -12833,7 +12834,7 @@
         <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I36" t="s">
         <v>304</v>
@@ -12847,13 +12848,13 @@
         <v>1045</v>
       </c>
       <c r="B37" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C37" t="s">
         <v>1566</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>1567</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1568</v>
       </c>
       <c r="E37">
         <v>51474858</v>
@@ -12865,7 +12866,7 @@
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I37" t="s">
         <v>855</v>
@@ -12879,13 +12880,13 @@
         <v>1033</v>
       </c>
       <c r="B38" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C38" t="s">
         <v>1569</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>1570</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1571</v>
       </c>
       <c r="E38">
         <v>41769978</v>
@@ -12897,7 +12898,7 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I38" t="s">
         <v>308</v>
@@ -12911,13 +12912,13 @@
         <v>77</v>
       </c>
       <c r="B39" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C39" t="s">
         <v>1572</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>1573</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1574</v>
       </c>
       <c r="E39">
         <v>65274057</v>
@@ -12929,7 +12930,7 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I39" t="s">
         <v>318</v>
@@ -12943,13 +12944,13 @@
         <v>491</v>
       </c>
       <c r="B40" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C40" t="s">
         <v>1575</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>1576</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1577</v>
       </c>
       <c r="E40">
         <v>181494645</v>
@@ -12961,7 +12962,7 @@
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I40" t="s">
         <v>274</v>
@@ -12975,13 +12976,13 @@
         <v>487</v>
       </c>
       <c r="B41" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C41" t="s">
         <v>1578</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>1579</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1580</v>
       </c>
       <c r="E41">
         <v>12098903</v>
@@ -12993,7 +12994,7 @@
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I41" t="s">
         <v>319</v>
@@ -13007,13 +13008,13 @@
         <v>515</v>
       </c>
       <c r="B42" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C42" t="s">
         <v>1581</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>1582</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1583</v>
       </c>
       <c r="E42">
         <v>10212429</v>
@@ -13025,7 +13026,7 @@
         <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I42" t="s">
         <v>311</v>
@@ -13039,13 +13040,13 @@
         <v>1016</v>
       </c>
       <c r="B43" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C43" t="s">
         <v>1584</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>1585</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1586</v>
       </c>
       <c r="E43">
         <v>36093426</v>
@@ -13057,7 +13058,7 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I43" t="s">
         <v>320</v>
@@ -13071,13 +13072,13 @@
         <v>1029</v>
       </c>
       <c r="B44" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C44" t="s">
         <v>1587</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>1588</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1589</v>
       </c>
       <c r="E44">
         <v>218298685</v>
@@ -13089,7 +13090,7 @@
         <v>16</v>
       </c>
       <c r="H44" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I44" t="s">
         <v>316</v>
@@ -13100,16 +13101,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B45" t="s">
         <v>1590</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>1591</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>1592</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1593</v>
       </c>
       <c r="E45">
         <v>883517309</v>
@@ -13135,13 +13136,13 @@
         <v>484</v>
       </c>
       <c r="B46" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C46" t="s">
         <v>1594</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>1595</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1596</v>
       </c>
       <c r="E46">
         <v>7055185</v>
@@ -13153,7 +13154,7 @@
         <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I46" t="s">
         <v>290</v>
@@ -13167,13 +13168,13 @@
         <v>906</v>
       </c>
       <c r="B47" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C47" t="s">
         <v>1597</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>1598</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1599</v>
       </c>
       <c r="E47">
         <v>182145982</v>
@@ -13185,7 +13186,7 @@
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I47" t="s">
         <v>314</v>
@@ -13199,13 +13200,13 @@
         <v>771</v>
       </c>
       <c r="B48" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C48" t="s">
         <v>1600</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>1601</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1602</v>
       </c>
       <c r="E48">
         <v>17333125</v>
@@ -13217,7 +13218,7 @@
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I48" t="s">
         <v>309</v>
@@ -13231,13 +13232,13 @@
         <v>89</v>
       </c>
       <c r="B49" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C49" t="s">
         <v>1603</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>1604</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1605</v>
       </c>
       <c r="E49">
         <v>17431532</v>
@@ -13249,7 +13250,7 @@
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I49" t="s">
         <v>312</v>
@@ -13263,13 +13264,13 @@
         <v>993</v>
       </c>
       <c r="B50" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C50" t="s">
         <v>1606</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>1607</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1608</v>
       </c>
       <c r="E50">
         <v>93983908</v>
@@ -13281,7 +13282,7 @@
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I50" t="s">
         <v>304</v>
@@ -13295,13 +13296,13 @@
         <v>206</v>
       </c>
       <c r="B51" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C51" t="s">
         <v>1609</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>1610</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1611</v>
       </c>
       <c r="E51">
         <v>76535345</v>
@@ -13313,7 +13314,7 @@
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I51" t="s">
         <v>321</v>
@@ -13327,13 +13328,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C52" t="s">
         <v>1612</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1613</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1614</v>
       </c>
       <c r="E52">
         <v>62339700</v>
@@ -13345,7 +13346,7 @@
         <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I52" t="s">
         <v>303</v>
@@ -13359,13 +13360,13 @@
         <v>482</v>
       </c>
       <c r="B53" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C53" t="s">
         <v>1615</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>1616</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1617</v>
       </c>
       <c r="E53">
         <v>426692532</v>
@@ -13377,7 +13378,7 @@
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I53" t="s">
         <v>323</v>
@@ -13388,16 +13389,16 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B54" t="s">
         <v>1618</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>1619</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>1620</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1621</v>
       </c>
       <c r="E54">
         <v>1063257852</v>
@@ -13423,13 +13424,13 @@
         <v>1000</v>
       </c>
       <c r="B55" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C55" t="s">
         <v>1622</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>1623</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1624</v>
       </c>
       <c r="E55">
         <v>140286900</v>
@@ -13441,7 +13442,7 @@
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I55" t="s">
         <v>290</v>
@@ -13452,16 +13453,16 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B56" t="s">
         <v>1625</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>1626</v>
       </c>
-      <c r="C56" t="s">
-        <v>1627</v>
-      </c>
       <c r="D56" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E56" t="e">
         <v>#N/A</v>
@@ -13484,16 +13485,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B57" t="s">
         <v>1628</v>
       </c>
-      <c r="B57" t="s">
-        <v>1629</v>
-      </c>
       <c r="C57" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D57" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E57" t="e">
         <v>#N/A</v>
@@ -13519,13 +13520,13 @@
         <v>1040</v>
       </c>
       <c r="B58" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C58" t="s">
         <v>1630</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>1631</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1632</v>
       </c>
       <c r="E58">
         <v>7194831</v>
@@ -13537,7 +13538,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I58" t="s">
         <v>314</v>
@@ -13551,13 +13552,13 @@
         <v>1228</v>
       </c>
       <c r="B59" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C59" t="s">
         <v>1633</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>1634</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1635</v>
       </c>
       <c r="E59">
         <v>24835030</v>
@@ -13569,7 +13570,7 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I59" t="s">
         <v>877</v>
@@ -13583,13 +13584,13 @@
         <v>1060</v>
       </c>
       <c r="B60" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C60" t="s">
         <v>1636</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>1637</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1638</v>
       </c>
       <c r="E60">
         <v>54947866</v>
@@ -13601,7 +13602,7 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I60" t="s">
         <v>324</v>
@@ -13615,13 +13616,13 @@
         <v>88</v>
       </c>
       <c r="B61" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C61" t="s">
         <v>1639</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>1640</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1641</v>
       </c>
       <c r="E61">
         <v>57016644</v>
@@ -13633,7 +13634,7 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I61" t="s">
         <v>297</v>
@@ -13647,13 +13648,13 @@
         <v>1025</v>
       </c>
       <c r="B62" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C62" t="s">
         <v>1642</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>1643</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1644</v>
       </c>
       <c r="E62">
         <v>32008762</v>
@@ -13665,7 +13666,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I62" t="s">
         <v>298</v>
@@ -13679,13 +13680,13 @@
         <v>471</v>
       </c>
       <c r="B63" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C63" t="s">
         <v>1645</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>1646</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1647</v>
       </c>
       <c r="E63">
         <v>45565180</v>
@@ -13697,7 +13698,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I63" t="s">
         <v>299</v>
@@ -13711,13 +13712,13 @@
         <v>1004</v>
       </c>
       <c r="B64" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C64" t="s">
         <v>1648</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>1649</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1650</v>
       </c>
       <c r="E64">
         <v>117087390</v>
@@ -13729,7 +13730,7 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I64" t="s">
         <v>309</v>
@@ -13740,16 +13741,16 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B65" t="s">
         <v>1651</v>
       </c>
-      <c r="B65" t="s">
-        <v>1652</v>
-      </c>
       <c r="C65" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D65" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E65" t="e">
         <v>#N/A</v>
@@ -13775,13 +13776,13 @@
         <v>1243</v>
       </c>
       <c r="B66" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C66" t="s">
         <v>1653</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>1654</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1655</v>
       </c>
       <c r="E66">
         <v>411411035</v>
@@ -13793,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I66" t="s">
         <v>748</v>
@@ -13807,13 +13808,13 @@
         <v>1242</v>
       </c>
       <c r="B67" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C67" t="s">
         <v>1656</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>1657</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1658</v>
       </c>
       <c r="E67">
         <v>172904214</v>
@@ -13836,16 +13837,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B68" t="s">
         <v>1659</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>1660</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>1661</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1662</v>
       </c>
       <c r="E68" t="e">
         <v>#N/A</v>
@@ -13871,13 +13872,13 @@
         <v>1010</v>
       </c>
       <c r="B69" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C69" t="s">
         <v>1663</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>1664</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1665</v>
       </c>
       <c r="E69">
         <v>49312364</v>
@@ -13889,7 +13890,7 @@
         <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I69" t="s">
         <v>314</v>
@@ -13903,13 +13904,13 @@
         <v>123</v>
       </c>
       <c r="B70" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C70" t="s">
         <v>1666</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>1667</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1668</v>
       </c>
       <c r="E70">
         <v>47748121</v>
@@ -13921,7 +13922,7 @@
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I70" t="s">
         <v>309</v>
@@ -13935,13 +13936,13 @@
         <v>1230</v>
       </c>
       <c r="B71" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C71" t="s">
         <v>1669</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>1670</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1671</v>
       </c>
       <c r="E71">
         <v>61018238</v>
@@ -13953,7 +13954,7 @@
         <v>21</v>
       </c>
       <c r="H71" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I71" t="s">
         <v>312</v>
@@ -13967,13 +13968,13 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C72" t="s">
         <v>1672</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>1673</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1674</v>
       </c>
       <c r="E72">
         <v>120280473</v>
@@ -13985,7 +13986,7 @@
         <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I72" t="s">
         <v>304</v>
@@ -13999,13 +14000,13 @@
         <v>1215</v>
       </c>
       <c r="B73" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C73" t="s">
         <v>1675</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>1676</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1677</v>
       </c>
       <c r="E73">
         <v>222777065</v>
@@ -14017,7 +14018,7 @@
         <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="I73" t="s">
         <v>300</v>
@@ -14028,16 +14029,16 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B74" t="s">
         <v>1678</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>1679</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>1680</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1681</v>
       </c>
       <c r="E74">
         <v>539626515</v>
@@ -14063,13 +14064,13 @@
         <v>463</v>
       </c>
       <c r="B75" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C75" t="s">
         <v>1682</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>1683</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1684</v>
       </c>
       <c r="E75">
         <v>136679755</v>
@@ -14081,7 +14082,7 @@
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I75" t="s">
         <v>314</v>
@@ -14095,13 +14096,13 @@
         <v>474</v>
       </c>
       <c r="B76" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C76" t="s">
         <v>1685</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>1686</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1687</v>
       </c>
       <c r="E76">
         <v>62179185</v>
@@ -14113,7 +14114,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I76" t="s">
         <v>290</v>
@@ -14127,13 +14128,13 @@
         <v>999</v>
       </c>
       <c r="B77" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C77" t="s">
         <v>1688</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>1689</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1690</v>
       </c>
       <c r="E77">
         <v>95525521</v>
@@ -14145,7 +14146,7 @@
         <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I77" t="s">
         <v>309</v>
@@ -14159,13 +14160,13 @@
         <v>1048</v>
       </c>
       <c r="B78" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C78" t="s">
         <v>1691</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>1692</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1693</v>
       </c>
       <c r="E78">
         <v>176529023</v>
@@ -14177,7 +14178,7 @@
         <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I78" t="s">
         <v>301</v>
@@ -14191,13 +14192,13 @@
         <v>113</v>
       </c>
       <c r="B79" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C79" t="s">
         <v>1694</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>1695</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1696</v>
       </c>
       <c r="E79">
         <v>68713031</v>
@@ -14209,7 +14210,7 @@
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I79" t="s">
         <v>302</v>
@@ -14220,16 +14221,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B80" t="s">
         <v>1697</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>1698</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>1699</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1700</v>
       </c>
       <c r="E80">
         <v>1062038815</v>
@@ -14255,13 +14256,13 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C81" t="s">
         <v>1701</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>1702</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1703</v>
       </c>
       <c r="E81">
         <v>37010509</v>
@@ -14273,7 +14274,7 @@
         <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I81" t="s">
         <v>290</v>
@@ -14287,13 +14288,13 @@
         <v>497</v>
       </c>
       <c r="B82" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C82" t="s">
         <v>1704</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>1705</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1706</v>
       </c>
       <c r="E82">
         <v>73466522</v>
@@ -14305,7 +14306,7 @@
         <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I82" t="s">
         <v>312</v>
@@ -14319,13 +14320,13 @@
         <v>1024</v>
       </c>
       <c r="B83" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C83" t="s">
         <v>1707</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>1708</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1709</v>
       </c>
       <c r="E83">
         <v>36074686</v>
@@ -14337,7 +14338,7 @@
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I83" t="s">
         <v>314</v>
@@ -14351,13 +14352,13 @@
         <v>165</v>
       </c>
       <c r="B84" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C84" t="s">
         <v>1710</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>1711</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1712</v>
       </c>
       <c r="E84">
         <v>157357088</v>
@@ -14369,7 +14370,7 @@
         <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I84" t="s">
         <v>304</v>
@@ -14383,13 +14384,13 @@
         <v>1009</v>
       </c>
       <c r="B85" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C85" t="s">
         <v>1713</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>1714</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1715</v>
       </c>
       <c r="E85">
         <v>758130010</v>
@@ -14401,7 +14402,7 @@
         <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I85" t="s">
         <v>639</v>
@@ -14412,16 +14413,16 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B86" t="s">
         <v>513</v>
       </c>
       <c r="C86" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D86" t="s">
         <v>1717</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1718</v>
       </c>
       <c r="E86">
         <v>464949680</v>
@@ -14450,10 +14451,10 @@
         <v>513</v>
       </c>
       <c r="C87" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D87" t="s">
         <v>1717</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1718</v>
       </c>
       <c r="E87">
         <v>464949680</v>
@@ -14476,16 +14477,16 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B88" t="s">
         <v>1719</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>1720</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>1721</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1722</v>
       </c>
       <c r="E88">
         <v>10192514247</v>
@@ -14508,16 +14509,16 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B89" t="s">
         <v>1723</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>1724</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>1725</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1726</v>
       </c>
       <c r="E89">
         <v>121092176</v>
@@ -14543,13 +14544,13 @@
         <v>124</v>
       </c>
       <c r="B90" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C90" t="s">
         <v>1727</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>1728</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1729</v>
       </c>
       <c r="E90">
         <v>33300000</v>
@@ -14566,8 +14567,8 @@
       <c r="I90" t="s">
         <v>214</v>
       </c>
-      <c r="J90" s="21" t="s">
-        <v>2429</v>
+      <c r="J90" s="18" t="s">
+        <v>2428</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
@@ -14575,13 +14576,13 @@
         <v>1233</v>
       </c>
       <c r="B91" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C91" t="s">
         <v>1730</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>1731</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1732</v>
       </c>
       <c r="E91">
         <v>47100000</v>
@@ -14598,8 +14599,8 @@
       <c r="I91" t="s">
         <v>232</v>
       </c>
-      <c r="J91" s="21" t="s">
-        <v>2430</v>
+      <c r="J91" s="18" t="s">
+        <v>2429</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
@@ -14607,13 +14608,13 @@
         <v>990</v>
       </c>
       <c r="B92" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C92" t="s">
         <v>1733</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>1734</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1735</v>
       </c>
       <c r="E92">
         <v>12900000</v>
@@ -14630,8 +14631,8 @@
       <c r="I92" t="s">
         <v>210</v>
       </c>
-      <c r="J92" s="21" t="s">
-        <v>2431</v>
+      <c r="J92" s="18" t="s">
+        <v>2430</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
@@ -14639,13 +14640,13 @@
         <v>1236</v>
       </c>
       <c r="B93" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C93" t="s">
         <v>1736</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>1737</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1738</v>
       </c>
       <c r="E93">
         <v>27700000</v>
@@ -14662,22 +14663,22 @@
       <c r="I93" t="s">
         <v>213</v>
       </c>
-      <c r="J93" s="21" t="s">
-        <v>2432</v>
+      <c r="J93" s="18" t="s">
+        <v>2431</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B94" t="s">
         <v>1739</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>1740</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>1741</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1742</v>
       </c>
       <c r="E94">
         <v>141633070</v>
@@ -14703,13 +14704,13 @@
         <v>1022</v>
       </c>
       <c r="B95" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C95" t="s">
         <v>1743</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>1744</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1745</v>
       </c>
       <c r="E95">
         <v>46000000</v>
@@ -14726,8 +14727,8 @@
       <c r="I95" t="s">
         <v>234</v>
       </c>
-      <c r="J95" s="21" t="s">
-        <v>2433</v>
+      <c r="J95" s="18" t="s">
+        <v>2432</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
@@ -14735,13 +14736,13 @@
         <v>1007</v>
       </c>
       <c r="B96" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C96" t="s">
         <v>1746</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>1747</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1748</v>
       </c>
       <c r="E96">
         <v>26390000</v>
@@ -14758,8 +14759,8 @@
       <c r="I96" t="s">
         <v>211</v>
       </c>
-      <c r="J96" s="21" t="s">
-        <v>2434</v>
+      <c r="J96" s="18" t="s">
+        <v>2433</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
@@ -14767,13 +14768,13 @@
         <v>524</v>
       </c>
       <c r="B97" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C97" t="s">
         <v>1749</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>1750</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1751</v>
       </c>
       <c r="E97">
         <v>69430000</v>
@@ -14790,8 +14791,8 @@
       <c r="I97" t="s">
         <v>212</v>
       </c>
-      <c r="J97" s="21" t="s">
-        <v>2435</v>
+      <c r="J97" s="18" t="s">
+        <v>2434</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
@@ -14799,13 +14800,13 @@
         <v>991</v>
       </c>
       <c r="B98" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C98" t="s">
         <v>1752</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>1753</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1754</v>
       </c>
       <c r="E98">
         <v>81544832</v>
@@ -14817,27 +14818,27 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I98" t="s">
         <v>872</v>
       </c>
-      <c r="J98" s="21" t="s">
-        <v>2464</v>
+      <c r="J98" s="18" t="s">
+        <v>2463</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B99" t="s">
         <v>1755</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>1756</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>1757</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1758</v>
       </c>
       <c r="E99">
         <v>58467312</v>
@@ -14863,13 +14864,13 @@
         <v>461</v>
       </c>
       <c r="B100" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C100" t="s">
         <v>1759</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>1760</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1761</v>
       </c>
       <c r="E100">
         <v>36600000</v>
@@ -14886,8 +14887,8 @@
       <c r="I100" t="s">
         <v>218</v>
       </c>
-      <c r="J100" s="21" t="s">
-        <v>2436</v>
+      <c r="J100" s="18" t="s">
+        <v>2435</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
@@ -14895,13 +14896,13 @@
         <v>477</v>
       </c>
       <c r="B101" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C101" t="s">
         <v>1762</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>1763</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1764</v>
       </c>
       <c r="E101">
         <v>21930000</v>
@@ -14918,8 +14919,8 @@
       <c r="I101" t="s">
         <v>229</v>
       </c>
-      <c r="J101" s="21" t="s">
-        <v>2437</v>
+      <c r="J101" s="18" t="s">
+        <v>2436</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
@@ -14927,13 +14928,13 @@
         <v>1008</v>
       </c>
       <c r="B102" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C102" t="s">
         <v>1765</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>1766</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1767</v>
       </c>
       <c r="E102">
         <v>53446246</v>
@@ -14945,7 +14946,7 @@
         <v>2</v>
       </c>
       <c r="H102" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I102" t="s">
         <v>216</v>
@@ -14959,13 +14960,13 @@
         <v>1030</v>
       </c>
       <c r="B103" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C103" t="s">
         <v>1768</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>1769</v>
-      </c>
-      <c r="D103" t="s">
-        <v>1770</v>
       </c>
       <c r="E103">
         <v>38526428</v>
@@ -14977,7 +14978,7 @@
         <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I103" t="s">
         <v>227</v>
@@ -14991,13 +14992,13 @@
         <v>475</v>
       </c>
       <c r="B104" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C104" t="s">
         <v>1771</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>1772</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1773</v>
       </c>
       <c r="E104">
         <v>458244178</v>
@@ -15009,7 +15010,7 @@
         <v>9</v>
       </c>
       <c r="H104" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I104" t="s">
         <v>225</v>
@@ -15020,16 +15021,16 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B105" t="s">
         <v>1774</v>
       </c>
-      <c r="B105" t="s">
-        <v>1775</v>
-      </c>
       <c r="C105" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D105" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E105" t="e">
         <v>#N/A</v>
@@ -15052,16 +15053,16 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B106" t="s">
         <v>1776</v>
       </c>
-      <c r="B106" t="s">
-        <v>1777</v>
-      </c>
       <c r="C106" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D106" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E106" t="e">
         <v>#N/A</v>
@@ -15087,13 +15088,13 @@
         <v>1208</v>
       </c>
       <c r="B107" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C107" t="s">
         <v>1778</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>1779</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1780</v>
       </c>
       <c r="E107">
         <v>95664308</v>
@@ -15105,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I107" t="s">
         <v>167</v>
@@ -15116,16 +15117,16 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B108" t="s">
         <v>1781</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>1782</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>1783</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1784</v>
       </c>
       <c r="E108">
         <v>155730955</v>
@@ -15151,13 +15152,13 @@
         <v>495</v>
       </c>
       <c r="B109" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C109" t="s">
         <v>1785</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>1786</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1787</v>
       </c>
       <c r="E109">
         <v>57830000</v>
@@ -15174,8 +15175,8 @@
       <c r="I109" t="s">
         <v>219</v>
       </c>
-      <c r="J109" s="21" t="s">
-        <v>2438</v>
+      <c r="J109" s="18" t="s">
+        <v>2437</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.4">
@@ -15183,13 +15184,13 @@
         <v>1005</v>
       </c>
       <c r="B110" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C110" t="s">
         <v>1788</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>1789</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1790</v>
       </c>
       <c r="E110">
         <v>91230000</v>
@@ -15206,22 +15207,22 @@
       <c r="I110" t="s">
         <v>235</v>
       </c>
-      <c r="J110" s="21" t="s">
-        <v>2439</v>
+      <c r="J110" s="18" t="s">
+        <v>2438</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B111" t="s">
         <v>1791</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>1792</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>1793</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1794</v>
       </c>
       <c r="E111">
         <v>268088330</v>
@@ -15247,13 +15248,13 @@
         <v>1213</v>
       </c>
       <c r="B112" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C112" t="s">
         <v>1795</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>1796</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1797</v>
       </c>
       <c r="E112">
         <v>165510000</v>
@@ -15270,8 +15271,8 @@
       <c r="I112" t="s">
         <v>230</v>
       </c>
-      <c r="J112" s="21" t="s">
-        <v>2440</v>
+      <c r="J112" s="18" t="s">
+        <v>2439</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
@@ -15279,13 +15280,13 @@
         <v>485</v>
       </c>
       <c r="B113" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C113" t="s">
         <v>1798</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>1799</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1800</v>
       </c>
       <c r="E113">
         <v>59100000</v>
@@ -15302,8 +15303,8 @@
       <c r="I113" t="s">
         <v>859</v>
       </c>
-      <c r="J113" s="21" t="s">
-        <v>2441</v>
+      <c r="J113" s="18" t="s">
+        <v>2440</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
@@ -15311,13 +15312,13 @@
         <v>496</v>
       </c>
       <c r="B114" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C114" t="s">
         <v>1801</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>1802</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1803</v>
       </c>
       <c r="E114">
         <v>42770000</v>
@@ -15334,8 +15335,8 @@
       <c r="I114" t="s">
         <v>873</v>
       </c>
-      <c r="J114" s="21" t="s">
-        <v>2442</v>
+      <c r="J114" s="18" t="s">
+        <v>2441</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
@@ -15343,13 +15344,13 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C115" t="s">
         <v>1804</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>1805</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1806</v>
       </c>
       <c r="E115">
         <v>35868319</v>
@@ -15361,7 +15362,7 @@
         <v>7</v>
       </c>
       <c r="H115" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I115" t="s">
         <v>237</v>
@@ -15375,13 +15376,13 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C116" t="s">
         <v>1807</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>1808</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1809</v>
       </c>
       <c r="E116">
         <v>33325064</v>
@@ -15393,7 +15394,7 @@
         <v>4</v>
       </c>
       <c r="H116" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I116" t="s">
         <v>207</v>
@@ -15407,13 +15408,13 @@
         <v>945</v>
       </c>
       <c r="B117" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C117" t="s">
         <v>1810</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>1811</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1812</v>
       </c>
       <c r="E117">
         <v>458115470</v>
@@ -15425,7 +15426,7 @@
         <v>3</v>
       </c>
       <c r="H117" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I117" t="s">
         <v>857</v>
@@ -15436,16 +15437,16 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B118" t="s">
         <v>1813</v>
       </c>
-      <c r="B118" t="s">
-        <v>1814</v>
-      </c>
       <c r="C118" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D118" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E118" t="e">
         <v>#N/A</v>
@@ -15471,13 +15472,13 @@
         <v>490</v>
       </c>
       <c r="B119" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C119" t="s">
         <v>1815</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>1816</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1817</v>
       </c>
       <c r="E119">
         <v>42707724</v>
@@ -15489,7 +15490,7 @@
         <v>9</v>
       </c>
       <c r="H119" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I119" t="s">
         <v>221</v>
@@ -15503,13 +15504,13 @@
         <v>470</v>
       </c>
       <c r="B120" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C120" t="s">
         <v>1818</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>1819</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1820</v>
       </c>
       <c r="E120">
         <v>138660046</v>
@@ -15521,7 +15522,7 @@
         <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I120" t="s">
         <v>222</v>
@@ -15535,13 +15536,13 @@
         <v>476</v>
       </c>
       <c r="B121" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C121" t="s">
         <v>1821</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>1822</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1823</v>
       </c>
       <c r="E121">
         <v>36416854</v>
@@ -15553,7 +15554,7 @@
         <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I121" t="s">
         <v>223</v>
@@ -15567,13 +15568,13 @@
         <v>917</v>
       </c>
       <c r="B122" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C122" t="s">
         <v>1824</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>1825</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1826</v>
       </c>
       <c r="E122">
         <v>53987611</v>
@@ -15585,7 +15586,7 @@
         <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I122" t="s">
         <v>217</v>
@@ -15599,13 +15600,13 @@
         <v>103</v>
       </c>
       <c r="B123" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C123" t="s">
         <v>1827</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>1828</v>
-      </c>
-      <c r="D123" t="s">
-        <v>1829</v>
       </c>
       <c r="E123">
         <v>92991186</v>
@@ -15617,7 +15618,7 @@
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I123" t="s">
         <v>231</v>
@@ -15628,16 +15629,16 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B124" t="s">
         <v>1830</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>1831</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>1832</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1833</v>
       </c>
       <c r="E124">
         <v>591259247</v>
@@ -15663,13 +15664,13 @@
         <v>446</v>
       </c>
       <c r="B125" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C125" t="s">
         <v>1834</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>1835</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1836</v>
       </c>
       <c r="E125">
         <v>467600000</v>
@@ -15686,8 +15687,8 @@
       <c r="I125" t="s">
         <v>224</v>
       </c>
-      <c r="J125" s="21" t="s">
-        <v>2443</v>
+      <c r="J125" s="18" t="s">
+        <v>2442</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.4">
@@ -15695,13 +15696,13 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C126" t="s">
         <v>1837</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>1838</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1839</v>
       </c>
       <c r="E126">
         <v>81700000</v>
@@ -15718,8 +15719,8 @@
       <c r="I126" t="s">
         <v>209</v>
       </c>
-      <c r="J126" s="21" t="s">
-        <v>2444</v>
+      <c r="J126" s="18" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.4">
@@ -15727,13 +15728,13 @@
         <v>451</v>
       </c>
       <c r="B127" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C127" t="s">
         <v>1840</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>1841</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1842</v>
       </c>
       <c r="E127">
         <v>42100000</v>
@@ -15750,8 +15751,8 @@
       <c r="I127" t="s">
         <v>236</v>
       </c>
-      <c r="J127" s="21" t="s">
-        <v>2445</v>
+      <c r="J127" s="18" t="s">
+        <v>2444</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.4">
@@ -15759,13 +15760,13 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C128" t="s">
         <v>1843</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>1844</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1845</v>
       </c>
       <c r="E128">
         <v>673229199</v>
@@ -15777,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I128" t="s">
         <v>246</v>
@@ -15791,13 +15792,13 @@
         <v>452</v>
       </c>
       <c r="B129" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C129" t="s">
         <v>1846</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>1847</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1848</v>
       </c>
       <c r="E129">
         <v>461421891</v>
@@ -15809,7 +15810,7 @@
         <v>6</v>
       </c>
       <c r="H129" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I129" t="s">
         <v>263</v>
@@ -15823,13 +15824,13 @@
         <v>1015</v>
       </c>
       <c r="B130" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C130" t="s">
         <v>1849</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>1850</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1851</v>
       </c>
       <c r="E130">
         <v>553418704</v>
@@ -15841,7 +15842,7 @@
         <v>9</v>
       </c>
       <c r="H130" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I130" t="s">
         <v>253</v>
@@ -15855,13 +15856,13 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C131" t="s">
         <v>1852</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>1853</v>
-      </c>
-      <c r="D131" t="s">
-        <v>1854</v>
       </c>
       <c r="E131">
         <v>276612088</v>
@@ -15873,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I131" t="s">
         <v>245</v>
@@ -15887,13 +15888,13 @@
         <v>125</v>
       </c>
       <c r="B132" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C132" t="s">
         <v>1855</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>1856</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1857</v>
       </c>
       <c r="E132">
         <v>697766499</v>
@@ -15905,7 +15906,7 @@
         <v>9</v>
       </c>
       <c r="H132" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I132" t="s">
         <v>239</v>
@@ -15916,16 +15917,16 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B133" t="s">
         <v>1858</v>
       </c>
-      <c r="B133" t="s">
-        <v>1859</v>
-      </c>
       <c r="C133" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D133" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E133" t="e">
         <v>#N/A</v>
@@ -15948,16 +15949,16 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B134" t="s">
         <v>1860</v>
       </c>
-      <c r="B134" t="s">
-        <v>1861</v>
-      </c>
       <c r="C134" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D134" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E134" t="e">
         <v>#N/A</v>
@@ -15983,13 +15984,13 @@
         <v>111</v>
       </c>
       <c r="B135" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C135" t="s">
         <v>1862</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>1863</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1864</v>
       </c>
       <c r="E135">
         <v>430990347</v>
@@ -16001,7 +16002,7 @@
         <v>3</v>
       </c>
       <c r="H135" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I135" t="s">
         <v>248</v>
@@ -16015,13 +16016,13 @@
         <v>488</v>
       </c>
       <c r="B136" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C136" t="s">
         <v>1865</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>1866</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1867</v>
       </c>
       <c r="E136">
         <v>310390297</v>
@@ -16033,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="H136" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I136" t="s">
         <v>257</v>
@@ -16047,13 +16048,13 @@
         <v>404</v>
       </c>
       <c r="B137" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C137" t="s">
         <v>1868</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>1869</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1870</v>
       </c>
       <c r="E137">
         <v>826957493</v>
@@ -16065,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I137" t="s">
         <v>258</v>
@@ -16079,13 +16080,13 @@
         <v>499</v>
       </c>
       <c r="B138" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C138" t="s">
         <v>1871</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>1872</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1873</v>
       </c>
       <c r="E138">
         <v>608298372</v>
@@ -16097,7 +16098,7 @@
         <v>7</v>
       </c>
       <c r="H138" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I138" t="s">
         <v>247</v>
@@ -16111,13 +16112,13 @@
         <v>920</v>
       </c>
       <c r="B139" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C139" t="s">
         <v>1874</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>1875</v>
-      </c>
-      <c r="D139" t="s">
-        <v>1876</v>
       </c>
       <c r="E139">
         <v>676318066</v>
@@ -16129,13 +16130,13 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I139" t="s">
         <v>725</v>
       </c>
       <c r="J139" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.4">
@@ -16143,13 +16144,13 @@
         <v>960</v>
       </c>
       <c r="B140" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C140" t="s">
         <v>1877</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>1878</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1879</v>
       </c>
       <c r="E140">
         <v>843690575</v>
@@ -16161,13 +16162,13 @@
         <v>3</v>
       </c>
       <c r="H140" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I140" t="s">
         <v>756</v>
       </c>
       <c r="J140" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.4">
@@ -16175,13 +16176,13 @@
         <v>29</v>
       </c>
       <c r="B141" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C141" t="s">
         <v>1880</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>1881</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1882</v>
       </c>
       <c r="E141">
         <v>877651360</v>
@@ -16193,27 +16194,27 @@
         <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="I141" t="s">
         <v>743</v>
       </c>
       <c r="J141" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B142" t="s">
         <v>1883</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>1884</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>1885</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1886</v>
       </c>
       <c r="E142">
         <v>16828280729</v>
@@ -16239,13 +16240,13 @@
         <v>85</v>
       </c>
       <c r="B143" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C143" t="s">
         <v>1887</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>1888</v>
-      </c>
-      <c r="D143" t="s">
-        <v>1889</v>
       </c>
       <c r="E143">
         <v>1116373900</v>
@@ -16257,7 +16258,7 @@
         <v>3</v>
       </c>
       <c r="H143" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I143" t="s">
         <v>259</v>
@@ -16271,13 +16272,13 @@
         <v>425</v>
       </c>
       <c r="B144" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C144" t="s">
         <v>1890</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>1891</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1892</v>
       </c>
       <c r="E144">
         <v>868240238</v>
@@ -16289,7 +16290,7 @@
         <v>7</v>
       </c>
       <c r="H144" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I144" t="s">
         <v>252</v>
@@ -16303,13 +16304,13 @@
         <v>949</v>
       </c>
       <c r="B145" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C145" t="s">
         <v>1893</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>1894</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1895</v>
       </c>
       <c r="E145">
         <v>1040783864</v>
@@ -16321,7 +16322,7 @@
         <v>4</v>
       </c>
       <c r="H145" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I145" t="s">
         <v>249</v>
@@ -16335,13 +16336,13 @@
         <v>968</v>
       </c>
       <c r="B146" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C146" t="s">
         <v>1896</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>1897</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1898</v>
       </c>
       <c r="E146">
         <v>180201980</v>
@@ -16353,7 +16354,7 @@
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I146" t="s">
         <v>251</v>
@@ -16367,13 +16368,13 @@
         <v>64</v>
       </c>
       <c r="B147" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C147" t="s">
         <v>1899</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>1900</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1901</v>
       </c>
       <c r="E147">
         <v>303521188</v>
@@ -16385,7 +16386,7 @@
         <v>7</v>
       </c>
       <c r="H147" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I147" t="s">
         <v>254</v>
@@ -16399,13 +16400,13 @@
         <v>931</v>
       </c>
       <c r="B148" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C148" t="s">
         <v>1902</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>1903</v>
-      </c>
-      <c r="D148" t="s">
-        <v>1904</v>
       </c>
       <c r="E148">
         <v>105760448</v>
@@ -16417,7 +16418,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I148" t="s">
         <v>240</v>
@@ -16431,13 +16432,13 @@
         <v>925</v>
       </c>
       <c r="B149" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C149" t="s">
         <v>1905</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>1906</v>
-      </c>
-      <c r="D149" t="s">
-        <v>1907</v>
       </c>
       <c r="E149">
         <v>1187839038</v>
@@ -16449,7 +16450,7 @@
         <v>8</v>
       </c>
       <c r="H149" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I149" t="s">
         <v>262</v>
@@ -16463,13 +16464,13 @@
         <v>904</v>
       </c>
       <c r="B150" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C150" t="s">
         <v>1908</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>1909</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1910</v>
       </c>
       <c r="E150">
         <v>1820310462</v>
@@ -16481,13 +16482,13 @@
         <v>4</v>
       </c>
       <c r="H150" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I150" t="s">
         <v>758</v>
       </c>
       <c r="J150" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.4">
@@ -16495,13 +16496,13 @@
         <v>99</v>
       </c>
       <c r="B151" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C151" t="s">
         <v>1911</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>1912</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1913</v>
       </c>
       <c r="E151">
         <v>998066556</v>
@@ -16513,13 +16514,13 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I151" t="s">
         <v>751</v>
       </c>
       <c r="J151" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.4">
@@ -16527,13 +16528,13 @@
         <v>205</v>
       </c>
       <c r="B152" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C152" t="s">
         <v>1914</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>1915</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1916</v>
       </c>
       <c r="E152">
         <v>1127289702</v>
@@ -16545,13 +16546,13 @@
         <v>8</v>
       </c>
       <c r="H152" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I152" t="s">
         <v>712</v>
       </c>
       <c r="J152" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.4">
@@ -16559,13 +16560,13 @@
         <v>914</v>
       </c>
       <c r="B153" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C153" t="s">
         <v>1917</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>1918</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1919</v>
       </c>
       <c r="E153">
         <v>1463928054</v>
@@ -16577,13 +16578,13 @@
         <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I153" t="s">
         <v>277</v>
       </c>
       <c r="J153" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.4">
@@ -16591,13 +16592,13 @@
         <v>954</v>
       </c>
       <c r="B154" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C154" t="s">
         <v>1920</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>1921</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1922</v>
       </c>
       <c r="E154">
         <v>1219777976</v>
@@ -16609,13 +16610,13 @@
         <v>6</v>
       </c>
       <c r="H154" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I154" t="s">
         <v>767</v>
       </c>
       <c r="J154" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.4">
@@ -16623,13 +16624,13 @@
         <v>32</v>
       </c>
       <c r="B155" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C155" t="s">
         <v>1923</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>1924</v>
-      </c>
-      <c r="D155" t="s">
-        <v>1925</v>
       </c>
       <c r="E155">
         <v>889682311</v>
@@ -16641,13 +16642,13 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I155" t="s">
         <v>281</v>
       </c>
       <c r="J155" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.4">
@@ -16655,13 +16656,13 @@
         <v>838</v>
       </c>
       <c r="B156" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C156" t="s">
         <v>1926</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>1927</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1928</v>
       </c>
       <c r="E156">
         <v>908931856</v>
@@ -16673,13 +16674,13 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I156" t="s">
         <v>754</v>
       </c>
       <c r="J156" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.4">
@@ -16687,13 +16688,13 @@
         <v>978</v>
       </c>
       <c r="B157" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C157" t="s">
         <v>1929</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>1930</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1931</v>
       </c>
       <c r="E157">
         <v>661819106</v>
@@ -16705,13 +16706,13 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I157" t="s">
         <v>269</v>
       </c>
       <c r="J157" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.4">
@@ -16719,13 +16720,13 @@
         <v>436</v>
       </c>
       <c r="B158" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C158" t="s">
         <v>1932</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>1933</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1934</v>
       </c>
       <c r="E158">
         <v>1644967141</v>
@@ -16737,13 +16738,13 @@
         <v>2</v>
       </c>
       <c r="H158" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I158" t="s">
         <v>279</v>
       </c>
       <c r="J158" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.4">
@@ -16751,13 +16752,13 @@
         <v>523</v>
       </c>
       <c r="B159" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C159" t="s">
         <v>1935</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>1936</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1937</v>
       </c>
       <c r="E159">
         <v>660707506</v>
@@ -16769,13 +16770,13 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I159" t="s">
         <v>762</v>
       </c>
       <c r="J159" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.4">
@@ -16783,13 +16784,13 @@
         <v>81</v>
       </c>
       <c r="B160" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C160" t="s">
         <v>1938</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>1939</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1940</v>
       </c>
       <c r="E160">
         <v>630079403</v>
@@ -16801,27 +16802,27 @@
         <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I160" t="s">
         <v>744</v>
       </c>
       <c r="J160" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B161" t="s">
         <v>1941</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>1942</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>1943</v>
-      </c>
-      <c r="D161" t="s">
-        <v>1944</v>
       </c>
       <c r="E161">
         <v>7406819938</v>
@@ -16844,16 +16845,16 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B162" t="s">
         <v>1945</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>1946</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>1947</v>
-      </c>
-      <c r="D162" t="s">
-        <v>1948</v>
       </c>
       <c r="E162">
         <v>940844524</v>
@@ -16879,13 +16880,13 @@
         <v>963</v>
       </c>
       <c r="B163" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C163" t="s">
         <v>1949</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>1950</v>
-      </c>
-      <c r="D163" t="s">
-        <v>1951</v>
       </c>
       <c r="E163">
         <v>404440000</v>
@@ -16902,8 +16903,8 @@
       <c r="I163" t="s">
         <v>243</v>
       </c>
-      <c r="J163" s="21" t="s">
-        <v>2446</v>
+      <c r="J163" s="18" t="s">
+        <v>2445</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.4">
@@ -16911,13 +16912,13 @@
         <v>889</v>
       </c>
       <c r="B164" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C164" t="s">
         <v>1952</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>1953</v>
-      </c>
-      <c r="D164" t="s">
-        <v>1954</v>
       </c>
       <c r="E164">
         <v>122590000</v>
@@ -16934,8 +16935,8 @@
       <c r="I164" t="s">
         <v>265</v>
       </c>
-      <c r="J164" s="21" t="s">
-        <v>2447</v>
+      <c r="J164" s="18" t="s">
+        <v>2446</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.4">
@@ -16943,13 +16944,13 @@
         <v>1039</v>
       </c>
       <c r="B165" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C165" t="s">
         <v>1955</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>1956</v>
-      </c>
-      <c r="D165" t="s">
-        <v>1957</v>
       </c>
       <c r="E165">
         <v>198270000</v>
@@ -16966,8 +16967,8 @@
       <c r="I165" t="s">
         <v>255</v>
       </c>
-      <c r="J165" s="21" t="s">
-        <v>2448</v>
+      <c r="J165" s="18" t="s">
+        <v>2447</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.4">
@@ -16975,13 +16976,13 @@
         <v>406</v>
       </c>
       <c r="B166" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C166" t="s">
         <v>1958</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>1959</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1960</v>
       </c>
       <c r="E166">
         <v>214990000</v>
@@ -16998,8 +16999,8 @@
       <c r="I166" t="s">
         <v>256</v>
       </c>
-      <c r="J166" s="21" t="s">
-        <v>2449</v>
+      <c r="J166" s="18" t="s">
+        <v>2448</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.4">
@@ -17007,13 +17008,13 @@
         <v>939</v>
       </c>
       <c r="B167" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C167" t="s">
         <v>1961</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>1962</v>
-      </c>
-      <c r="D167" t="s">
-        <v>1963</v>
       </c>
       <c r="E167">
         <v>983477555</v>
@@ -17025,7 +17026,7 @@
         <v>10</v>
       </c>
       <c r="H167" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="I167" t="s">
         <v>266</v>
@@ -17039,13 +17040,13 @@
         <v>107</v>
       </c>
       <c r="B168" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C168" t="s">
         <v>1964</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>1965</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1966</v>
       </c>
       <c r="E168">
         <v>883422112</v>
@@ -17057,7 +17058,7 @@
         <v>10</v>
       </c>
       <c r="H168" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="I168" t="s">
         <v>260</v>
@@ -17071,13 +17072,13 @@
         <v>459</v>
       </c>
       <c r="B169" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C169" t="s">
         <v>1967</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>1968</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1969</v>
       </c>
       <c r="E169">
         <v>584207531</v>
@@ -17089,13 +17090,13 @@
         <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="I169" t="s">
         <v>761</v>
       </c>
       <c r="J169" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.4">
@@ -17103,13 +17104,13 @@
         <v>129</v>
       </c>
       <c r="B170" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C170" t="s">
         <v>1970</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>1971</v>
-      </c>
-      <c r="D170" t="s">
-        <v>1972</v>
       </c>
       <c r="E170">
         <v>537221176</v>
@@ -17121,13 +17122,13 @@
         <v>13</v>
       </c>
       <c r="H170" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="I170" t="s">
         <v>763</v>
       </c>
       <c r="J170" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.4">
@@ -17135,13 +17136,13 @@
         <v>115</v>
       </c>
       <c r="B171" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C171" t="s">
         <v>1973</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>1974</v>
-      </c>
-      <c r="D171" t="s">
-        <v>1975</v>
       </c>
       <c r="E171">
         <v>846016198</v>
@@ -17153,13 +17154,13 @@
         <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="I171" t="s">
         <v>295</v>
       </c>
       <c r="J171" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.4">
@@ -17167,13 +17168,13 @@
         <v>118</v>
       </c>
       <c r="B172" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C172" t="s">
         <v>1976</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>1977</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1978</v>
       </c>
       <c r="E172">
         <v>81797648</v>
@@ -17199,13 +17200,13 @@
         <v>441</v>
       </c>
       <c r="B173" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C173" t="s">
         <v>1979</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>1980</v>
-      </c>
-      <c r="D173" t="s">
-        <v>1981</v>
       </c>
       <c r="E173">
         <v>407303348</v>
@@ -17231,13 +17232,13 @@
         <v>938</v>
       </c>
       <c r="B174" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C174" t="s">
         <v>1982</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>1983</v>
-      </c>
-      <c r="D174" t="s">
-        <v>1984</v>
       </c>
       <c r="E174">
         <v>842189020</v>
@@ -17263,13 +17264,13 @@
         <v>834</v>
       </c>
       <c r="B175" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C175" t="s">
         <v>1985</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>1986</v>
-      </c>
-      <c r="D175" t="s">
-        <v>1987</v>
       </c>
       <c r="E175">
         <v>520182166</v>
@@ -17281,13 +17282,13 @@
         <v>10</v>
       </c>
       <c r="H175" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="I175" t="s">
         <v>736</v>
       </c>
       <c r="J175" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.4">
@@ -17295,13 +17296,13 @@
         <v>927</v>
       </c>
       <c r="B176" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C176" t="s">
         <v>1988</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>1989</v>
-      </c>
-      <c r="D176" t="s">
-        <v>1990</v>
       </c>
       <c r="E176">
         <v>780158660</v>
@@ -17313,27 +17314,27 @@
         <v>10</v>
       </c>
       <c r="H176" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="I176" t="s">
         <v>711</v>
       </c>
       <c r="J176" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B177" t="s">
         <v>1991</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>1992</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>1993</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1994</v>
       </c>
       <c r="E177">
         <v>8245540722</v>
@@ -17356,16 +17357,16 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B178" t="s">
         <v>1995</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>1996</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>1997</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1998</v>
       </c>
       <c r="E178">
         <v>636082715</v>
@@ -17391,13 +17392,13 @@
         <v>450</v>
       </c>
       <c r="B179" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C179" t="s">
         <v>1999</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>2000</v>
-      </c>
-      <c r="D179" t="s">
-        <v>2001</v>
       </c>
       <c r="E179">
         <v>438540000</v>
@@ -17414,8 +17415,8 @@
       <c r="I179" t="s">
         <v>261</v>
       </c>
-      <c r="J179" s="21" t="s">
-        <v>2450</v>
+      <c r="J179" s="18" t="s">
+        <v>2449</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.4">
@@ -17423,13 +17424,13 @@
         <v>844</v>
       </c>
       <c r="B180" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C180" t="s">
         <v>2002</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>2003</v>
-      </c>
-      <c r="D180" t="s">
-        <v>2004</v>
       </c>
       <c r="E180">
         <v>197680000</v>
@@ -17446,8 +17447,8 @@
       <c r="I180" t="s">
         <v>241</v>
       </c>
-      <c r="J180" s="21" t="s">
-        <v>2451</v>
+      <c r="J180" s="18" t="s">
+        <v>2450</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.4">
@@ -17455,13 +17456,13 @@
         <v>953</v>
       </c>
       <c r="B181" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C181" t="s">
         <v>2005</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>2006</v>
-      </c>
-      <c r="D181" t="s">
-        <v>2007</v>
       </c>
       <c r="E181">
         <v>864152740</v>
@@ -17473,7 +17474,7 @@
         <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I181" t="s">
         <v>242</v>
@@ -17487,13 +17488,13 @@
         <v>492</v>
       </c>
       <c r="B182" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C182" t="s">
         <v>2008</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>2009</v>
-      </c>
-      <c r="D182" t="s">
-        <v>2010</v>
       </c>
       <c r="E182">
         <v>586558277</v>
@@ -17505,7 +17506,7 @@
         <v>12</v>
       </c>
       <c r="H182" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I182" t="s">
         <v>244</v>
@@ -17519,13 +17520,13 @@
         <v>908</v>
       </c>
       <c r="B183" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C183" t="s">
         <v>2011</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>2012</v>
-      </c>
-      <c r="D183" t="s">
-        <v>2013</v>
       </c>
       <c r="E183">
         <v>542795756</v>
@@ -17537,7 +17538,7 @@
         <v>10</v>
       </c>
       <c r="H183" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I183" t="s">
         <v>355</v>
@@ -17551,13 +17552,13 @@
         <v>928</v>
       </c>
       <c r="B184" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C184" t="s">
         <v>2014</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>2015</v>
-      </c>
-      <c r="D184" t="s">
-        <v>2016</v>
       </c>
       <c r="E184">
         <v>742026668</v>
@@ -17569,7 +17570,7 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I184" t="s">
         <v>359</v>
@@ -17583,13 +17584,13 @@
         <v>828</v>
       </c>
       <c r="B185" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C185" t="s">
         <v>2017</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>2018</v>
-      </c>
-      <c r="D185" t="s">
-        <v>2019</v>
       </c>
       <c r="E185">
         <v>555580413</v>
@@ -17601,7 +17602,7 @@
         <v>12</v>
       </c>
       <c r="H185" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I185" t="s">
         <v>364</v>
@@ -17615,13 +17616,13 @@
         <v>108</v>
       </c>
       <c r="B186" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C186" t="s">
         <v>2020</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>2021</v>
-      </c>
-      <c r="D186" t="s">
-        <v>2022</v>
       </c>
       <c r="E186">
         <v>60698855</v>
@@ -17633,7 +17634,7 @@
         <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I186" t="s">
         <v>358</v>
@@ -17647,13 +17648,13 @@
         <v>848</v>
       </c>
       <c r="B187" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C187" t="s">
         <v>2023</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>2024</v>
-      </c>
-      <c r="D187" t="s">
-        <v>2025</v>
       </c>
       <c r="E187">
         <v>705424109</v>
@@ -17665,7 +17666,7 @@
         <v>10</v>
       </c>
       <c r="H187" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I187" t="s">
         <v>360</v>
@@ -17679,13 +17680,13 @@
         <v>924</v>
       </c>
       <c r="B188" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C188" t="s">
         <v>2026</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>2027</v>
-      </c>
-      <c r="D188" t="s">
-        <v>2028</v>
       </c>
       <c r="E188">
         <v>577237130</v>
@@ -17697,13 +17698,13 @@
         <v>13</v>
       </c>
       <c r="H188" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I188" t="s">
         <v>723</v>
       </c>
       <c r="J188" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.4">
@@ -17711,13 +17712,13 @@
         <v>102</v>
       </c>
       <c r="B189" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C189" t="s">
         <v>2029</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>2030</v>
-      </c>
-      <c r="D189" t="s">
-        <v>2031</v>
       </c>
       <c r="E189">
         <v>624534630</v>
@@ -17729,13 +17730,13 @@
         <v>13</v>
       </c>
       <c r="H189" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I189" t="s">
         <v>684</v>
       </c>
       <c r="J189" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.4">
@@ -17743,13 +17744,13 @@
         <v>455</v>
       </c>
       <c r="B190" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C190" t="s">
         <v>2032</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>2033</v>
-      </c>
-      <c r="D190" t="s">
-        <v>2034</v>
       </c>
       <c r="E190">
         <v>366115806</v>
@@ -17761,13 +17762,13 @@
         <v>12</v>
       </c>
       <c r="H190" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I190" t="s">
         <v>742</v>
       </c>
       <c r="J190" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.4">
@@ -17775,13 +17776,13 @@
         <v>106</v>
       </c>
       <c r="B191" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C191" t="s">
         <v>2035</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>2036</v>
-      </c>
-      <c r="D191" t="s">
-        <v>2037</v>
       </c>
       <c r="E191">
         <v>479099966</v>
@@ -17793,13 +17794,13 @@
         <v>12</v>
       </c>
       <c r="H191" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I191" t="s">
         <v>768</v>
       </c>
       <c r="J191" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.4">
@@ -17807,13 +17808,13 @@
         <v>447</v>
       </c>
       <c r="B192" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C192" t="s">
         <v>2038</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>2039</v>
-      </c>
-      <c r="D192" t="s">
-        <v>2040</v>
       </c>
       <c r="E192">
         <v>446698483</v>
@@ -17825,13 +17826,13 @@
         <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I192" t="s">
         <v>714</v>
       </c>
       <c r="J192" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.4">
@@ -17839,13 +17840,13 @@
         <v>934</v>
       </c>
       <c r="B193" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C193" t="s">
         <v>2041</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>2042</v>
-      </c>
-      <c r="D193" t="s">
-        <v>2043</v>
       </c>
       <c r="E193">
         <v>542648184</v>
@@ -17857,13 +17858,13 @@
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I193" t="s">
         <v>287</v>
       </c>
       <c r="J193" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.4">
@@ -17871,13 +17872,13 @@
         <v>923</v>
       </c>
       <c r="B194" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C194" t="s">
         <v>2044</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>2045</v>
-      </c>
-      <c r="D194" t="s">
-        <v>2046</v>
       </c>
       <c r="E194">
         <v>515886990</v>
@@ -17889,27 +17890,27 @@
         <v>10</v>
       </c>
       <c r="H194" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I194" t="s">
         <v>719</v>
       </c>
       <c r="J194" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B195" t="s">
         <v>2047</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>2048</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>2049</v>
-      </c>
-      <c r="D195" t="s">
-        <v>2050</v>
       </c>
       <c r="E195">
         <v>8069138982</v>
@@ -17932,16 +17933,16 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B196" t="s">
         <v>2051</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>2052</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>2053</v>
-      </c>
-      <c r="D196" t="s">
-        <v>2054</v>
       </c>
       <c r="E196">
         <v>206040841</v>
@@ -17967,13 +17968,13 @@
         <v>152</v>
       </c>
       <c r="B197" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C197" t="s">
         <v>2055</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>2056</v>
-      </c>
-      <c r="D197" t="s">
-        <v>2057</v>
       </c>
       <c r="E197">
         <v>92590000</v>
@@ -17990,8 +17991,8 @@
       <c r="I197" t="s">
         <v>357</v>
       </c>
-      <c r="J197" s="21" t="s">
-        <v>2452</v>
+      <c r="J197" s="18" t="s">
+        <v>2451</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.4">
@@ -17999,13 +18000,13 @@
         <v>444</v>
       </c>
       <c r="B198" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C198" t="s">
         <v>2058</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>2059</v>
-      </c>
-      <c r="D198" t="s">
-        <v>2060</v>
       </c>
       <c r="E198">
         <v>112940000</v>
@@ -18022,22 +18023,22 @@
       <c r="I198" t="s">
         <v>361</v>
       </c>
-      <c r="J198" s="21" t="s">
-        <v>2453</v>
+      <c r="J198" s="18" t="s">
+        <v>2452</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B199" t="s">
         <v>2061</v>
       </c>
-      <c r="B199" t="s">
-        <v>2062</v>
-      </c>
       <c r="C199" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D199" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E199" t="e">
         <v>#N/A</v>
@@ -18063,13 +18064,13 @@
         <v>100</v>
       </c>
       <c r="B200" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C200" t="s">
         <v>2063</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>2064</v>
-      </c>
-      <c r="D200" t="s">
-        <v>2065</v>
       </c>
       <c r="E200">
         <v>396683442</v>
@@ -18081,7 +18082,7 @@
         <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I200" t="s">
         <v>367</v>
@@ -18095,13 +18096,13 @@
         <v>453</v>
       </c>
       <c r="B201" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C201" t="s">
         <v>2066</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>2067</v>
-      </c>
-      <c r="D201" t="s">
-        <v>2068</v>
       </c>
       <c r="E201">
         <v>506537047</v>
@@ -18113,7 +18114,7 @@
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I201" t="s">
         <v>369</v>
@@ -18124,16 +18125,16 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B202" t="s">
         <v>2069</v>
       </c>
-      <c r="B202" t="s">
-        <v>2070</v>
-      </c>
       <c r="C202" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D202" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E202" t="e">
         <v>#N/A</v>
@@ -18159,13 +18160,13 @@
         <v>119</v>
       </c>
       <c r="B203" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C203" t="s">
         <v>2071</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>2072</v>
-      </c>
-      <c r="D203" t="s">
-        <v>2073</v>
       </c>
       <c r="E203">
         <v>693039121</v>
@@ -18177,7 +18178,7 @@
         <v>16</v>
       </c>
       <c r="H203" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I203" t="s">
         <v>365</v>
@@ -18191,13 +18192,13 @@
         <v>443</v>
       </c>
       <c r="B204" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C204" t="s">
         <v>2074</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>2075</v>
-      </c>
-      <c r="D204" t="s">
-        <v>2076</v>
       </c>
       <c r="E204">
         <v>752191724</v>
@@ -18209,7 +18210,7 @@
         <v>17</v>
       </c>
       <c r="H204" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I204" t="s">
         <v>363</v>
@@ -18223,13 +18224,13 @@
         <v>159</v>
       </c>
       <c r="B205" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C205" t="s">
         <v>2077</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>2078</v>
-      </c>
-      <c r="D205" t="s">
-        <v>2079</v>
       </c>
       <c r="E205">
         <v>545864268</v>
@@ -18241,7 +18242,7 @@
         <v>15</v>
       </c>
       <c r="H205" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I205" t="s">
         <v>370</v>
@@ -18255,13 +18256,13 @@
         <v>456</v>
       </c>
       <c r="B206" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C206" t="s">
         <v>2080</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>2081</v>
-      </c>
-      <c r="D206" t="s">
-        <v>2082</v>
       </c>
       <c r="E206">
         <v>821055309</v>
@@ -18273,13 +18274,13 @@
         <v>15</v>
       </c>
       <c r="H206" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I206" t="s">
         <v>759</v>
       </c>
       <c r="J206" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.4">
@@ -18287,13 +18288,13 @@
         <v>915</v>
       </c>
       <c r="B207" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C207" t="s">
         <v>2083</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>2084</v>
-      </c>
-      <c r="D207" t="s">
-        <v>2085</v>
       </c>
       <c r="E207">
         <v>789091740</v>
@@ -18319,13 +18320,13 @@
         <v>971</v>
       </c>
       <c r="B208" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C208" t="s">
         <v>2086</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>2087</v>
-      </c>
-      <c r="D208" t="s">
-        <v>2088</v>
       </c>
       <c r="E208">
         <v>631755526</v>
@@ -18337,13 +18338,13 @@
         <v>15</v>
       </c>
       <c r="H208" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I208" t="s">
         <v>721</v>
       </c>
       <c r="J208" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.4">
@@ -18351,13 +18352,13 @@
         <v>983</v>
       </c>
       <c r="B209" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C209" t="s">
         <v>2089</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>2090</v>
-      </c>
-      <c r="D209" t="s">
-        <v>2091</v>
       </c>
       <c r="E209">
         <v>533202165</v>
@@ -18369,13 +18370,13 @@
         <v>16</v>
       </c>
       <c r="H209" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I209" t="s">
         <v>766</v>
       </c>
       <c r="J209" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.4">
@@ -18383,13 +18384,13 @@
         <v>479</v>
       </c>
       <c r="B210" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C210" t="s">
         <v>2092</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>2093</v>
-      </c>
-      <c r="D210" t="s">
-        <v>2094</v>
       </c>
       <c r="E210">
         <v>597222769</v>
@@ -18401,13 +18402,13 @@
         <v>17</v>
       </c>
       <c r="H210" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I210" t="s">
         <v>757</v>
       </c>
       <c r="J210" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.4">
@@ -18415,13 +18416,13 @@
         <v>163</v>
       </c>
       <c r="B211" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C211" t="s">
         <v>2095</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>2096</v>
-      </c>
-      <c r="D211" t="s">
-        <v>2097</v>
       </c>
       <c r="E211">
         <v>495794067</v>
@@ -18433,13 +18434,13 @@
         <v>17</v>
       </c>
       <c r="H211" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I211" t="s">
         <v>703</v>
       </c>
       <c r="J211" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.4">
@@ -18447,13 +18448,13 @@
         <v>109</v>
       </c>
       <c r="B212" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C212" t="s">
         <v>2098</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>2099</v>
-      </c>
-      <c r="D212" t="s">
-        <v>2100</v>
       </c>
       <c r="E212">
         <v>607484716</v>
@@ -18465,13 +18466,13 @@
         <v>16</v>
       </c>
       <c r="H212" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I212" t="s">
         <v>700</v>
       </c>
       <c r="J212" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.4">
@@ -18479,13 +18480,13 @@
         <v>117</v>
       </c>
       <c r="B213" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C213" t="s">
         <v>2101</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>2102</v>
-      </c>
-      <c r="D213" t="s">
-        <v>2103</v>
       </c>
       <c r="E213">
         <v>493176247</v>
@@ -18497,27 +18498,27 @@
         <v>15</v>
       </c>
       <c r="H213" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="I213" t="s">
         <v>690</v>
       </c>
       <c r="J213" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B214" t="s">
         <v>2104</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>2105</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>2106</v>
-      </c>
-      <c r="D214" t="s">
-        <v>2107</v>
       </c>
       <c r="E214">
         <v>12345209476</v>
@@ -18543,13 +18544,13 @@
         <v>442</v>
       </c>
       <c r="B215" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C215" t="s">
         <v>2108</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>2109</v>
-      </c>
-      <c r="D215" t="s">
-        <v>2110</v>
       </c>
       <c r="E215">
         <v>51620811</v>
@@ -18561,7 +18562,7 @@
         <v>20</v>
       </c>
       <c r="H215" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I215" t="s">
         <v>356</v>
@@ -18575,13 +18576,13 @@
         <v>468</v>
       </c>
       <c r="B216" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C216" t="s">
         <v>2111</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>2112</v>
-      </c>
-      <c r="D216" t="s">
-        <v>2113</v>
       </c>
       <c r="E216">
         <v>512084272</v>
@@ -18593,7 +18594,7 @@
         <v>21</v>
       </c>
       <c r="H216" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I216" t="s">
         <v>368</v>
@@ -18607,13 +18608,13 @@
         <v>97</v>
       </c>
       <c r="B217" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C217" t="s">
         <v>2114</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>2115</v>
-      </c>
-      <c r="D217" t="s">
-        <v>2116</v>
       </c>
       <c r="E217">
         <v>911055038</v>
@@ -18625,7 +18626,7 @@
         <v>20</v>
       </c>
       <c r="H217" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I217" t="s">
         <v>371</v>
@@ -18639,13 +18640,13 @@
         <v>158</v>
       </c>
       <c r="B218" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C218" t="s">
         <v>2117</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>2118</v>
-      </c>
-      <c r="D218" t="s">
-        <v>2119</v>
       </c>
       <c r="E218">
         <v>608403003</v>
@@ -18657,7 +18658,7 @@
         <v>20</v>
       </c>
       <c r="H218" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I218" t="s">
         <v>373</v>
@@ -18671,13 +18672,13 @@
         <v>58</v>
       </c>
       <c r="B219" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C219" t="s">
         <v>2120</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>2121</v>
-      </c>
-      <c r="D219" t="s">
-        <v>2122</v>
       </c>
       <c r="E219">
         <v>463087471</v>
@@ -18689,7 +18690,7 @@
         <v>20</v>
       </c>
       <c r="H219" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I219" t="s">
         <v>372</v>
@@ -18703,13 +18704,13 @@
         <v>141</v>
       </c>
       <c r="B220" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C220" t="s">
         <v>2123</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>2124</v>
-      </c>
-      <c r="D220" t="s">
-        <v>2125</v>
       </c>
       <c r="E220">
         <v>455091603</v>
@@ -18721,13 +18722,13 @@
         <v>18</v>
       </c>
       <c r="H220" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I220" t="s">
         <v>729</v>
       </c>
       <c r="J220" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.4">
@@ -18735,13 +18736,13 @@
         <v>114</v>
       </c>
       <c r="B221" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C221" t="s">
         <v>2126</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>2127</v>
-      </c>
-      <c r="D221" t="s">
-        <v>2128</v>
       </c>
       <c r="E221">
         <v>547467005</v>
@@ -18753,13 +18754,13 @@
         <v>18</v>
       </c>
       <c r="H221" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I221" t="s">
         <v>737</v>
       </c>
       <c r="J221" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.4">
@@ -18767,13 +18768,13 @@
         <v>410</v>
       </c>
       <c r="B222" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C222" t="s">
         <v>2129</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>2130</v>
-      </c>
-      <c r="D222" t="s">
-        <v>2131</v>
       </c>
       <c r="E222">
         <v>443243407</v>
@@ -18785,13 +18786,13 @@
         <v>18</v>
       </c>
       <c r="H222" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I222" t="s">
         <v>716</v>
       </c>
       <c r="J222" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.4">
@@ -18799,13 +18800,13 @@
         <v>1037</v>
       </c>
       <c r="B223" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C223" t="s">
         <v>2132</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>2133</v>
-      </c>
-      <c r="D223" t="s">
-        <v>2134</v>
       </c>
       <c r="E223">
         <v>807372281</v>
@@ -18817,13 +18818,13 @@
         <v>22</v>
       </c>
       <c r="H223" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I223" t="s">
         <v>694</v>
       </c>
       <c r="J223" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.4">
@@ -18831,13 +18832,13 @@
         <v>116</v>
       </c>
       <c r="B224" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C224" t="s">
         <v>2135</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>2136</v>
-      </c>
-      <c r="D224" t="s">
-        <v>2137</v>
       </c>
       <c r="E224">
         <v>664012341</v>
@@ -18849,13 +18850,13 @@
         <v>21</v>
       </c>
       <c r="H224" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I224" t="s">
         <v>750</v>
       </c>
       <c r="J224" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.4">
@@ -18863,13 +18864,13 @@
         <v>457</v>
       </c>
       <c r="B225" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C225" t="s">
         <v>2138</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>2139</v>
-      </c>
-      <c r="D225" t="s">
-        <v>2140</v>
       </c>
       <c r="E225">
         <v>787011713</v>
@@ -18881,13 +18882,13 @@
         <v>19</v>
       </c>
       <c r="H225" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I225" t="s">
         <v>688</v>
       </c>
       <c r="J225" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.4">
@@ -18895,13 +18896,13 @@
         <v>472</v>
       </c>
       <c r="B226" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C226" t="s">
         <v>2141</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>2142</v>
-      </c>
-      <c r="D226" t="s">
-        <v>2143</v>
       </c>
       <c r="E226">
         <v>622342074</v>
@@ -18913,13 +18914,13 @@
         <v>22</v>
       </c>
       <c r="H226" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I226" t="s">
         <v>718</v>
       </c>
       <c r="J226" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.4">
@@ -18927,13 +18928,13 @@
         <v>895</v>
       </c>
       <c r="B227" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C227" t="s">
         <v>2144</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>2145</v>
-      </c>
-      <c r="D227" t="s">
-        <v>2146</v>
       </c>
       <c r="E227">
         <v>500909508</v>
@@ -18945,13 +18946,13 @@
         <v>22</v>
       </c>
       <c r="H227" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I227" t="s">
         <v>715</v>
       </c>
       <c r="J227" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.4">
@@ -18959,13 +18960,13 @@
         <v>478</v>
       </c>
       <c r="B228" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C228" t="s">
         <v>2147</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>2148</v>
-      </c>
-      <c r="D228" t="s">
-        <v>2149</v>
       </c>
       <c r="E228">
         <v>1031306018</v>
@@ -18977,13 +18978,13 @@
         <v>21</v>
       </c>
       <c r="H228" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I228" t="s">
         <v>686</v>
       </c>
       <c r="J228" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.4">
@@ -18991,13 +18992,13 @@
         <v>72</v>
       </c>
       <c r="B229" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C229" t="s">
         <v>2150</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>2151</v>
-      </c>
-      <c r="D229" t="s">
-        <v>2152</v>
       </c>
       <c r="E229">
         <v>612561438</v>
@@ -19009,13 +19010,13 @@
         <v>21</v>
       </c>
       <c r="H229" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I229" t="s">
         <v>692</v>
       </c>
       <c r="J229" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.4">
@@ -19023,13 +19024,13 @@
         <v>885</v>
       </c>
       <c r="B230" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C230" t="s">
         <v>2153</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>2154</v>
-      </c>
-      <c r="D230" t="s">
-        <v>2155</v>
       </c>
       <c r="E230">
         <v>449711044</v>
@@ -19041,13 +19042,13 @@
         <v>19</v>
       </c>
       <c r="H230" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I230" t="s">
         <v>278</v>
       </c>
       <c r="J230" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.4">
@@ -19055,13 +19056,13 @@
         <v>974</v>
       </c>
       <c r="B231" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C231" t="s">
         <v>2156</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>2157</v>
-      </c>
-      <c r="D231" t="s">
-        <v>2158</v>
       </c>
       <c r="E231">
         <v>392103012</v>
@@ -19073,13 +19074,13 @@
         <v>18</v>
       </c>
       <c r="H231" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I231" t="s">
         <v>697</v>
       </c>
       <c r="J231" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.4">
@@ -19087,13 +19088,13 @@
         <v>454</v>
       </c>
       <c r="B232" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C232" t="s">
         <v>2159</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>2160</v>
-      </c>
-      <c r="D232" t="s">
-        <v>2161</v>
       </c>
       <c r="E232">
         <v>474963093</v>
@@ -19105,13 +19106,13 @@
         <v>17</v>
       </c>
       <c r="H232" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I232" t="s">
         <v>705</v>
       </c>
       <c r="J232" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.4">
@@ -19119,13 +19120,13 @@
         <v>71</v>
       </c>
       <c r="B233" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C233" t="s">
         <v>2162</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>2163</v>
-      </c>
-      <c r="D233" t="s">
-        <v>2164</v>
       </c>
       <c r="E233">
         <v>518401901</v>
@@ -19137,13 +19138,13 @@
         <v>17</v>
       </c>
       <c r="H233" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I233" t="s">
         <v>730</v>
       </c>
       <c r="J233" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.4">
@@ -19151,13 +19152,13 @@
         <v>157</v>
       </c>
       <c r="B234" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C234" t="s">
         <v>2165</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>2166</v>
-      </c>
-      <c r="D234" t="s">
-        <v>2167</v>
       </c>
       <c r="E234">
         <v>396761181</v>
@@ -19169,13 +19170,13 @@
         <v>23</v>
       </c>
       <c r="H234" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I234" t="s">
         <v>698</v>
       </c>
       <c r="J234" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.4">
@@ -19183,13 +19184,13 @@
         <v>66</v>
       </c>
       <c r="B235" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C235" t="s">
         <v>2168</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>2169</v>
-      </c>
-      <c r="D235" t="s">
-        <v>2170</v>
       </c>
       <c r="E235">
         <v>440100025</v>
@@ -19201,13 +19202,13 @@
         <v>22</v>
       </c>
       <c r="H235" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I235" t="s">
         <v>681</v>
       </c>
       <c r="J235" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.4">
@@ -19215,13 +19216,13 @@
         <v>500</v>
       </c>
       <c r="B236" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C236" t="s">
         <v>2171</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>2172</v>
-      </c>
-      <c r="D236" t="s">
-        <v>2173</v>
       </c>
       <c r="E236">
         <v>655601237</v>
@@ -19233,27 +19234,27 @@
         <v>19</v>
       </c>
       <c r="H236" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="I236" t="s">
         <v>731</v>
       </c>
       <c r="J236" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B237" t="s">
         <v>2174</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>2175</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>2176</v>
-      </c>
-      <c r="D237" t="s">
-        <v>2177</v>
       </c>
       <c r="E237">
         <v>19033343126</v>
@@ -19276,16 +19277,16 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B238" t="s">
         <v>2178</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>2179</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>2180</v>
-      </c>
-      <c r="D238" t="s">
-        <v>2181</v>
       </c>
       <c r="E238">
         <v>1130077695</v>
@@ -19311,13 +19312,13 @@
         <v>79</v>
       </c>
       <c r="B239" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C239" t="s">
         <v>2182</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>2183</v>
-      </c>
-      <c r="D239" t="s">
-        <v>2184</v>
       </c>
       <c r="E239">
         <v>393020000</v>
@@ -19334,8 +19335,8 @@
       <c r="I239" t="s">
         <v>312</v>
       </c>
-      <c r="J239" s="21" t="s">
-        <v>2454</v>
+      <c r="J239" s="18" t="s">
+        <v>2453</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.4">
@@ -19343,13 +19344,13 @@
         <v>483</v>
       </c>
       <c r="B240" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C240" t="s">
         <v>2185</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>2186</v>
-      </c>
-      <c r="D240" t="s">
-        <v>2187</v>
       </c>
       <c r="E240">
         <v>734720000</v>
@@ -19366,8 +19367,8 @@
       <c r="I240" t="s">
         <v>304</v>
       </c>
-      <c r="J240" s="21" t="s">
-        <v>2455</v>
+      <c r="J240" s="18" t="s">
+        <v>2454</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.4">
@@ -19375,13 +19376,13 @@
         <v>899</v>
       </c>
       <c r="B241" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C241" t="s">
         <v>2188</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>2189</v>
-      </c>
-      <c r="D241" t="s">
-        <v>2190</v>
       </c>
       <c r="E241">
         <v>1324857727</v>
@@ -19393,7 +19394,7 @@
         <v>12</v>
       </c>
       <c r="H241" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I241" t="s">
         <v>377</v>
@@ -19407,13 +19408,13 @@
         <v>489</v>
       </c>
       <c r="B242" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C242" t="s">
         <v>2191</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>2192</v>
-      </c>
-      <c r="D242" t="s">
-        <v>2193</v>
       </c>
       <c r="E242">
         <v>1009801474</v>
@@ -19425,7 +19426,7 @@
         <v>11</v>
       </c>
       <c r="H242" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I242" t="s">
         <v>390</v>
@@ -19439,13 +19440,13 @@
         <v>942</v>
       </c>
       <c r="B243" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C243" t="s">
         <v>2194</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>2195</v>
-      </c>
-      <c r="D243" t="s">
-        <v>2196</v>
       </c>
       <c r="E243">
         <v>1522098729</v>
@@ -19457,7 +19458,7 @@
         <v>10</v>
       </c>
       <c r="H243" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I243" t="s">
         <v>384</v>
@@ -19471,13 +19472,13 @@
         <v>448</v>
       </c>
       <c r="B244" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C244" t="s">
         <v>2197</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>2198</v>
-      </c>
-      <c r="D244" t="s">
-        <v>2199</v>
       </c>
       <c r="E244">
         <v>615346702</v>
@@ -19489,7 +19490,7 @@
         <v>10</v>
       </c>
       <c r="H244" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I244" t="s">
         <v>386</v>
@@ -19503,13 +19504,13 @@
         <v>465</v>
       </c>
       <c r="B245" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C245" t="s">
         <v>2200</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>2201</v>
-      </c>
-      <c r="D245" t="s">
-        <v>2202</v>
       </c>
       <c r="E245">
         <v>670089068</v>
@@ -19521,7 +19522,7 @@
         <v>9</v>
       </c>
       <c r="H245" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I245" t="s">
         <v>394</v>
@@ -19535,13 +19536,13 @@
         <v>929</v>
       </c>
       <c r="B246" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C246" t="s">
         <v>2203</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>2204</v>
-      </c>
-      <c r="D246" t="s">
-        <v>2205</v>
       </c>
       <c r="E246">
         <v>919205140</v>
@@ -19553,7 +19554,7 @@
         <v>12</v>
       </c>
       <c r="H246" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I246" t="s">
         <v>383</v>
@@ -19567,13 +19568,13 @@
         <v>98</v>
       </c>
       <c r="B247" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C247" t="s">
         <v>2206</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>2207</v>
-      </c>
-      <c r="D247" t="s">
-        <v>2208</v>
       </c>
       <c r="E247">
         <v>1254640829</v>
@@ -19585,7 +19586,7 @@
         <v>8</v>
       </c>
       <c r="H247" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I247" t="s">
         <v>389</v>
@@ -19599,13 +19600,13 @@
         <v>529</v>
       </c>
       <c r="B248" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C248" t="s">
         <v>2209</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>2210</v>
-      </c>
-      <c r="D248" t="s">
-        <v>2211</v>
       </c>
       <c r="E248">
         <v>911902545</v>
@@ -19617,7 +19618,7 @@
         <v>8</v>
       </c>
       <c r="H248" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I248" t="s">
         <v>391</v>
@@ -19631,13 +19632,13 @@
         <v>1062</v>
       </c>
       <c r="B249" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C249" t="s">
         <v>2212</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>2213</v>
-      </c>
-      <c r="D249" t="s">
-        <v>2214</v>
       </c>
       <c r="E249">
         <v>411756867</v>
@@ -19649,7 +19650,7 @@
         <v>12</v>
       </c>
       <c r="H249" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I249" t="s">
         <v>396</v>
@@ -19663,13 +19664,13 @@
         <v>916</v>
       </c>
       <c r="B250" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C250" t="s">
         <v>2215</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>2216</v>
-      </c>
-      <c r="D250" t="s">
-        <v>2217</v>
       </c>
       <c r="E250">
         <v>614324743</v>
@@ -19681,13 +19682,13 @@
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I250" t="s">
         <v>713</v>
       </c>
       <c r="J250" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.4">
@@ -19695,13 +19696,13 @@
         <v>74</v>
       </c>
       <c r="B251" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C251" t="s">
         <v>2218</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>2219</v>
-      </c>
-      <c r="D251" t="s">
-        <v>2220</v>
       </c>
       <c r="E251">
         <v>1174734216</v>
@@ -19713,13 +19714,13 @@
         <v>11</v>
       </c>
       <c r="H251" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I251" t="s">
         <v>734</v>
       </c>
       <c r="J251" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.4">
@@ -19727,13 +19728,13 @@
         <v>969</v>
       </c>
       <c r="B252" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C252" t="s">
         <v>2221</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>2222</v>
-      </c>
-      <c r="D252" t="s">
-        <v>2223</v>
       </c>
       <c r="E252">
         <v>846120639</v>
@@ -19759,13 +19760,13 @@
         <v>105</v>
       </c>
       <c r="B253" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C253" t="s">
         <v>2224</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>2225</v>
-      </c>
-      <c r="D253" t="s">
-        <v>2226</v>
       </c>
       <c r="E253">
         <v>815749347</v>
@@ -19777,13 +19778,13 @@
         <v>10</v>
       </c>
       <c r="H253" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I253" t="s">
         <v>696</v>
       </c>
       <c r="J253" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.4">
@@ -19791,13 +19792,13 @@
         <v>40</v>
       </c>
       <c r="B254" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C254" t="s">
         <v>2227</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>2228</v>
-      </c>
-      <c r="D254" t="s">
-        <v>2229</v>
       </c>
       <c r="E254">
         <v>741220163</v>
@@ -19809,13 +19810,13 @@
         <v>10</v>
       </c>
       <c r="H254" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I254" t="s">
         <v>733</v>
       </c>
       <c r="J254" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.4">
@@ -19823,13 +19824,13 @@
         <v>933</v>
       </c>
       <c r="B255" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C255" t="s">
         <v>2230</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>2231</v>
-      </c>
-      <c r="D255" t="s">
-        <v>2232</v>
       </c>
       <c r="E255">
         <v>693810304</v>
@@ -19841,13 +19842,13 @@
         <v>13</v>
       </c>
       <c r="H255" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I255" t="s">
         <v>704</v>
       </c>
       <c r="J255" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.4">
@@ -19855,13 +19856,13 @@
         <v>69</v>
       </c>
       <c r="B256" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C256" t="s">
         <v>2233</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>2234</v>
-      </c>
-      <c r="D256" t="s">
-        <v>2235</v>
       </c>
       <c r="E256">
         <v>384059802</v>
@@ -19873,13 +19874,13 @@
         <v>13</v>
       </c>
       <c r="H256" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I256" t="s">
         <v>753</v>
       </c>
       <c r="J256" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.4">
@@ -19887,13 +19888,13 @@
         <v>841</v>
       </c>
       <c r="B257" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C257" t="s">
         <v>2236</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>2237</v>
-      </c>
-      <c r="D257" t="s">
-        <v>2238</v>
       </c>
       <c r="E257">
         <v>616106444</v>
@@ -19905,13 +19906,13 @@
         <v>12</v>
       </c>
       <c r="H257" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I257" t="s">
         <v>727</v>
       </c>
       <c r="J257" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.4">
@@ -19919,13 +19920,13 @@
         <v>82</v>
       </c>
       <c r="B258" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C258" t="s">
         <v>2239</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>2240</v>
-      </c>
-      <c r="D258" t="s">
-        <v>2241</v>
       </c>
       <c r="E258">
         <v>450937034</v>
@@ -19937,13 +19938,13 @@
         <v>12</v>
       </c>
       <c r="H258" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I258" t="s">
         <v>724</v>
       </c>
       <c r="J258" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.4">
@@ -19951,13 +19952,13 @@
         <v>907</v>
       </c>
       <c r="B259" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C259" t="s">
         <v>2242</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>2243</v>
-      </c>
-      <c r="D259" t="s">
-        <v>2244</v>
       </c>
       <c r="E259">
         <v>661483887</v>
@@ -19969,13 +19970,13 @@
         <v>9</v>
       </c>
       <c r="H259" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I259" t="s">
         <v>710</v>
       </c>
       <c r="J259" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.4">
@@ -19983,13 +19984,13 @@
         <v>893</v>
       </c>
       <c r="B260" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C260" t="s">
         <v>2245</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>2246</v>
-      </c>
-      <c r="D260" t="s">
-        <v>2247</v>
       </c>
       <c r="E260">
         <v>1202034344</v>
@@ -20001,13 +20002,13 @@
         <v>9</v>
       </c>
       <c r="H260" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I260" t="s">
         <v>728</v>
       </c>
       <c r="J260" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.4">
@@ -20015,13 +20016,13 @@
         <v>469</v>
       </c>
       <c r="B261" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C261" t="s">
         <v>2248</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>2249</v>
-      </c>
-      <c r="D261" t="s">
-        <v>2250</v>
       </c>
       <c r="E261">
         <v>990043224</v>
@@ -20033,13 +20034,13 @@
         <v>9</v>
       </c>
       <c r="H261" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I261" t="s">
         <v>680</v>
       </c>
       <c r="J261" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.4">
@@ -20047,13 +20048,13 @@
         <v>1176</v>
       </c>
       <c r="B262" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C262" t="s">
         <v>2251</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>2252</v>
-      </c>
-      <c r="D262" t="s">
-        <v>2253</v>
       </c>
       <c r="E262">
         <v>72942203</v>
@@ -20065,27 +20066,27 @@
         <v>6</v>
       </c>
       <c r="H262" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I262" t="s">
         <v>749</v>
       </c>
       <c r="J262" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B263" t="s">
         <v>2254</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>2255</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>2256</v>
-      </c>
-      <c r="D263" t="s">
-        <v>2257</v>
       </c>
       <c r="E263">
         <v>10540373561</v>
@@ -20108,16 +20109,16 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B264" t="s">
         <v>2258</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>2259</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>2260</v>
-      </c>
-      <c r="D264" t="s">
-        <v>2261</v>
       </c>
       <c r="E264">
         <v>748032641</v>
@@ -20143,13 +20144,13 @@
         <v>80</v>
       </c>
       <c r="B265" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C265" t="s">
         <v>2262</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>2263</v>
-      </c>
-      <c r="D265" t="s">
-        <v>2264</v>
       </c>
       <c r="E265">
         <v>211150000</v>
@@ -20166,8 +20167,8 @@
       <c r="I265" t="s">
         <v>395</v>
       </c>
-      <c r="J265" s="21" t="s">
-        <v>2456</v>
+      <c r="J265" s="18" t="s">
+        <v>2455</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.4">
@@ -20175,13 +20176,13 @@
         <v>982</v>
       </c>
       <c r="B266" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C266" t="s">
         <v>2265</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>2266</v>
-      </c>
-      <c r="D266" t="s">
-        <v>2267</v>
       </c>
       <c r="E266">
         <v>82220000</v>
@@ -20198,8 +20199,8 @@
       <c r="I266" t="s">
         <v>397</v>
       </c>
-      <c r="J266" s="21" t="s">
-        <v>2457</v>
+      <c r="J266" s="18" t="s">
+        <v>2456</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.4">
@@ -20207,13 +20208,13 @@
         <v>480</v>
       </c>
       <c r="B267" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C267" t="s">
         <v>2268</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>2269</v>
-      </c>
-      <c r="D267" t="s">
-        <v>2270</v>
       </c>
       <c r="E267">
         <v>241070000</v>
@@ -20230,8 +20231,8 @@
       <c r="I267" t="s">
         <v>874</v>
       </c>
-      <c r="J267" s="21" t="s">
-        <v>2458</v>
+      <c r="J267" s="18" t="s">
+        <v>2457</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.4">
@@ -20239,13 +20240,13 @@
         <v>525</v>
       </c>
       <c r="B268" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C268" t="s">
         <v>2271</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>2272</v>
-      </c>
-      <c r="D268" t="s">
-        <v>2273</v>
       </c>
       <c r="E268">
         <v>90580000</v>
@@ -20262,8 +20263,8 @@
       <c r="I268" t="s">
         <v>864</v>
       </c>
-      <c r="J268" s="21" t="s">
-        <v>2459</v>
+      <c r="J268" s="18" t="s">
+        <v>2458</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.4">
@@ -20271,13 +20272,13 @@
         <v>1036</v>
       </c>
       <c r="B269" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C269" t="s">
         <v>2274</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>2275</v>
-      </c>
-      <c r="D269" t="s">
-        <v>2276</v>
       </c>
       <c r="E269">
         <v>122910000</v>
@@ -20294,8 +20295,8 @@
       <c r="I269" t="s">
         <v>401</v>
       </c>
-      <c r="J269" s="21" t="s">
-        <v>2460</v>
+      <c r="J269" s="18" t="s">
+        <v>2459</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.4">
@@ -20303,13 +20304,13 @@
         <v>481</v>
       </c>
       <c r="B270" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C270" t="s">
         <v>2277</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>2278</v>
-      </c>
-      <c r="D270" t="s">
-        <v>2279</v>
       </c>
       <c r="E270">
         <v>712860198</v>
@@ -20321,7 +20322,7 @@
         <v>17</v>
       </c>
       <c r="H270" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I270" t="s">
         <v>382</v>
@@ -20335,13 +20336,13 @@
         <v>460</v>
       </c>
       <c r="B271" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C271" t="s">
         <v>2280</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>2281</v>
-      </c>
-      <c r="D271" t="s">
-        <v>2282</v>
       </c>
       <c r="E271">
         <v>239860468</v>
@@ -20353,7 +20354,7 @@
         <v>20</v>
       </c>
       <c r="H271" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I271" t="s">
         <v>374</v>
@@ -20367,13 +20368,13 @@
         <v>901</v>
       </c>
       <c r="B272" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C272" t="s">
         <v>2283</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>2284</v>
-      </c>
-      <c r="D272" t="s">
-        <v>2285</v>
       </c>
       <c r="E272">
         <v>398675093</v>
@@ -20396,16 +20397,16 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B273" t="s">
         <v>2286</v>
       </c>
-      <c r="B273" t="s">
-        <v>2287</v>
-      </c>
       <c r="C273" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D273" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E273" t="e">
         <v>#N/A</v>
@@ -20431,13 +20432,13 @@
         <v>93</v>
       </c>
       <c r="B274" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C274" t="s">
         <v>2288</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>2289</v>
-      </c>
-      <c r="D274" t="s">
-        <v>2290</v>
       </c>
       <c r="E274">
         <v>463447827</v>
@@ -20449,7 +20450,7 @@
         <v>19</v>
       </c>
       <c r="H274" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I274" t="s">
         <v>398</v>
@@ -20460,16 +20461,16 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B275" t="s">
         <v>2291</v>
       </c>
-      <c r="B275" t="s">
-        <v>2292</v>
-      </c>
       <c r="C275" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D275" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E275" t="e">
         <v>#N/A</v>
@@ -20495,13 +20496,13 @@
         <v>912</v>
       </c>
       <c r="B276" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C276" t="s">
         <v>2293</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>2294</v>
-      </c>
-      <c r="D276" t="s">
-        <v>2295</v>
       </c>
       <c r="E276">
         <v>798671224</v>
@@ -20513,7 +20514,7 @@
         <v>16</v>
       </c>
       <c r="H276" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I276" t="s">
         <v>399</v>
@@ -20527,13 +20528,13 @@
         <v>905</v>
       </c>
       <c r="B277" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C277" t="s">
         <v>2296</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>2297</v>
-      </c>
-      <c r="D277" t="s">
-        <v>2298</v>
       </c>
       <c r="E277">
         <v>403228579</v>
@@ -20545,7 +20546,7 @@
         <v>20</v>
       </c>
       <c r="H277" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I277" t="s">
         <v>385</v>
@@ -20559,13 +20560,13 @@
         <v>1204</v>
       </c>
       <c r="B278" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C278" t="s">
         <v>2299</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>2300</v>
-      </c>
-      <c r="D278" t="s">
-        <v>2301</v>
       </c>
       <c r="E278">
         <v>485604354</v>
@@ -20588,16 +20589,16 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B279" t="s">
         <v>2302</v>
       </c>
-      <c r="B279" t="s">
-        <v>2303</v>
-      </c>
       <c r="C279" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D279" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E279" t="e">
         <v>#N/A</v>
@@ -20623,13 +20624,13 @@
         <v>980</v>
       </c>
       <c r="B280" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C280" t="s">
         <v>2304</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>2305</v>
-      </c>
-      <c r="D280" t="s">
-        <v>2306</v>
       </c>
       <c r="E280">
         <v>482910830</v>
@@ -20641,13 +20642,13 @@
         <v>16</v>
       </c>
       <c r="H280" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I280" t="s">
         <v>709</v>
       </c>
       <c r="J280" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.4">
@@ -20655,13 +20656,13 @@
         <v>909</v>
       </c>
       <c r="B281" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C281" t="s">
         <v>2307</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>2308</v>
-      </c>
-      <c r="D281" t="s">
-        <v>2309</v>
       </c>
       <c r="E281">
         <v>416602010</v>
@@ -20687,13 +20688,13 @@
         <v>852</v>
       </c>
       <c r="B282" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C282" t="s">
         <v>2310</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>2311</v>
-      </c>
-      <c r="D282" t="s">
-        <v>2312</v>
       </c>
       <c r="E282">
         <v>532830708</v>
@@ -20705,13 +20706,13 @@
         <v>15</v>
       </c>
       <c r="H282" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I282" t="s">
         <v>745</v>
       </c>
       <c r="J282" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.4">
@@ -20719,13 +20720,13 @@
         <v>1019</v>
       </c>
       <c r="B283" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C283" t="s">
         <v>2313</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>2314</v>
-      </c>
-      <c r="D283" t="s">
-        <v>2315</v>
       </c>
       <c r="E283">
         <v>517957151</v>
@@ -20751,13 +20752,13 @@
         <v>1020</v>
       </c>
       <c r="B284" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C284" t="s">
         <v>2316</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>2317</v>
-      </c>
-      <c r="D284" t="s">
-        <v>2318</v>
       </c>
       <c r="E284">
         <v>357545659</v>
@@ -20769,13 +20770,13 @@
         <v>19</v>
       </c>
       <c r="H284" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I284" t="s">
         <v>746</v>
       </c>
       <c r="J284" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.4">
@@ -20783,13 +20784,13 @@
         <v>24</v>
       </c>
       <c r="B285" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C285" t="s">
         <v>2319</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>2320</v>
-      </c>
-      <c r="D285" t="s">
-        <v>2321</v>
       </c>
       <c r="E285">
         <v>675236982</v>
@@ -20801,13 +20802,13 @@
         <v>19</v>
       </c>
       <c r="H285" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I285" t="s">
         <v>755</v>
       </c>
       <c r="J285" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.4">
@@ -20815,13 +20816,13 @@
         <v>922</v>
       </c>
       <c r="B286" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C286" t="s">
         <v>2322</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>2323</v>
-      </c>
-      <c r="D286" t="s">
-        <v>2324</v>
       </c>
       <c r="E286">
         <v>794604515</v>
@@ -20833,13 +20834,13 @@
         <v>18</v>
       </c>
       <c r="H286" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I286" t="s">
         <v>732</v>
       </c>
       <c r="J286" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.4">
@@ -20847,13 +20848,13 @@
         <v>842</v>
       </c>
       <c r="B287" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C287" t="s">
         <v>2325</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>2326</v>
-      </c>
-      <c r="D287" t="s">
-        <v>2327</v>
       </c>
       <c r="E287">
         <v>725485214</v>
@@ -20865,13 +20866,13 @@
         <v>16</v>
       </c>
       <c r="H287" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I287" t="s">
         <v>683</v>
       </c>
       <c r="J287" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.4">
@@ -20879,13 +20880,13 @@
         <v>1181</v>
       </c>
       <c r="B288" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C288" t="s">
         <v>2328</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>2329</v>
-      </c>
-      <c r="D288" t="s">
-        <v>2330</v>
       </c>
       <c r="E288">
         <v>803312949</v>
@@ -20897,13 +20898,13 @@
         <v>15</v>
       </c>
       <c r="H288" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I288" t="s">
         <v>284</v>
       </c>
       <c r="J288" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.4">
@@ -20911,13 +20912,13 @@
         <v>1050</v>
       </c>
       <c r="B289" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C289" t="s">
         <v>2331</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>2332</v>
-      </c>
-      <c r="D289" t="s">
-        <v>2333</v>
       </c>
       <c r="E289">
         <v>983507159</v>
@@ -20929,27 +20930,27 @@
         <v>14</v>
       </c>
       <c r="H289" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I289" t="s">
         <v>760</v>
       </c>
       <c r="J289" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B290" t="s">
         <v>2334</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
         <v>2335</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>2336</v>
-      </c>
-      <c r="D290" t="s">
-        <v>2337</v>
       </c>
       <c r="E290">
         <v>1850227390</v>
@@ -20975,13 +20976,13 @@
         <v>1175</v>
       </c>
       <c r="B291" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C291" t="s">
         <v>2338</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>2339</v>
-      </c>
-      <c r="D291" t="s">
-        <v>2340</v>
       </c>
       <c r="E291">
         <v>978668959</v>
@@ -20993,13 +20994,13 @@
         <v>24</v>
       </c>
       <c r="H291" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="I291" t="s">
         <v>726</v>
       </c>
-      <c r="J291" s="21" t="s">
-        <v>2461</v>
+      <c r="J291" s="18" t="s">
+        <v>2460</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.4">
@@ -21007,13 +21008,13 @@
         <v>944</v>
       </c>
       <c r="B292" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C292" t="s">
         <v>2341</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>2342</v>
-      </c>
-      <c r="D292" t="s">
-        <v>2343</v>
       </c>
       <c r="E292">
         <v>871558431</v>
@@ -21025,13 +21026,13 @@
         <v>25</v>
       </c>
       <c r="H292" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="I292" t="s">
         <v>876</v>
       </c>
-      <c r="J292" s="21" t="s">
-        <v>2463</v>
+      <c r="J292" s="18" t="s">
+        <v>2462</v>
       </c>
     </row>
   </sheetData>
@@ -24321,8 +24322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A0884B-BACF-41FB-A1C1-19B192711C79}">
   <dimension ref="A1:IA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="CC1" sqref="CC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -24353,13 +24354,13 @@
         <v>679</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2473</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>2422</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2474</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>2423</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>512</v>
@@ -24368,7 +24369,7 @@
         <v>42</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>25</v>
@@ -24395,7 +24396,7 @@
         <v>1218</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>988</v>
@@ -24407,10 +24408,10 @@
         <v>1011</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>2425</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>2426</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>2427</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>1054</v>
@@ -24434,7 +24435,7 @@
         <v>63</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>1209</v>
@@ -24452,7 +24453,7 @@
         <v>659</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="AQ1" s="3" t="s">
         <v>629</v>
@@ -24485,7 +24486,7 @@
         <v>602</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BB1" s="3" t="s">
         <v>660</v>
@@ -24518,19 +24519,19 @@
         <v>432</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BM1" s="3" t="s">
         <v>701</v>
       </c>
       <c r="BN1" s="3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="BO1" s="3" t="s">
         <v>2465</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>2466</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>2467</v>
       </c>
       <c r="BQ1" s="3" t="s">
         <v>669</v>
@@ -24557,7 +24558,7 @@
         <v>603</v>
       </c>
       <c r="BY1" s="3" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BZ1" s="3" t="s">
         <v>610</v>
@@ -24572,7 +24573,7 @@
         <v>620</v>
       </c>
       <c r="CD1" s="3" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="CE1" s="3" t="s">
         <v>607</v>
@@ -24581,7 +24582,7 @@
         <v>740</v>
       </c>
       <c r="CG1" s="3" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="CH1" s="3" t="s">
         <v>613</v>
@@ -24602,7 +24603,7 @@
         <v>657</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="CO1" s="3" t="s">
         <v>702</v>
@@ -24647,7 +24648,7 @@
         <v>645</v>
       </c>
       <c r="DC1" s="3" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="DD1" s="3" t="s">
         <v>416</v>
@@ -24674,7 +24675,7 @@
         <v>431</v>
       </c>
       <c r="DL1" s="3" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="DM1" s="3" t="s">
         <v>530</v>
@@ -24689,7 +24690,7 @@
         <v>144</v>
       </c>
       <c r="DQ1" s="3" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="DR1" s="3" t="s">
         <v>519</v>
@@ -24815,13 +24816,13 @@
         <v>622</v>
       </c>
       <c r="FG1" s="3" t="s">
+        <v>2478</v>
+      </c>
+      <c r="FH1" s="3" t="s">
         <v>2479</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FI1" s="3" t="s">
         <v>2480</v>
-      </c>
-      <c r="FI1" s="3" t="s">
-        <v>2481</v>
       </c>
       <c r="FJ1" s="3" t="s">
         <v>677</v>
@@ -24845,10 +24846,10 @@
         <v>653</v>
       </c>
       <c r="FQ1" s="3" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="FR1" s="3" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="FS1" s="3" t="s">
         <v>625</v>
@@ -24881,13 +24882,13 @@
         <v>658</v>
       </c>
       <c r="GC1" s="3" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="GD1" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="GE1" s="3" t="s">
         <v>2375</v>
-      </c>
-      <c r="GE1" s="3" t="s">
-        <v>2376</v>
       </c>
       <c r="GF1" s="3" t="s">
         <v>649</v>
@@ -24938,7 +24939,7 @@
         <v>630</v>
       </c>
       <c r="GV1" s="3" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="GW1" s="3" t="s">
         <v>638</v>
@@ -24980,7 +24981,7 @@
         <v>612</v>
       </c>
       <c r="HJ1" s="3" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="HK1" s="3" t="s">
         <v>635</v>
@@ -25031,7 +25032,7 @@
         <v>662</v>
       </c>
       <c r="IA1" s="3" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
   </sheetData>
@@ -26575,22 +26576,22 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="16" t="s">
         <v>285</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B819AE1-0976-4C09-A98B-0A2705CC4566}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2498065-4F48-4A3A-95D7-2412AC3BA969}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8803" uniqueCount="2484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8803" uniqueCount="2485">
   <si>
     <t>안양 동안구</t>
   </si>
@@ -7527,6 +7527,10 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기광주</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -11679,7 +11683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -24322,8 +24326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A0884B-BACF-41FB-A1C1-19B192711C79}">
   <dimension ref="A1:IA1"/>
   <sheetViews>
-    <sheetView topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="CC1" sqref="CC1"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="CC2" sqref="CC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -24569,8 +24573,8 @@
       <c r="CB1" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="CC1" s="3" t="s">
-        <v>620</v>
+      <c r="CC1" s="18" t="s">
+        <v>2484</v>
       </c>
       <c r="CD1" s="3" t="s">
         <v>2477</v>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2498065-4F48-4A3A-95D7-2412AC3BA969}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEA7D4AE-2E71-40E4-8A50-ACA85AF3F7E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="1836" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -11683,8 +11683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14880,7 +14880,7 @@
         <v>36600000</v>
       </c>
       <c r="F100">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G100">
         <v>7</v>
@@ -14912,7 +14912,7 @@
         <v>21930000</v>
       </c>
       <c r="F101">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G101">
         <v>7</v>
@@ -14979,7 +14979,7 @@
         <v>3</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
         <v>1719</v>
@@ -15168,10 +15168,10 @@
         <v>57830000</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H109" t="s">
         <v>226</v>
@@ -15200,10 +15200,10 @@
         <v>91230000</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H110" t="s">
         <v>226</v>
@@ -21042,6 +21042,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24326,7 +24327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A0884B-BACF-41FB-A1C1-19B192711C79}">
   <dimension ref="A1:IA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+    <sheetView topLeftCell="BR1" workbookViewId="0">
       <selection activeCell="CC2" sqref="CC2"/>
     </sheetView>
   </sheetViews>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEA7D4AE-2E71-40E4-8A50-ACA85AF3F7E1}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCC94A7-9DCE-427F-954A-DE5A6CCCDEDB}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="1836" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -7722,7 +7722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -7773,6 +7773,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11681,10 +11684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
-  <dimension ref="A1:J292"/>
+  <dimension ref="A1:Y292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14255,7 +14258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -14287,7 +14290,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>497</v>
       </c>
@@ -14319,7 +14322,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>1024</v>
       </c>
@@ -14351,7 +14354,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -14383,7 +14386,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>1009</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>1715</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>507</v>
       </c>
@@ -14479,7 +14482,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>1718</v>
       </c>
@@ -14511,7 +14514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>1722</v>
       </c>
@@ -14543,7 +14546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -14575,7 +14578,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>1233</v>
       </c>
@@ -14607,7 +14610,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>990</v>
       </c>
@@ -14638,8 +14641,10 @@
       <c r="J92" s="18" t="s">
         <v>2430</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>1236</v>
       </c>
@@ -14670,8 +14675,10 @@
       <c r="J93" s="18" t="s">
         <v>2431</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>1738</v>
       </c>
@@ -14702,8 +14709,31 @@
       <c r="J94" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="S94">
+        <v>3</v>
+      </c>
+      <c r="T94">
+        <v>4</v>
+      </c>
+      <c r="U94">
+        <v>5</v>
+      </c>
+      <c r="V94">
+        <v>6</v>
+      </c>
+      <c r="W94">
+        <v>7</v>
+      </c>
+      <c r="X94">
+        <v>8</v>
+      </c>
+      <c r="Y94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>1022</v>
       </c>
@@ -14734,8 +14764,16 @@
       <c r="J95" s="18" t="s">
         <v>2432</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>1007</v>
       </c>
@@ -14766,8 +14804,16 @@
       <c r="J96" s="18" t="s">
         <v>2433</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>524</v>
       </c>
@@ -14798,8 +14844,16 @@
       <c r="J97" s="18" t="s">
         <v>2434</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>991</v>
       </c>
@@ -14830,8 +14884,13 @@
       <c r="J98" s="18" t="s">
         <v>2463</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="S98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>1754</v>
       </c>
@@ -14847,12 +14906,8 @@
       <c r="E99">
         <v>58467312</v>
       </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
-        <v>5</v>
-      </c>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
       <c r="H99" t="e">
         <v>#N/A</v>
       </c>
@@ -14862,8 +14917,13 @@
       <c r="J99" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="Y99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>461</v>
       </c>
@@ -14894,8 +14954,13 @@
       <c r="J100" s="18" t="s">
         <v>2435</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="S100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>477</v>
       </c>
@@ -14926,8 +14991,13 @@
       <c r="J101" s="18" t="s">
         <v>2436</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="S101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>1008</v>
       </c>
@@ -14958,8 +15028,16 @@
       <c r="J102" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="S102">
+        <v>7</v>
+      </c>
+      <c r="W102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>1030</v>
       </c>
@@ -14990,8 +15068,25 @@
       <c r="J103" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="S103">
+        <v>8</v>
+      </c>
+      <c r="T103">
+        <v>8</v>
+      </c>
+      <c r="U103">
+        <v>8</v>
+      </c>
+      <c r="V103">
+        <v>8</v>
+      </c>
+      <c r="W103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>475</v>
       </c>
@@ -15022,8 +15117,16 @@
       <c r="J104" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="U104">
+        <v>9</v>
+      </c>
+      <c r="V104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>1773</v>
       </c>
@@ -15054,8 +15157,10 @@
       <c r="J105" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>1775</v>
       </c>
@@ -15086,8 +15191,10 @@
       <c r="J106" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>1208</v>
       </c>
@@ -15118,8 +15225,10 @@
       <c r="J107" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>1780</v>
       </c>
@@ -15150,8 +15259,10 @@
       <c r="J108" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>495</v>
       </c>
@@ -15182,8 +15293,10 @@
       <c r="J109" s="18" t="s">
         <v>2437</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>1005</v>
       </c>
@@ -15214,8 +15327,10 @@
       <c r="J110" s="18" t="s">
         <v>2438</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>1790</v>
       </c>
@@ -15246,8 +15361,10 @@
       <c r="J111" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>1213</v>
       </c>
@@ -15278,8 +15395,10 @@
       <c r="J112" s="18" t="s">
         <v>2439</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>485</v>
       </c>
@@ -15310,8 +15429,10 @@
       <c r="J113" s="18" t="s">
         <v>2440</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>496</v>
       </c>
@@ -15342,8 +15463,10 @@
       <c r="J114" s="18" t="s">
         <v>2441</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -15374,8 +15497,10 @@
       <c r="J115" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -15406,8 +15531,10 @@
       <c r="J116" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>945</v>
       </c>
@@ -15438,8 +15565,10 @@
       <c r="J117" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>1812</v>
       </c>
@@ -15470,8 +15599,10 @@
       <c r="J118" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>490</v>
       </c>
@@ -15502,8 +15633,10 @@
       <c r="J119" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>470</v>
       </c>
@@ -15534,8 +15667,10 @@
       <c r="J120" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>476</v>
       </c>
@@ -15566,8 +15701,10 @@
       <c r="J121" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>917</v>
       </c>
@@ -15598,8 +15735,10 @@
       <c r="J122" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -15630,8 +15769,10 @@
       <c r="J123" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>1829</v>
       </c>
@@ -15662,8 +15803,10 @@
       <c r="J124" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>446</v>
       </c>
@@ -15694,8 +15837,10 @@
       <c r="J125" s="18" t="s">
         <v>2442</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -15726,8 +15871,10 @@
       <c r="J126" s="18" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>451</v>
       </c>
@@ -15758,8 +15905,10 @@
       <c r="J127" s="18" t="s">
         <v>2444</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -15790,8 +15939,10 @@
       <c r="J128" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>452</v>
       </c>
@@ -15822,8 +15973,10 @@
       <c r="J129" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>1015</v>
       </c>
@@ -15854,8 +16007,10 @@
       <c r="J130" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -15886,8 +16041,10 @@
       <c r="J131" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -15918,8 +16075,10 @@
       <c r="J132" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>1857</v>
       </c>
@@ -15950,8 +16109,10 @@
       <c r="J133" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>1859</v>
       </c>
@@ -15982,8 +16143,10 @@
       <c r="J134" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>111</v>
       </c>
@@ -16015,7 +16178,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>488</v>
       </c>
@@ -16047,7 +16210,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>404</v>
       </c>
@@ -16064,10 +16227,10 @@
         <v>826957493</v>
       </c>
       <c r="F137">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="s">
         <v>1719</v>
@@ -16079,7 +16242,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>499</v>
       </c>
@@ -16111,7 +16274,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>920</v>
       </c>
@@ -16143,7 +16306,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>960</v>
       </c>
@@ -16175,7 +16338,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -16207,7 +16370,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>1882</v>
       </c>
@@ -16239,7 +16402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -16271,7 +16434,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>425</v>
       </c>
@@ -26581,22 +26744,22 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="16" t="s">
         <v>285</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCC94A7-9DCE-427F-954A-DE5A6CCCDEDB}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F219AC92-F34C-4C4C-95BA-74DFAE1B6E74}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11684,10 +11684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
-  <dimension ref="A1:Y292"/>
+  <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14258,7 +14258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>497</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>1024</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>1009</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>1715</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>507</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>1718</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>1722</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>1233</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>990</v>
       </c>
@@ -14641,10 +14641,8 @@
       <c r="J92" s="18" t="s">
         <v>2430</v>
       </c>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>1236</v>
       </c>
@@ -14675,10 +14673,8 @@
       <c r="J93" s="18" t="s">
         <v>2431</v>
       </c>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>1738</v>
       </c>
@@ -14709,31 +14705,8 @@
       <c r="J94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="S94">
-        <v>3</v>
-      </c>
-      <c r="T94">
-        <v>4</v>
-      </c>
-      <c r="U94">
-        <v>5</v>
-      </c>
-      <c r="V94">
-        <v>6</v>
-      </c>
-      <c r="W94">
-        <v>7</v>
-      </c>
-      <c r="X94">
-        <v>8</v>
-      </c>
-      <c r="Y94">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>1022</v>
       </c>
@@ -14764,16 +14737,8 @@
       <c r="J95" s="18" t="s">
         <v>2432</v>
       </c>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="T95">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>1007</v>
       </c>
@@ -14804,16 +14769,8 @@
       <c r="J96" s="18" t="s">
         <v>2433</v>
       </c>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="S96">
-        <v>1</v>
-      </c>
-      <c r="T96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>524</v>
       </c>
@@ -14844,16 +14801,8 @@
       <c r="J97" s="18" t="s">
         <v>2434</v>
       </c>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="S97">
-        <v>1</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>991</v>
       </c>
@@ -14884,13 +14833,8 @@
       <c r="J98" s="18" t="s">
         <v>2463</v>
       </c>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="S98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>1754</v>
       </c>
@@ -14917,13 +14861,8 @@
       <c r="J99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="Y99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>461</v>
       </c>
@@ -14954,13 +14893,8 @@
       <c r="J100" s="18" t="s">
         <v>2435</v>
       </c>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="S100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>477</v>
       </c>
@@ -14991,13 +14925,8 @@
       <c r="J101" s="18" t="s">
         <v>2436</v>
       </c>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="S101">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>1008</v>
       </c>
@@ -15028,16 +14957,8 @@
       <c r="J102" t="s">
         <v>701</v>
       </c>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="S102">
-        <v>7</v>
-      </c>
-      <c r="W102">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>1030</v>
       </c>
@@ -15068,25 +14989,8 @@
       <c r="J103" t="s">
         <v>665</v>
       </c>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="S103">
-        <v>8</v>
-      </c>
-      <c r="T103">
-        <v>8</v>
-      </c>
-      <c r="U103">
-        <v>8</v>
-      </c>
-      <c r="V103">
-        <v>8</v>
-      </c>
-      <c r="W103">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>475</v>
       </c>
@@ -15117,16 +15021,8 @@
       <c r="J104" t="s">
         <v>603</v>
       </c>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="U104">
-        <v>9</v>
-      </c>
-      <c r="V104">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>1773</v>
       </c>
@@ -15157,10 +15053,8 @@
       <c r="J105" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>1775</v>
       </c>
@@ -15191,10 +15085,8 @@
       <c r="J106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>1208</v>
       </c>
@@ -15225,10 +15117,8 @@
       <c r="J107" t="s">
         <v>666</v>
       </c>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>1780</v>
       </c>
@@ -15259,10 +15149,8 @@
       <c r="J108" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>495</v>
       </c>
@@ -15293,10 +15181,8 @@
       <c r="J109" s="18" t="s">
         <v>2437</v>
       </c>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>1005</v>
       </c>
@@ -15327,10 +15213,8 @@
       <c r="J110" s="18" t="s">
         <v>2438</v>
       </c>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>1790</v>
       </c>
@@ -15361,10 +15245,8 @@
       <c r="J111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>1213</v>
       </c>
@@ -15395,10 +15277,8 @@
       <c r="J112" s="18" t="s">
         <v>2439</v>
       </c>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>485</v>
       </c>
@@ -15429,10 +15309,8 @@
       <c r="J113" s="18" t="s">
         <v>2440</v>
       </c>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>496</v>
       </c>
@@ -15463,10 +15341,8 @@
       <c r="J114" s="18" t="s">
         <v>2441</v>
       </c>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -15497,10 +15373,8 @@
       <c r="J115" t="s">
         <v>629</v>
       </c>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -15531,10 +15405,8 @@
       <c r="J116" t="s">
         <v>624</v>
       </c>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>945</v>
       </c>
@@ -15565,10 +15437,8 @@
       <c r="J117" t="s">
         <v>610</v>
       </c>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>1812</v>
       </c>
@@ -15599,10 +15469,8 @@
       <c r="J118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>490</v>
       </c>
@@ -15633,10 +15501,8 @@
       <c r="J119" t="s">
         <v>628</v>
       </c>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>470</v>
       </c>
@@ -15667,10 +15533,8 @@
       <c r="J120" t="s">
         <v>678</v>
       </c>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>476</v>
       </c>
@@ -15701,10 +15565,8 @@
       <c r="J121" t="s">
         <v>654</v>
       </c>
-      <c r="M121" s="3"/>
-      <c r="N121" s="3"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>917</v>
       </c>
@@ -15735,10 +15597,8 @@
       <c r="J122" t="s">
         <v>602</v>
       </c>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -15769,10 +15629,8 @@
       <c r="J123" t="s">
         <v>634</v>
       </c>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>1829</v>
       </c>
@@ -15803,10 +15661,8 @@
       <c r="J124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>446</v>
       </c>
@@ -15837,10 +15693,8 @@
       <c r="J125" s="18" t="s">
         <v>2442</v>
       </c>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -15871,10 +15725,8 @@
       <c r="J126" s="18" t="s">
         <v>2443</v>
       </c>
-      <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>451</v>
       </c>
@@ -15905,10 +15757,8 @@
       <c r="J127" s="18" t="s">
         <v>2444</v>
       </c>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -15939,10 +15789,8 @@
       <c r="J128" t="s">
         <v>657</v>
       </c>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>452</v>
       </c>
@@ -15973,10 +15821,8 @@
       <c r="J129" t="s">
         <v>607</v>
       </c>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>1015</v>
       </c>
@@ -16007,10 +15853,8 @@
       <c r="J130" t="s">
         <v>660</v>
       </c>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -16041,10 +15885,8 @@
       <c r="J131" t="s">
         <v>613</v>
       </c>
-      <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -16075,10 +15917,8 @@
       <c r="J132" t="s">
         <v>609</v>
       </c>
-      <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>1857</v>
       </c>
@@ -16109,10 +15949,8 @@
       <c r="J133" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>1859</v>
       </c>
@@ -16143,10 +15981,8 @@
       <c r="J134" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>111</v>
       </c>
@@ -16178,7 +16014,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>488</v>
       </c>
@@ -16210,7 +16046,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>404</v>
       </c>
@@ -16242,7 +16078,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>499</v>
       </c>
@@ -16274,7 +16110,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>920</v>
       </c>
@@ -16306,7 +16142,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>960</v>
       </c>
@@ -16338,7 +16174,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -16370,7 +16206,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>1882</v>
       </c>
@@ -16402,7 +16238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -16434,7 +16270,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>425</v>
       </c>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F219AC92-F34C-4C4C-95BA-74DFAE1B6E74}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{447973C7-05B0-4616-8DC4-79A1FA8ECA75}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7722,7 +7722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -7773,9 +7773,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11686,8 +11683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14850,8 +14847,12 @@
       <c r="E99">
         <v>58467312</v>
       </c>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
+      <c r="F99" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G99" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H99" t="e">
         <v>#N/A</v>
       </c>
@@ -26580,22 +26581,22 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="16" t="s">
         <v>285</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{447973C7-05B0-4616-8DC4-79A1FA8ECA75}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F88983-672C-4127-A3AF-57D391EA97D9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11683,8 +11683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -16064,10 +16064,10 @@
         <v>826957493</v>
       </c>
       <c r="F137">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>1719</v>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -11683,8 +11683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F88983-672C-4127-A3AF-57D391EA97D9}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D812B96-7679-4ABE-AA1D-5C657359280A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7787,7 +7787,17 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -7967,22 +7977,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
     </tableStyle>
     <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -11681,10 +11691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
-  <dimension ref="A1:J292"/>
+  <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11695,7 +11705,7 @@
     <col min="10" max="10" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>2483</v>
       </c>
@@ -11727,7 +11737,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2349</v>
       </c>
@@ -11759,7 +11769,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>919</v>
       </c>
@@ -11791,7 +11801,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1006</v>
       </c>
@@ -11822,8 +11832,9 @@
       <c r="J4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1244</v>
       </c>
@@ -11854,8 +11865,9 @@
       <c r="J5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1245</v>
       </c>
@@ -11886,8 +11898,9 @@
       <c r="J6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1035</v>
       </c>
@@ -11918,8 +11931,9 @@
       <c r="J7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>412</v>
       </c>
@@ -11950,8 +11964,9 @@
       <c r="J8" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1032</v>
       </c>
@@ -11982,8 +11997,9 @@
       <c r="J9" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>1042</v>
       </c>
@@ -12014,8 +12030,9 @@
       <c r="J10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>984</v>
       </c>
@@ -12046,8 +12063,9 @@
       <c r="J11" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -12078,8 +12096,9 @@
       <c r="J12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>464</v>
       </c>
@@ -12110,8 +12129,9 @@
       <c r="J13" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>501</v>
       </c>
@@ -12142,8 +12162,9 @@
       <c r="J14" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -12174,8 +12195,9 @@
       <c r="J15" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -12206,8 +12228,9 @@
       <c r="J16" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>1046</v>
       </c>
@@ -12238,8 +12261,9 @@
       <c r="J17" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>998</v>
       </c>
@@ -12270,8 +12294,9 @@
       <c r="J18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>1043</v>
       </c>
@@ -12302,8 +12327,9 @@
       <c r="J19" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>1229</v>
       </c>
@@ -12334,8 +12360,9 @@
       <c r="J20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>1026</v>
       </c>
@@ -12366,8 +12393,9 @@
       <c r="J21" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>1051</v>
       </c>
@@ -12398,8 +12426,9 @@
       <c r="J22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>892</v>
       </c>
@@ -12430,8 +12459,9 @@
       <c r="J23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>1018</v>
       </c>
@@ -12462,8 +12492,9 @@
       <c r="J24" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -12494,8 +12525,9 @@
       <c r="J25" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -12526,8 +12558,9 @@
       <c r="J26" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>1044</v>
       </c>
@@ -12558,8 +12591,9 @@
       <c r="J27" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>1537</v>
       </c>
@@ -12590,8 +12624,9 @@
       <c r="J28" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>1184</v>
       </c>
@@ -12622,8 +12657,9 @@
       <c r="J29" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>890</v>
       </c>
@@ -12654,8 +12690,9 @@
       <c r="J30" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -12686,8 +12723,9 @@
       <c r="J31" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -12718,8 +12756,9 @@
       <c r="J32" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>508</v>
       </c>
@@ -12750,8 +12789,9 @@
       <c r="J33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -12782,8 +12822,9 @@
       <c r="J34" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>199</v>
       </c>
@@ -12814,8 +12855,9 @@
       <c r="J35" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -12846,8 +12888,9 @@
       <c r="J36" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>1045</v>
       </c>
@@ -12878,8 +12921,9 @@
       <c r="J37" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>1033</v>
       </c>
@@ -12910,8 +12954,9 @@
       <c r="J38" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -12942,8 +12987,9 @@
       <c r="J39" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>491</v>
       </c>
@@ -12974,8 +13020,9 @@
       <c r="J40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>487</v>
       </c>
@@ -13006,8 +13053,9 @@
       <c r="J41" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>515</v>
       </c>
@@ -13038,8 +13086,9 @@
       <c r="J42" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>1016</v>
       </c>
@@ -13070,8 +13119,9 @@
       <c r="J43" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>1029</v>
       </c>
@@ -13102,8 +13152,9 @@
       <c r="J44" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>1589</v>
       </c>
@@ -13134,8 +13185,9 @@
       <c r="J45" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>484</v>
       </c>
@@ -13166,8 +13218,9 @@
       <c r="J46" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>906</v>
       </c>
@@ -13198,8 +13251,9 @@
       <c r="J47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>771</v>
       </c>
@@ -13230,8 +13284,9 @@
       <c r="J48" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -13262,8 +13317,9 @@
       <c r="J49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>993</v>
       </c>
@@ -13294,8 +13350,9 @@
       <c r="J50" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -13326,8 +13383,9 @@
       <c r="J51" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -13358,8 +13416,9 @@
       <c r="J52" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>482</v>
       </c>
@@ -13390,8 +13449,9 @@
       <c r="J53" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>1617</v>
       </c>
@@ -13422,8 +13482,9 @@
       <c r="J54" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>1000</v>
       </c>
@@ -13454,8 +13515,9 @@
       <c r="J55" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>1624</v>
       </c>
@@ -13486,8 +13548,9 @@
       <c r="J56" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>1627</v>
       </c>
@@ -13518,8 +13581,9 @@
       <c r="J57" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>1040</v>
       </c>
@@ -13550,8 +13614,9 @@
       <c r="J58" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>1228</v>
       </c>
@@ -13582,8 +13647,9 @@
       <c r="J59" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>1060</v>
       </c>
@@ -13614,8 +13680,9 @@
       <c r="J60" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -13646,8 +13713,9 @@
       <c r="J61" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>1025</v>
       </c>
@@ -13678,8 +13746,9 @@
       <c r="J62" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>471</v>
       </c>
@@ -13710,8 +13779,9 @@
       <c r="J63" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>1004</v>
       </c>
@@ -13742,8 +13812,9 @@
       <c r="J64" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>1650</v>
       </c>
@@ -13774,8 +13845,9 @@
       <c r="J65" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>1243</v>
       </c>
@@ -13806,8 +13878,9 @@
       <c r="J66" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>1242</v>
       </c>
@@ -13838,8 +13911,9 @@
       <c r="J67" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>1658</v>
       </c>
@@ -13870,8 +13944,9 @@
       <c r="J68" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>1010</v>
       </c>
@@ -13902,8 +13977,9 @@
       <c r="J69" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -13934,8 +14010,9 @@
       <c r="J70" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>1230</v>
       </c>
@@ -13966,8 +14043,9 @@
       <c r="J71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -13998,8 +14076,9 @@
       <c r="J72" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>1215</v>
       </c>
@@ -14030,8 +14109,9 @@
       <c r="J73" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>1677</v>
       </c>
@@ -14062,8 +14142,9 @@
       <c r="J74" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>463</v>
       </c>
@@ -14094,8 +14175,9 @@
       <c r="J75" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>474</v>
       </c>
@@ -14126,8 +14208,9 @@
       <c r="J76" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>999</v>
       </c>
@@ -14158,8 +14241,9 @@
       <c r="J77" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>1048</v>
       </c>
@@ -14190,8 +14274,9 @@
       <c r="J78" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>113</v>
       </c>
@@ -14222,8 +14307,9 @@
       <c r="J79" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>1696</v>
       </c>
@@ -14254,8 +14340,9 @@
       <c r="J80" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -14286,8 +14373,9 @@
       <c r="J81" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>497</v>
       </c>
@@ -14318,8 +14406,9 @@
       <c r="J82" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>1024</v>
       </c>
@@ -14350,8 +14439,9 @@
       <c r="J83" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -14382,8 +14472,9 @@
       <c r="J84" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>1009</v>
       </c>
@@ -14414,8 +14505,9 @@
       <c r="J85" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>1715</v>
       </c>
@@ -14446,8 +14538,9 @@
       <c r="J86" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>507</v>
       </c>
@@ -14478,8 +14571,9 @@
       <c r="J87" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>1718</v>
       </c>
@@ -14510,8 +14604,9 @@
       <c r="J88" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>1722</v>
       </c>
@@ -14542,8 +14637,9 @@
       <c r="J89" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>124</v>
       </c>
@@ -14574,8 +14670,9 @@
       <c r="J90" s="18" t="s">
         <v>2428</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>1233</v>
       </c>
@@ -14606,8 +14703,9 @@
       <c r="J91" s="18" t="s">
         <v>2429</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>990</v>
       </c>
@@ -14638,8 +14736,9 @@
       <c r="J92" s="18" t="s">
         <v>2430</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>1236</v>
       </c>
@@ -14670,8 +14769,9 @@
       <c r="J93" s="18" t="s">
         <v>2431</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>1738</v>
       </c>
@@ -14702,8 +14802,9 @@
       <c r="J94" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>1022</v>
       </c>
@@ -14734,8 +14835,9 @@
       <c r="J95" s="18" t="s">
         <v>2432</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>1007</v>
       </c>
@@ -14766,8 +14868,9 @@
       <c r="J96" s="18" t="s">
         <v>2433</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>524</v>
       </c>
@@ -14798,8 +14901,9 @@
       <c r="J97" s="18" t="s">
         <v>2434</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>991</v>
       </c>
@@ -14830,8 +14934,9 @@
       <c r="J98" s="18" t="s">
         <v>2463</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>1754</v>
       </c>
@@ -14847,11 +14952,11 @@
       <c r="E99">
         <v>58467312</v>
       </c>
-      <c r="F99" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G99" s="3" t="e">
-        <v>#N/A</v>
+      <c r="F99" s="3">
+        <v>3</v>
+      </c>
+      <c r="G99" s="3">
+        <v>5</v>
       </c>
       <c r="H99" t="e">
         <v>#N/A</v>
@@ -14862,8 +14967,9 @@
       <c r="J99" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>461</v>
       </c>
@@ -14880,7 +14986,7 @@
         <v>36600000</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G100">
         <v>7</v>
@@ -14894,8 +15000,9 @@
       <c r="J100" s="18" t="s">
         <v>2435</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>477</v>
       </c>
@@ -14912,7 +15019,7 @@
         <v>21930000</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G101">
         <v>7</v>
@@ -14926,8 +15033,9 @@
       <c r="J101" s="18" t="s">
         <v>2436</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>1008</v>
       </c>
@@ -14958,8 +15066,9 @@
       <c r="J102" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>1030</v>
       </c>
@@ -14979,7 +15088,7 @@
         <v>3</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>1719</v>
@@ -14990,8 +15099,9 @@
       <c r="J103" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>475</v>
       </c>
@@ -15022,8 +15132,9 @@
       <c r="J104" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>1773</v>
       </c>
@@ -15054,8 +15165,9 @@
       <c r="J105" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>1775</v>
       </c>
@@ -15086,8 +15198,9 @@
       <c r="J106" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>1208</v>
       </c>
@@ -15118,8 +15231,9 @@
       <c r="J107" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>1780</v>
       </c>
@@ -15150,8 +15264,9 @@
       <c r="J108" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>495</v>
       </c>
@@ -15168,10 +15283,10 @@
         <v>57830000</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H109" t="s">
         <v>226</v>
@@ -15182,8 +15297,9 @@
       <c r="J109" s="18" t="s">
         <v>2437</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>1005</v>
       </c>
@@ -15200,10 +15316,10 @@
         <v>91230000</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H110" t="s">
         <v>226</v>
@@ -15214,8 +15330,9 @@
       <c r="J110" s="18" t="s">
         <v>2438</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>1790</v>
       </c>
@@ -15246,8 +15363,9 @@
       <c r="J111" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>1213</v>
       </c>
@@ -15278,8 +15396,9 @@
       <c r="J112" s="18" t="s">
         <v>2439</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>485</v>
       </c>
@@ -15310,8 +15429,9 @@
       <c r="J113" s="18" t="s">
         <v>2440</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>496</v>
       </c>
@@ -15342,8 +15462,9 @@
       <c r="J114" s="18" t="s">
         <v>2441</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -15374,8 +15495,9 @@
       <c r="J115" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -15406,8 +15528,9 @@
       <c r="J116" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>945</v>
       </c>
@@ -15438,8 +15561,9 @@
       <c r="J117" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>1812</v>
       </c>
@@ -15470,8 +15594,9 @@
       <c r="J118" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>490</v>
       </c>
@@ -15502,8 +15627,9 @@
       <c r="J119" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>470</v>
       </c>
@@ -15534,8 +15660,9 @@
       <c r="J120" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>476</v>
       </c>
@@ -15566,8 +15693,9 @@
       <c r="J121" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>917</v>
       </c>
@@ -15598,8 +15726,9 @@
       <c r="J122" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -15630,8 +15759,9 @@
       <c r="J123" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>1829</v>
       </c>
@@ -15662,8 +15792,9 @@
       <c r="J124" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>446</v>
       </c>
@@ -15694,8 +15825,9 @@
       <c r="J125" s="18" t="s">
         <v>2442</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -15726,8 +15858,9 @@
       <c r="J126" s="18" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>451</v>
       </c>
@@ -15758,8 +15891,9 @@
       <c r="J127" s="18" t="s">
         <v>2444</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -15790,8 +15924,9 @@
       <c r="J128" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>452</v>
       </c>
@@ -15822,8 +15957,9 @@
       <c r="J129" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>1015</v>
       </c>
@@ -15854,8 +15990,9 @@
       <c r="J130" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -15886,8 +16023,9 @@
       <c r="J131" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -15918,8 +16056,9 @@
       <c r="J132" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>1857</v>
       </c>
@@ -15950,8 +16089,9 @@
       <c r="J133" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>1859</v>
       </c>
@@ -15982,8 +16122,9 @@
       <c r="J134" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>111</v>
       </c>
@@ -16014,8 +16155,9 @@
       <c r="J135" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>488</v>
       </c>
@@ -16046,8 +16188,9 @@
       <c r="J136" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>404</v>
       </c>
@@ -16078,8 +16221,9 @@
       <c r="J137" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>499</v>
       </c>
@@ -16110,8 +16254,9 @@
       <c r="J138" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>920</v>
       </c>
@@ -16142,8 +16287,9 @@
       <c r="J139" t="s">
         <v>2351</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>960</v>
       </c>
@@ -16174,8 +16320,9 @@
       <c r="J140" t="s">
         <v>2352</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -16206,8 +16353,9 @@
       <c r="J141" t="s">
         <v>2353</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>1882</v>
       </c>
@@ -16238,8 +16386,9 @@
       <c r="J142" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -16270,8 +16419,9 @@
       <c r="J143" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>425</v>
       </c>
@@ -16302,8 +16452,9 @@
       <c r="J144" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>949</v>
       </c>
@@ -16334,8 +16485,9 @@
       <c r="J145" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>968</v>
       </c>
@@ -16366,8 +16518,9 @@
       <c r="J146" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -16398,8 +16551,9 @@
       <c r="J147" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>931</v>
       </c>
@@ -16430,8 +16584,9 @@
       <c r="J148" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>925</v>
       </c>
@@ -16462,8 +16617,9 @@
       <c r="J149" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>904</v>
       </c>
@@ -16494,8 +16650,9 @@
       <c r="J150" t="s">
         <v>2354</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -16526,8 +16683,9 @@
       <c r="J151" t="s">
         <v>2355</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>205</v>
       </c>
@@ -16558,8 +16716,9 @@
       <c r="J152" t="s">
         <v>2356</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>914</v>
       </c>
@@ -16590,8 +16749,9 @@
       <c r="J153" t="s">
         <v>2357</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>954</v>
       </c>
@@ -16622,8 +16782,9 @@
       <c r="J154" t="s">
         <v>2358</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>32</v>
       </c>
@@ -16654,8 +16815,9 @@
       <c r="J155" t="s">
         <v>2359</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>838</v>
       </c>
@@ -16686,8 +16848,9 @@
       <c r="J156" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>978</v>
       </c>
@@ -16718,8 +16881,9 @@
       <c r="J157" t="s">
         <v>2361</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>436</v>
       </c>
@@ -16750,8 +16914,9 @@
       <c r="J158" t="s">
         <v>2362</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>523</v>
       </c>
@@ -16782,8 +16947,9 @@
       <c r="J159" t="s">
         <v>2363</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>81</v>
       </c>
@@ -16814,8 +16980,9 @@
       <c r="J160" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>1940</v>
       </c>
@@ -16846,8 +17013,9 @@
       <c r="J161" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>1944</v>
       </c>
@@ -16878,8 +17046,9 @@
       <c r="J162" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>963</v>
       </c>
@@ -16910,8 +17079,9 @@
       <c r="J163" s="18" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>889</v>
       </c>
@@ -16942,8 +17112,9 @@
       <c r="J164" s="18" t="s">
         <v>2446</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>1039</v>
       </c>
@@ -16974,8 +17145,9 @@
       <c r="J165" s="18" t="s">
         <v>2447</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>406</v>
       </c>
@@ -17006,8 +17178,9 @@
       <c r="J166" s="18" t="s">
         <v>2448</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>939</v>
       </c>
@@ -17038,8 +17211,9 @@
       <c r="J167" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>107</v>
       </c>
@@ -17070,8 +17244,9 @@
       <c r="J168" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>459</v>
       </c>
@@ -17102,8 +17277,9 @@
       <c r="J169" t="s">
         <v>2365</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>129</v>
       </c>
@@ -17134,8 +17310,9 @@
       <c r="J170" t="s">
         <v>2366</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>115</v>
       </c>
@@ -17166,8 +17343,9 @@
       <c r="J171" t="s">
         <v>2367</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>118</v>
       </c>
@@ -17198,8 +17376,9 @@
       <c r="J172" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>441</v>
       </c>
@@ -17230,8 +17409,9 @@
       <c r="J173" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>938</v>
       </c>
@@ -17262,8 +17442,9 @@
       <c r="J174" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>834</v>
       </c>
@@ -17294,8 +17475,9 @@
       <c r="J175" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>927</v>
       </c>
@@ -17326,8 +17508,9 @@
       <c r="J176" t="s">
         <v>2369</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>1990</v>
       </c>
@@ -17358,8 +17541,9 @@
       <c r="J177" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>1994</v>
       </c>
@@ -17390,8 +17574,9 @@
       <c r="J178" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K178" s="3"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>450</v>
       </c>
@@ -17422,8 +17607,9 @@
       <c r="J179" s="18" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K179" s="3"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>844</v>
       </c>
@@ -17454,8 +17640,9 @@
       <c r="J180" s="18" t="s">
         <v>2450</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>953</v>
       </c>
@@ -17486,8 +17673,9 @@
       <c r="J181" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>492</v>
       </c>
@@ -17518,8 +17706,9 @@
       <c r="J182" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>908</v>
       </c>
@@ -17550,8 +17739,9 @@
       <c r="J183" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>928</v>
       </c>
@@ -17582,8 +17772,9 @@
       <c r="J184" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>828</v>
       </c>
@@ -17614,8 +17805,9 @@
       <c r="J185" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>108</v>
       </c>
@@ -17646,8 +17838,9 @@
       <c r="J186" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>848</v>
       </c>
@@ -17678,8 +17871,9 @@
       <c r="J187" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>924</v>
       </c>
@@ -17710,8 +17904,9 @@
       <c r="J188" t="s">
         <v>2370</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>102</v>
       </c>
@@ -17742,8 +17937,9 @@
       <c r="J189" t="s">
         <v>2371</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>455</v>
       </c>
@@ -17774,8 +17970,9 @@
       <c r="J190" t="s">
         <v>2372</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>106</v>
       </c>
@@ -17806,8 +18003,9 @@
       <c r="J191" t="s">
         <v>2373</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K191" s="3"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>447</v>
       </c>
@@ -17838,8 +18036,9 @@
       <c r="J192" t="s">
         <v>2374</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K192" s="3"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>934</v>
       </c>
@@ -17870,8 +18069,9 @@
       <c r="J193" t="s">
         <v>2375</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K193" s="3"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>923</v>
       </c>
@@ -17902,8 +18102,9 @@
       <c r="J194" t="s">
         <v>2376</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K194" s="3"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>2046</v>
       </c>
@@ -17934,8 +18135,9 @@
       <c r="J195" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K195" s="3"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>2050</v>
       </c>
@@ -17966,8 +18168,9 @@
       <c r="J196" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K196" s="3"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>152</v>
       </c>
@@ -17998,8 +18201,9 @@
       <c r="J197" s="18" t="s">
         <v>2451</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K197" s="3"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>444</v>
       </c>
@@ -18030,8 +18234,9 @@
       <c r="J198" s="18" t="s">
         <v>2452</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K198" s="3"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>2060</v>
       </c>
@@ -18062,8 +18267,9 @@
       <c r="J199" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K199" s="3"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>100</v>
       </c>
@@ -18094,8 +18300,9 @@
       <c r="J200" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K200" s="3"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>453</v>
       </c>
@@ -18126,8 +18333,9 @@
       <c r="J201" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K201" s="3"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>2068</v>
       </c>
@@ -18158,8 +18366,9 @@
       <c r="J202" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>119</v>
       </c>
@@ -18190,8 +18399,9 @@
       <c r="J203" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K203" s="3"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>443</v>
       </c>
@@ -18222,8 +18432,9 @@
       <c r="J204" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>159</v>
       </c>
@@ -18254,8 +18465,9 @@
       <c r="J205" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K205" s="3"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>456</v>
       </c>
@@ -18286,8 +18498,9 @@
       <c r="J206" t="s">
         <v>2377</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K206" s="3"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>915</v>
       </c>
@@ -18318,8 +18531,9 @@
       <c r="J207" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K207" s="3"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>971</v>
       </c>
@@ -18350,8 +18564,9 @@
       <c r="J208" t="s">
         <v>2378</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K208" s="3"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>983</v>
       </c>
@@ -18382,8 +18597,9 @@
       <c r="J209" t="s">
         <v>2379</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K209" s="3"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>479</v>
       </c>
@@ -18414,8 +18630,9 @@
       <c r="J210" t="s">
         <v>2380</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K210" s="3"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>163</v>
       </c>
@@ -18446,8 +18663,9 @@
       <c r="J211" t="s">
         <v>2381</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K211" s="3"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>109</v>
       </c>
@@ -18478,8 +18696,9 @@
       <c r="J212" t="s">
         <v>2382</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K212" s="3"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>117</v>
       </c>
@@ -18510,8 +18729,9 @@
       <c r="J213" t="s">
         <v>2383</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K213" s="3"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>2103</v>
       </c>
@@ -18542,8 +18762,9 @@
       <c r="J214" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K214" s="3"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>442</v>
       </c>
@@ -18574,8 +18795,9 @@
       <c r="J215" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K215" s="3"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>468</v>
       </c>
@@ -18606,8 +18828,9 @@
       <c r="J216" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>97</v>
       </c>
@@ -18638,8 +18861,9 @@
       <c r="J217" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K217" s="3"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>158</v>
       </c>
@@ -18670,8 +18894,9 @@
       <c r="J218" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K218" s="3"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>58</v>
       </c>
@@ -18702,8 +18927,9 @@
       <c r="J219" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K219" s="3"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>141</v>
       </c>
@@ -18734,8 +18960,9 @@
       <c r="J220" t="s">
         <v>2384</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K220" s="3"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>114</v>
       </c>
@@ -18766,8 +18993,9 @@
       <c r="J221" t="s">
         <v>2385</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K221" s="3"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>410</v>
       </c>
@@ -18798,8 +19026,9 @@
       <c r="J222" t="s">
         <v>2386</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K222" s="3"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>1037</v>
       </c>
@@ -18830,8 +19059,9 @@
       <c r="J223" t="s">
         <v>2387</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K223" s="3"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>116</v>
       </c>
@@ -18862,8 +19092,9 @@
       <c r="J224" t="s">
         <v>2388</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K224" s="3"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>457</v>
       </c>
@@ -18894,8 +19125,9 @@
       <c r="J225" t="s">
         <v>2389</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K225" s="3"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>472</v>
       </c>
@@ -18926,8 +19158,9 @@
       <c r="J226" t="s">
         <v>2390</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K226" s="3"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>895</v>
       </c>
@@ -18958,8 +19191,9 @@
       <c r="J227" t="s">
         <v>2391</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K227" s="3"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>478</v>
       </c>
@@ -18990,8 +19224,9 @@
       <c r="J228" t="s">
         <v>2392</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K228" s="3"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>72</v>
       </c>
@@ -19022,8 +19257,9 @@
       <c r="J229" t="s">
         <v>2393</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K229" s="3"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>885</v>
       </c>
@@ -19054,8 +19290,9 @@
       <c r="J230" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K230" s="3"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>974</v>
       </c>
@@ -19086,8 +19323,9 @@
       <c r="J231" t="s">
         <v>2395</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K231" s="3"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>454</v>
       </c>
@@ -19118,8 +19356,9 @@
       <c r="J232" t="s">
         <v>2396</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K232" s="3"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>71</v>
       </c>
@@ -19150,8 +19389,9 @@
       <c r="J233" t="s">
         <v>2397</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K233" s="3"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>157</v>
       </c>
@@ -19182,8 +19422,9 @@
       <c r="J234" t="s">
         <v>2398</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>66</v>
       </c>
@@ -19214,8 +19455,9 @@
       <c r="J235" t="s">
         <v>2399</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>500</v>
       </c>
@@ -19246,8 +19488,9 @@
       <c r="J236" t="s">
         <v>2400</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K236" s="3"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>2173</v>
       </c>
@@ -19278,8 +19521,9 @@
       <c r="J237" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K237" s="3"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>2177</v>
       </c>
@@ -19310,8 +19554,9 @@
       <c r="J238" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K238" s="3"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>79</v>
       </c>
@@ -19342,8 +19587,9 @@
       <c r="J239" s="18" t="s">
         <v>2453</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K239" s="3"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>483</v>
       </c>
@@ -19374,8 +19620,9 @@
       <c r="J240" s="18" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K240" s="3"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>899</v>
       </c>
@@ -19406,8 +19653,9 @@
       <c r="J241" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K241" s="3"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>489</v>
       </c>
@@ -19438,8 +19686,9 @@
       <c r="J242" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K242" s="3"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>942</v>
       </c>
@@ -19470,8 +19719,9 @@
       <c r="J243" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K243" s="3"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>448</v>
       </c>
@@ -19502,8 +19752,9 @@
       <c r="J244" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K244" s="3"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>465</v>
       </c>
@@ -19534,8 +19785,9 @@
       <c r="J245" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K245" s="3"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>929</v>
       </c>
@@ -19566,8 +19818,9 @@
       <c r="J246" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K246" s="3"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>98</v>
       </c>
@@ -19598,8 +19851,9 @@
       <c r="J247" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K247" s="3"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>529</v>
       </c>
@@ -19630,8 +19884,9 @@
       <c r="J248" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K248" s="3"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>1062</v>
       </c>
@@ -19662,8 +19917,9 @@
       <c r="J249" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K249" s="3"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>916</v>
       </c>
@@ -19694,8 +19950,9 @@
       <c r="J250" t="s">
         <v>2401</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K250" s="3"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>74</v>
       </c>
@@ -19726,8 +19983,9 @@
       <c r="J251" t="s">
         <v>2402</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K251" s="3"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>969</v>
       </c>
@@ -19758,8 +20016,9 @@
       <c r="J252" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K252" s="3"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>105</v>
       </c>
@@ -19790,8 +20049,9 @@
       <c r="J253" t="s">
         <v>2403</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K253" s="3"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>40</v>
       </c>
@@ -19822,8 +20082,9 @@
       <c r="J254" t="s">
         <v>2404</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K254" s="3"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>933</v>
       </c>
@@ -19854,8 +20115,9 @@
       <c r="J255" t="s">
         <v>2405</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K255" s="3"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>69</v>
       </c>
@@ -19886,8 +20148,9 @@
       <c r="J256" t="s">
         <v>2406</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K256" s="3"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>841</v>
       </c>
@@ -19918,8 +20181,9 @@
       <c r="J257" t="s">
         <v>2407</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K257" s="3"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>82</v>
       </c>
@@ -19950,8 +20214,9 @@
       <c r="J258" t="s">
         <v>2408</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K258" s="3"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>907</v>
       </c>
@@ -19982,8 +20247,9 @@
       <c r="J259" t="s">
         <v>2409</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K259" s="3"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>893</v>
       </c>
@@ -20014,8 +20280,9 @@
       <c r="J260" t="s">
         <v>2410</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K260" s="3"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>469</v>
       </c>
@@ -20046,8 +20313,9 @@
       <c r="J261" t="s">
         <v>2411</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K261" s="3"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>1176</v>
       </c>
@@ -20078,8 +20346,9 @@
       <c r="J262" t="s">
         <v>2412</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K262" s="3"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>2253</v>
       </c>
@@ -20110,8 +20379,9 @@
       <c r="J263" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K263" s="3"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>2257</v>
       </c>
@@ -20142,8 +20412,9 @@
       <c r="J264" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K264" s="3"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>80</v>
       </c>
@@ -20174,8 +20445,9 @@
       <c r="J265" s="18" t="s">
         <v>2455</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K265" s="3"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>982</v>
       </c>
@@ -20206,8 +20478,9 @@
       <c r="J266" s="18" t="s">
         <v>2456</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K266" s="3"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>480</v>
       </c>
@@ -20238,8 +20511,9 @@
       <c r="J267" s="18" t="s">
         <v>2457</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K267" s="3"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>525</v>
       </c>
@@ -20270,8 +20544,9 @@
       <c r="J268" s="18" t="s">
         <v>2458</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K268" s="3"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>1036</v>
       </c>
@@ -20302,8 +20577,9 @@
       <c r="J269" s="18" t="s">
         <v>2459</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K269" s="3"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>481</v>
       </c>
@@ -20334,8 +20610,9 @@
       <c r="J270" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K270" s="3"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>460</v>
       </c>
@@ -20366,8 +20643,9 @@
       <c r="J271" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K271" s="3"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>901</v>
       </c>
@@ -20398,8 +20676,9 @@
       <c r="J272" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K272" s="3"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>2285</v>
       </c>
@@ -20430,8 +20709,9 @@
       <c r="J273" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K273" s="3"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>93</v>
       </c>
@@ -20462,8 +20742,9 @@
       <c r="J274" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K274" s="3"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>2290</v>
       </c>
@@ -20494,8 +20775,9 @@
       <c r="J275" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K275" s="3"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>912</v>
       </c>
@@ -20526,8 +20808,9 @@
       <c r="J276" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K276" s="3"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>905</v>
       </c>
@@ -20558,8 +20841,9 @@
       <c r="J277" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K277" s="3"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>1204</v>
       </c>
@@ -20590,8 +20874,9 @@
       <c r="J278" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K278" s="3"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>2301</v>
       </c>
@@ -20622,8 +20907,9 @@
       <c r="J279" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K279" s="3"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>980</v>
       </c>
@@ -20654,8 +20940,9 @@
       <c r="J280" t="s">
         <v>2413</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K280" s="3"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>909</v>
       </c>
@@ -20686,8 +20973,9 @@
       <c r="J281" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K281" s="3"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>852</v>
       </c>
@@ -20718,8 +21006,9 @@
       <c r="J282" t="s">
         <v>2414</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K282" s="3"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>1019</v>
       </c>
@@ -20750,8 +21039,9 @@
       <c r="J283" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K283" s="3"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>1020</v>
       </c>
@@ -20782,8 +21072,9 @@
       <c r="J284" t="s">
         <v>2415</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K284" s="3"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -20814,8 +21105,9 @@
       <c r="J285" t="s">
         <v>2416</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K285" s="3"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>922</v>
       </c>
@@ -20846,8 +21138,9 @@
       <c r="J286" t="s">
         <v>2417</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K286" s="3"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>842</v>
       </c>
@@ -20878,8 +21171,9 @@
       <c r="J287" t="s">
         <v>2418</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K287" s="3"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>1181</v>
       </c>
@@ -20910,8 +21204,9 @@
       <c r="J288" t="s">
         <v>2419</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K288" s="3"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>1050</v>
       </c>
@@ -20942,8 +21237,9 @@
       <c r="J289" t="s">
         <v>2420</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K289" s="3"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>2333</v>
       </c>
@@ -20974,8 +21270,9 @@
       <c r="J290" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K290" s="3"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>1175</v>
       </c>
@@ -21006,8 +21303,9 @@
       <c r="J291" s="18" t="s">
         <v>2460</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K291" s="3"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>944</v>
       </c>
@@ -21038,9 +21336,13 @@
       <c r="J292" s="18" t="s">
         <v>2462</v>
       </c>
+      <c r="K292" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="F3:G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D812B96-7679-4ABE-AA1D-5C657359280A}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65AE4FD8-E65A-4659-B271-D4E4DB8BB441}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11693,8 +11693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14952,11 +14952,11 @@
       <c r="E99">
         <v>58467312</v>
       </c>
-      <c r="F99" s="3">
-        <v>3</v>
-      </c>
-      <c r="G99" s="3">
-        <v>5</v>
+      <c r="F99" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G99" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H99" t="e">
         <v>#N/A</v>
@@ -14986,7 +14986,7 @@
         <v>36600000</v>
       </c>
       <c r="F100">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G100">
         <v>7</v>
@@ -15019,7 +15019,7 @@
         <v>21930000</v>
       </c>
       <c r="F101">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G101">
         <v>7</v>
@@ -15283,10 +15283,10 @@
         <v>57830000</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H109" t="s">
         <v>226</v>
@@ -15316,10 +15316,10 @@
         <v>91230000</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H110" t="s">
         <v>226</v>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65AE4FD8-E65A-4659-B271-D4E4DB8BB441}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92E4ACB-7F2B-4ED5-A13C-F1D090F18018}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11484" yWindow="756" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -7722,7 +7722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -7780,6 +7780,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11693,8 +11696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12147,10 +12150,10 @@
       <c r="E14">
         <v>29711421</v>
       </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="23">
+        <v>3</v>
+      </c>
+      <c r="G14" s="23">
         <v>3</v>
       </c>
       <c r="H14" t="s">
@@ -12279,10 +12282,10 @@
       <c r="E18">
         <v>41436853</v>
       </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="23">
+        <v>3</v>
+      </c>
+      <c r="G18" s="23">
         <v>4</v>
       </c>
       <c r="H18" t="s">
@@ -12312,11 +12315,11 @@
       <c r="E19">
         <v>20120106</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="23">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>7</v>
+      <c r="G19" s="23">
+        <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>1460</v>
@@ -12378,11 +12381,11 @@
       <c r="E21">
         <v>24548520</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="23">
         <v>4</v>
       </c>
-      <c r="G21">
-        <v>6</v>
+      <c r="G21" s="23">
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>1460</v>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92E4ACB-7F2B-4ED5-A13C-F1D090F18018}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1527F36-FD7E-40E9-896B-8125BF14273B}"/>
   <bookViews>
-    <workbookView xWindow="11484" yWindow="756" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4668" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -7773,6 +7773,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7780,9 +7783,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11696,8 +11696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11788,10 +11788,10 @@
       <c r="E3">
         <v>23913280</v>
       </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="20">
+        <v>7</v>
+      </c>
+      <c r="G3" s="20">
         <v>3</v>
       </c>
       <c r="H3" t="s">
@@ -12150,10 +12150,10 @@
       <c r="E14">
         <v>29711421</v>
       </c>
-      <c r="F14" s="23">
-        <v>3</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="F14" s="20">
+        <v>4</v>
+      </c>
+      <c r="G14" s="20">
         <v>3</v>
       </c>
       <c r="H14" t="s">
@@ -12183,10 +12183,10 @@
       <c r="E15">
         <v>17625638</v>
       </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="20">
+        <v>6</v>
+      </c>
+      <c r="G15" s="20">
         <v>3</v>
       </c>
       <c r="H15" t="s">
@@ -12282,10 +12282,10 @@
       <c r="E18">
         <v>41436853</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="20">
         <v>3</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="20">
         <v>4</v>
       </c>
       <c r="H18" t="s">
@@ -12315,10 +12315,10 @@
       <c r="E19">
         <v>20120106</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="20">
         <v>4</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="20">
         <v>6</v>
       </c>
       <c r="H19" t="s">
@@ -12381,10 +12381,10 @@
       <c r="E21">
         <v>24548520</v>
       </c>
-      <c r="F21" s="23">
-        <v>4</v>
-      </c>
-      <c r="G21" s="23">
+      <c r="F21" s="20">
+        <v>5</v>
+      </c>
+      <c r="G21" s="20">
         <v>3</v>
       </c>
       <c r="H21" t="s">
@@ -15549,11 +15549,11 @@
       <c r="E117">
         <v>458115470</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="20">
         <v>7</v>
       </c>
-      <c r="G117">
-        <v>3</v>
+      <c r="G117" s="20">
+        <v>2</v>
       </c>
       <c r="H117" t="s">
         <v>1719</v>
@@ -16176,10 +16176,10 @@
       <c r="E136">
         <v>310390297</v>
       </c>
-      <c r="F136">
-        <v>7</v>
-      </c>
-      <c r="G136">
+      <c r="F136" s="20">
+        <v>8</v>
+      </c>
+      <c r="G136" s="20">
         <v>2</v>
       </c>
       <c r="H136" t="s">
@@ -26886,22 +26886,22 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="16" t="s">
         <v>285</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1527F36-FD7E-40E9-896B-8125BF14273B}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9474F880-C95D-4D8B-8032-5A74C3DA1D33}"/>
   <bookViews>
     <workbookView xWindow="4668" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11696,8 +11696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12249,11 +12249,11 @@
       <c r="E17">
         <v>17405710</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="20">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>5</v>
+      <c r="G17" s="20">
+        <v>4</v>
       </c>
       <c r="H17" t="s">
         <v>1460</v>
@@ -12319,7 +12319,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>1460</v>
@@ -12348,11 +12348,11 @@
       <c r="E20">
         <v>13020260</v>
       </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
+      <c r="F20" s="20">
+        <v>4</v>
+      </c>
+      <c r="G20" s="20">
+        <v>6</v>
       </c>
       <c r="H20" t="s">
         <v>1460</v>
@@ -14989,7 +14989,7 @@
         <v>36600000</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100">
         <v>7</v>
@@ -15022,7 +15022,7 @@
         <v>21930000</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101">
         <v>7</v>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9474F880-C95D-4D8B-8032-5A74C3DA1D33}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615ED913-1FD3-43FB-A00D-8F625B9C6BA2}"/>
   <bookViews>
-    <workbookView xWindow="4668" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8412" yWindow="1896" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -11696,8 +11696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14757,11 +14757,11 @@
       <c r="E93">
         <v>27700000</v>
       </c>
-      <c r="F93">
-        <v>5</v>
-      </c>
-      <c r="G93">
-        <v>9</v>
+      <c r="F93" s="20">
+        <v>6</v>
+      </c>
+      <c r="G93" s="20">
+        <v>8</v>
       </c>
       <c r="H93" t="s">
         <v>228</v>
@@ -14823,11 +14823,11 @@
       <c r="E95">
         <v>46000000</v>
       </c>
-      <c r="F95">
-        <v>6</v>
-      </c>
-      <c r="G95">
+      <c r="F95" s="20">
         <v>8</v>
+      </c>
+      <c r="G95" s="20">
+        <v>7</v>
       </c>
       <c r="H95" t="s">
         <v>220</v>
@@ -14856,11 +14856,11 @@
       <c r="E96">
         <v>26390000</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="20">
+        <v>9</v>
+      </c>
+      <c r="G96" s="20">
         <v>7</v>
-      </c>
-      <c r="G96">
-        <v>8</v>
       </c>
       <c r="H96" t="s">
         <v>220</v>
@@ -14889,11 +14889,11 @@
       <c r="E97">
         <v>69430000</v>
       </c>
-      <c r="F97">
-        <v>6</v>
-      </c>
-      <c r="G97">
-        <v>9</v>
+      <c r="F97" s="20">
+        <v>7</v>
+      </c>
+      <c r="G97" s="20">
+        <v>8</v>
       </c>
       <c r="H97" t="s">
         <v>220</v>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615ED913-1FD3-43FB-A00D-8F625B9C6BA2}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F90AC4-A75A-40C7-8351-53AD0FFCD27B}"/>
   <bookViews>
-    <workbookView xWindow="8412" yWindow="1896" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8016" yWindow="1668" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -11696,8 +11696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -14890,7 +14890,7 @@
         <v>69430000</v>
       </c>
       <c r="F97" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G97" s="20">
         <v>8</v>
@@ -15120,10 +15120,10 @@
       <c r="E104">
         <v>458244178</v>
       </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104">
+      <c r="F104" s="20">
+        <v>2</v>
+      </c>
+      <c r="G104" s="20">
         <v>9</v>
       </c>
       <c r="H104" t="s">
@@ -15615,10 +15615,10 @@
       <c r="E119">
         <v>42707724</v>
       </c>
-      <c r="F119">
-        <v>2</v>
-      </c>
-      <c r="G119">
+      <c r="F119" s="20">
+        <v>3</v>
+      </c>
+      <c r="G119" s="20">
         <v>9</v>
       </c>
       <c r="H119" t="s">
@@ -15880,7 +15880,7 @@
         <v>42100000</v>
       </c>
       <c r="F127">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G127">
         <v>8</v>
@@ -15978,10 +15978,10 @@
       <c r="E130">
         <v>553418704</v>
       </c>
-      <c r="F130">
-        <v>4</v>
-      </c>
-      <c r="G130">
+      <c r="F130" s="20">
+        <v>5</v>
+      </c>
+      <c r="G130" s="20">
         <v>9</v>
       </c>
       <c r="H130" t="s">
@@ -16044,10 +16044,10 @@
       <c r="E132">
         <v>697766499</v>
       </c>
-      <c r="F132">
-        <v>3</v>
-      </c>
-      <c r="G132">
+      <c r="F132" s="20">
+        <v>4</v>
+      </c>
+      <c r="G132" s="20">
         <v>9</v>
       </c>
       <c r="H132" t="s">

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05839AC-264B-44BC-AC59-453EABA8F599}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B30D6F-78F8-4942-8C0E-605D4CF6B12B}"/>
   <bookViews>
-    <workbookView xWindow="7164" yWindow="1296" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="1404" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -8524,6 +8524,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8531,9 +8534,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12447,8 +12447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12685,10 +12685,10 @@
       <c r="E7">
         <v>17062949</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <v>8</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="25">
         <v>6</v>
       </c>
       <c r="H7" t="s">
@@ -13245,10 +13245,10 @@
       <c r="E23">
         <v>29568929</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="25">
         <v>4</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="25">
         <v>6</v>
       </c>
       <c r="H23" t="s">
@@ -13280,10 +13280,10 @@
       <c r="E24">
         <v>46983285</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="25">
         <v>5</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="25">
         <v>6</v>
       </c>
       <c r="H24" t="s">
@@ -13315,10 +13315,10 @@
       <c r="E25">
         <v>39501013</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="25">
         <v>6</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="25">
         <v>6</v>
       </c>
       <c r="H25" t="s">
@@ -13350,10 +13350,10 @@
       <c r="E26">
         <v>33872729</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="25">
         <v>7</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="25">
         <v>6</v>
       </c>
       <c r="H26" t="s">
@@ -15501,7 +15501,7 @@
         <v>617</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>617</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
@@ -22693,8 +22693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38079217-A408-4EAC-BE4D-C10582449352}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -31872,22 +31872,22 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="16" t="s">
         <v>285</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B30D6F-78F8-4942-8C0E-605D4CF6B12B}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DAFA9E0-ABE6-42B9-9689-45A81F7702CC}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="1404" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6312" yWindow="1632" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -8298,7 +8298,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8337,6 +8337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8458,7 +8464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -8534,6 +8540,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12447,8 +12456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15590,11 +15599,11 @@
       <c r="E90">
         <v>33300000</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="29">
         <v>4</v>
       </c>
-      <c r="G90">
-        <v>8</v>
+      <c r="G90" s="29">
+        <v>7</v>
       </c>
       <c r="H90" t="s">
         <v>228</v>
@@ -15625,11 +15634,11 @@
       <c r="E91">
         <v>47100000</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="29">
         <v>3</v>
       </c>
-      <c r="G91">
-        <v>8</v>
+      <c r="G91" s="29">
+        <v>7</v>
       </c>
       <c r="H91" t="s">
         <v>228</v>
@@ -15940,10 +15949,10 @@
       <c r="E100">
         <v>36600000</v>
       </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100">
+      <c r="F100" s="29">
+        <v>5</v>
+      </c>
+      <c r="G100" s="29">
         <v>7</v>
       </c>
       <c r="H100" t="s">
@@ -15975,10 +15984,10 @@
       <c r="E101">
         <v>21930000</v>
       </c>
-      <c r="F101">
-        <v>4</v>
-      </c>
-      <c r="G101">
+      <c r="F101" s="29">
+        <v>6</v>
+      </c>
+      <c r="G101" s="29">
         <v>7</v>
       </c>
       <c r="H101" t="s">
@@ -16080,10 +16089,10 @@
       <c r="E104">
         <v>458244178</v>
       </c>
-      <c r="F104" s="20">
-        <v>2</v>
-      </c>
-      <c r="G104" s="20">
+      <c r="F104" s="29">
+        <v>3</v>
+      </c>
+      <c r="G104" s="29">
         <v>9</v>
       </c>
       <c r="H104" t="s">
@@ -16605,10 +16614,10 @@
       <c r="E119">
         <v>42707724</v>
       </c>
-      <c r="F119" s="20">
-        <v>3</v>
-      </c>
-      <c r="G119" s="20">
+      <c r="F119" s="29">
+        <v>4</v>
+      </c>
+      <c r="G119" s="29">
         <v>9</v>
       </c>
       <c r="H119" t="s">
@@ -16990,10 +16999,10 @@
       <c r="E130">
         <v>553418704</v>
       </c>
-      <c r="F130" s="20">
-        <v>5</v>
-      </c>
-      <c r="G130" s="20">
+      <c r="F130" s="29">
+        <v>6</v>
+      </c>
+      <c r="G130" s="29">
         <v>9</v>
       </c>
       <c r="H130" t="s">
@@ -17060,10 +17069,10 @@
       <c r="E132">
         <v>697766499</v>
       </c>
-      <c r="F132" s="20">
-        <v>4</v>
-      </c>
-      <c r="G132" s="20">
+      <c r="F132" s="29">
+        <v>5</v>
+      </c>
+      <c r="G132" s="29">
         <v>9</v>
       </c>
       <c r="H132" t="s">

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DAFA9E0-ABE6-42B9-9689-45A81F7702CC}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="11_14CE30E4A7AC6254B61014D9DFF25B3E046A7F87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA687DF-03E5-4C4C-AE0A-83CD0C8469B9}"/>
   <bookViews>
-    <workbookView xWindow="6312" yWindow="1632" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6276" yWindow="1860" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -8533,6 +8533,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8540,9 +8543,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12456,8 +12456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104:G104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -15599,10 +15599,10 @@
       <c r="E90">
         <v>33300000</v>
       </c>
-      <c r="F90" s="29">
+      <c r="F90" s="26">
         <v>4</v>
       </c>
-      <c r="G90" s="29">
+      <c r="G90" s="26">
         <v>7</v>
       </c>
       <c r="H90" t="s">
@@ -15634,11 +15634,11 @@
       <c r="E91">
         <v>47100000</v>
       </c>
-      <c r="F91" s="29">
-        <v>3</v>
-      </c>
-      <c r="G91" s="29">
-        <v>7</v>
+      <c r="F91" s="26">
+        <v>4</v>
+      </c>
+      <c r="G91" s="26">
+        <v>8</v>
       </c>
       <c r="H91" t="s">
         <v>228</v>
@@ -15949,10 +15949,10 @@
       <c r="E100">
         <v>36600000</v>
       </c>
-      <c r="F100" s="29">
+      <c r="F100" s="26">
         <v>5</v>
       </c>
-      <c r="G100" s="29">
+      <c r="G100" s="26">
         <v>7</v>
       </c>
       <c r="H100" t="s">
@@ -15984,10 +15984,10 @@
       <c r="E101">
         <v>21930000</v>
       </c>
-      <c r="F101" s="29">
+      <c r="F101" s="26">
         <v>6</v>
       </c>
-      <c r="G101" s="29">
+      <c r="G101" s="26">
         <v>7</v>
       </c>
       <c r="H101" t="s">
@@ -16089,10 +16089,10 @@
       <c r="E104">
         <v>458244178</v>
       </c>
-      <c r="F104" s="29">
+      <c r="F104" s="26">
         <v>3</v>
       </c>
-      <c r="G104" s="29">
+      <c r="G104" s="26">
         <v>9</v>
       </c>
       <c r="H104" t="s">
@@ -16614,10 +16614,10 @@
       <c r="E119">
         <v>42707724</v>
       </c>
-      <c r="F119" s="29">
+      <c r="F119" s="26">
         <v>4</v>
       </c>
-      <c r="G119" s="29">
+      <c r="G119" s="26">
         <v>9</v>
       </c>
       <c r="H119" t="s">
@@ -16999,10 +16999,10 @@
       <c r="E130">
         <v>553418704</v>
       </c>
-      <c r="F130" s="29">
+      <c r="F130" s="26">
         <v>6</v>
       </c>
-      <c r="G130" s="29">
+      <c r="G130" s="26">
         <v>9</v>
       </c>
       <c r="H130" t="s">
@@ -17069,10 +17069,10 @@
       <c r="E132">
         <v>697766499</v>
       </c>
-      <c r="F132" s="29">
+      <c r="F132" s="26">
         <v>5</v>
       </c>
-      <c r="G132" s="29">
+      <c r="G132" s="26">
         <v>9</v>
       </c>
       <c r="H132" t="s">
@@ -31881,22 +31881,22 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="16" t="s">
         <v>285</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/개인/data/부동산 기본 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{00E549E8-D797-4FFC-9E87-4E797B3B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9C35B07-FE67-40C3-8C43-A539A67BA5ED}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{00E549E8-D797-4FFC-9E87-4E797B3B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF75316A-E9E8-454B-8137-03715126C453}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12838" uniqueCount="2733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12838" uniqueCount="2732">
   <si>
     <t>안양 동안구</t>
   </si>
@@ -8501,9 +8501,6 @@
   </si>
   <si>
     <t>세종 계</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 세종시</t>
   </si>
   <si>
     <t>서울 계</t>
@@ -34129,15 +34126,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED87FDA7-0193-4878-AADB-FBEF6B1B28A7}">
   <dimension ref="A1:IL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="HQ1" workbookViewId="0">
+      <selection activeCell="HV1" sqref="HV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:246">
       <c r="A1" s="43" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>2093</v>
@@ -34872,7 +34869,7 @@
         <v>2730</v>
       </c>
       <c r="IL1" s="43" t="s">
-        <v>2731</v>
+        <v>2674</v>
       </c>
     </row>
   </sheetData>
@@ -90295,15 +90292,266 @@
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="J1372:J1376"/>
-    <mergeCell ref="J1377:J1381"/>
-    <mergeCell ref="J1382:J1386"/>
-    <mergeCell ref="J1387:J1391"/>
-    <mergeCell ref="J1347:J1351"/>
-    <mergeCell ref="J1352:J1356"/>
-    <mergeCell ref="J1357:J1361"/>
-    <mergeCell ref="J1362:J1366"/>
-    <mergeCell ref="J1367:J1371"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="J77:J81"/>
+    <mergeCell ref="J82:J86"/>
+    <mergeCell ref="J87:J91"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J117:J121"/>
+    <mergeCell ref="J122:J126"/>
+    <mergeCell ref="J127:J131"/>
+    <mergeCell ref="J132:J136"/>
+    <mergeCell ref="J137:J141"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="J112:J116"/>
+    <mergeCell ref="J167:J171"/>
+    <mergeCell ref="J172:J176"/>
+    <mergeCell ref="J177:J181"/>
+    <mergeCell ref="J182:J186"/>
+    <mergeCell ref="J187:J191"/>
+    <mergeCell ref="J142:J146"/>
+    <mergeCell ref="J147:J151"/>
+    <mergeCell ref="J152:J156"/>
+    <mergeCell ref="J157:J161"/>
+    <mergeCell ref="J162:J166"/>
+    <mergeCell ref="J217:J221"/>
+    <mergeCell ref="J222:J226"/>
+    <mergeCell ref="J227:J231"/>
+    <mergeCell ref="J232:J236"/>
+    <mergeCell ref="J237:J241"/>
+    <mergeCell ref="J192:J196"/>
+    <mergeCell ref="J197:J201"/>
+    <mergeCell ref="J202:J206"/>
+    <mergeCell ref="J207:J211"/>
+    <mergeCell ref="J212:J216"/>
+    <mergeCell ref="J267:J271"/>
+    <mergeCell ref="J272:J276"/>
+    <mergeCell ref="J277:J281"/>
+    <mergeCell ref="J282:J286"/>
+    <mergeCell ref="J287:J291"/>
+    <mergeCell ref="J242:J246"/>
+    <mergeCell ref="J247:J251"/>
+    <mergeCell ref="J252:J256"/>
+    <mergeCell ref="J257:J261"/>
+    <mergeCell ref="J262:J266"/>
+    <mergeCell ref="J317:J321"/>
+    <mergeCell ref="J322:J326"/>
+    <mergeCell ref="J327:J331"/>
+    <mergeCell ref="J332:J336"/>
+    <mergeCell ref="J337:J341"/>
+    <mergeCell ref="J292:J296"/>
+    <mergeCell ref="J297:J301"/>
+    <mergeCell ref="J302:J306"/>
+    <mergeCell ref="J307:J311"/>
+    <mergeCell ref="J312:J316"/>
+    <mergeCell ref="J367:J371"/>
+    <mergeCell ref="J372:J376"/>
+    <mergeCell ref="J377:J381"/>
+    <mergeCell ref="J382:J386"/>
+    <mergeCell ref="J387:J391"/>
+    <mergeCell ref="J342:J346"/>
+    <mergeCell ref="J347:J351"/>
+    <mergeCell ref="J352:J356"/>
+    <mergeCell ref="J357:J361"/>
+    <mergeCell ref="J362:J366"/>
+    <mergeCell ref="J422:J426"/>
+    <mergeCell ref="J427:J431"/>
+    <mergeCell ref="J432:J436"/>
+    <mergeCell ref="J437:J441"/>
+    <mergeCell ref="J442:J446"/>
+    <mergeCell ref="J392:J396"/>
+    <mergeCell ref="J397:J401"/>
+    <mergeCell ref="J402:J406"/>
+    <mergeCell ref="J407:J411"/>
+    <mergeCell ref="J412:J421"/>
+    <mergeCell ref="J472:J476"/>
+    <mergeCell ref="J477:J481"/>
+    <mergeCell ref="J482:J486"/>
+    <mergeCell ref="J487:J491"/>
+    <mergeCell ref="J492:J496"/>
+    <mergeCell ref="J447:J451"/>
+    <mergeCell ref="J452:J456"/>
+    <mergeCell ref="J457:J461"/>
+    <mergeCell ref="J462:J466"/>
+    <mergeCell ref="J467:J471"/>
+    <mergeCell ref="J522:J526"/>
+    <mergeCell ref="J527:J531"/>
+    <mergeCell ref="J532:J536"/>
+    <mergeCell ref="J537:J541"/>
+    <mergeCell ref="J542:J546"/>
+    <mergeCell ref="J497:J501"/>
+    <mergeCell ref="J502:J506"/>
+    <mergeCell ref="J507:J511"/>
+    <mergeCell ref="J512:J516"/>
+    <mergeCell ref="J517:J521"/>
+    <mergeCell ref="J572:J576"/>
+    <mergeCell ref="J577:J581"/>
+    <mergeCell ref="J582:J586"/>
+    <mergeCell ref="J587:J591"/>
+    <mergeCell ref="J592:J596"/>
+    <mergeCell ref="J547:J551"/>
+    <mergeCell ref="J552:J556"/>
+    <mergeCell ref="J557:J561"/>
+    <mergeCell ref="J562:J566"/>
+    <mergeCell ref="J567:J571"/>
+    <mergeCell ref="J622:J626"/>
+    <mergeCell ref="J627:J631"/>
+    <mergeCell ref="J632:J636"/>
+    <mergeCell ref="J637:J641"/>
+    <mergeCell ref="J642:J646"/>
+    <mergeCell ref="J597:J601"/>
+    <mergeCell ref="J602:J606"/>
+    <mergeCell ref="J607:J611"/>
+    <mergeCell ref="J612:J616"/>
+    <mergeCell ref="J617:J621"/>
+    <mergeCell ref="J672:J676"/>
+    <mergeCell ref="J677:J681"/>
+    <mergeCell ref="J682:J686"/>
+    <mergeCell ref="J687:J691"/>
+    <mergeCell ref="J692:J696"/>
+    <mergeCell ref="J647:J651"/>
+    <mergeCell ref="J652:J656"/>
+    <mergeCell ref="J657:J661"/>
+    <mergeCell ref="J662:J666"/>
+    <mergeCell ref="J667:J671"/>
+    <mergeCell ref="J722:J726"/>
+    <mergeCell ref="J727:J731"/>
+    <mergeCell ref="J732:J736"/>
+    <mergeCell ref="J737:J741"/>
+    <mergeCell ref="J742:J746"/>
+    <mergeCell ref="J697:J701"/>
+    <mergeCell ref="J702:J706"/>
+    <mergeCell ref="J707:J711"/>
+    <mergeCell ref="J712:J716"/>
+    <mergeCell ref="J717:J721"/>
+    <mergeCell ref="J772:J776"/>
+    <mergeCell ref="J777:J781"/>
+    <mergeCell ref="J782:J786"/>
+    <mergeCell ref="J787:J791"/>
+    <mergeCell ref="J792:J796"/>
+    <mergeCell ref="J747:J751"/>
+    <mergeCell ref="J752:J756"/>
+    <mergeCell ref="J757:J761"/>
+    <mergeCell ref="J762:J766"/>
+    <mergeCell ref="J767:J771"/>
+    <mergeCell ref="J822:J826"/>
+    <mergeCell ref="J827:J831"/>
+    <mergeCell ref="J832:J836"/>
+    <mergeCell ref="J837:J841"/>
+    <mergeCell ref="J842:J846"/>
+    <mergeCell ref="J797:J801"/>
+    <mergeCell ref="J802:J806"/>
+    <mergeCell ref="J807:J811"/>
+    <mergeCell ref="J812:J816"/>
+    <mergeCell ref="J817:J821"/>
+    <mergeCell ref="J872:J876"/>
+    <mergeCell ref="J877:J881"/>
+    <mergeCell ref="J882:J886"/>
+    <mergeCell ref="J887:J891"/>
+    <mergeCell ref="J892:J896"/>
+    <mergeCell ref="J847:J851"/>
+    <mergeCell ref="J852:J856"/>
+    <mergeCell ref="J857:J861"/>
+    <mergeCell ref="J862:J866"/>
+    <mergeCell ref="J867:J871"/>
+    <mergeCell ref="J922:J926"/>
+    <mergeCell ref="J927:J931"/>
+    <mergeCell ref="J932:J936"/>
+    <mergeCell ref="J937:J941"/>
+    <mergeCell ref="J942:J946"/>
+    <mergeCell ref="J897:J901"/>
+    <mergeCell ref="J902:J906"/>
+    <mergeCell ref="J907:J911"/>
+    <mergeCell ref="J912:J916"/>
+    <mergeCell ref="J917:J921"/>
+    <mergeCell ref="J972:J976"/>
+    <mergeCell ref="J977:J981"/>
+    <mergeCell ref="J982:J986"/>
+    <mergeCell ref="J987:J991"/>
+    <mergeCell ref="J992:J996"/>
+    <mergeCell ref="J947:J951"/>
+    <mergeCell ref="J952:J956"/>
+    <mergeCell ref="J957:J961"/>
+    <mergeCell ref="J962:J966"/>
+    <mergeCell ref="J967:J971"/>
+    <mergeCell ref="J1022:J1026"/>
+    <mergeCell ref="J1027:J1031"/>
+    <mergeCell ref="J1032:J1036"/>
+    <mergeCell ref="J1037:J1041"/>
+    <mergeCell ref="J1042:J1046"/>
+    <mergeCell ref="J997:J1001"/>
+    <mergeCell ref="J1002:J1006"/>
+    <mergeCell ref="J1007:J1011"/>
+    <mergeCell ref="J1012:J1016"/>
+    <mergeCell ref="J1017:J1021"/>
+    <mergeCell ref="J1072:J1076"/>
+    <mergeCell ref="J1077:J1081"/>
+    <mergeCell ref="J1082:J1086"/>
+    <mergeCell ref="J1087:J1091"/>
+    <mergeCell ref="J1092:J1096"/>
+    <mergeCell ref="J1047:J1051"/>
+    <mergeCell ref="J1052:J1056"/>
+    <mergeCell ref="J1057:J1061"/>
+    <mergeCell ref="J1062:J1066"/>
+    <mergeCell ref="J1067:J1071"/>
+    <mergeCell ref="J1122:J1126"/>
+    <mergeCell ref="J1127:J1131"/>
+    <mergeCell ref="J1132:J1136"/>
+    <mergeCell ref="J1137:J1141"/>
+    <mergeCell ref="J1142:J1146"/>
+    <mergeCell ref="J1097:J1101"/>
+    <mergeCell ref="J1102:J1106"/>
+    <mergeCell ref="J1107:J1111"/>
+    <mergeCell ref="J1112:J1116"/>
+    <mergeCell ref="J1117:J1121"/>
+    <mergeCell ref="J1172:J1176"/>
+    <mergeCell ref="J1177:J1181"/>
+    <mergeCell ref="J1182:J1186"/>
+    <mergeCell ref="J1187:J1191"/>
+    <mergeCell ref="J1192:J1196"/>
+    <mergeCell ref="J1147:J1151"/>
+    <mergeCell ref="J1152:J1156"/>
+    <mergeCell ref="J1157:J1161"/>
+    <mergeCell ref="J1162:J1166"/>
+    <mergeCell ref="J1167:J1171"/>
+    <mergeCell ref="J1222:J1226"/>
+    <mergeCell ref="J1227:J1231"/>
+    <mergeCell ref="J1232:J1236"/>
+    <mergeCell ref="J1237:J1241"/>
+    <mergeCell ref="J1242:J1246"/>
+    <mergeCell ref="J1197:J1201"/>
+    <mergeCell ref="J1202:J1206"/>
+    <mergeCell ref="J1207:J1211"/>
+    <mergeCell ref="J1212:J1216"/>
+    <mergeCell ref="J1217:J1221"/>
+    <mergeCell ref="J1272:J1276"/>
+    <mergeCell ref="J1277:J1281"/>
+    <mergeCell ref="J1282:J1286"/>
+    <mergeCell ref="J1287:J1291"/>
+    <mergeCell ref="J1292:J1296"/>
+    <mergeCell ref="J1247:J1251"/>
+    <mergeCell ref="J1252:J1256"/>
+    <mergeCell ref="J1257:J1261"/>
+    <mergeCell ref="J1262:J1266"/>
+    <mergeCell ref="J1267:J1271"/>
     <mergeCell ref="J1322:J1326"/>
     <mergeCell ref="J1327:J1331"/>
     <mergeCell ref="J1332:J1336"/>
@@ -90314,266 +90562,15 @@
     <mergeCell ref="J1307:J1311"/>
     <mergeCell ref="J1312:J1316"/>
     <mergeCell ref="J1317:J1321"/>
-    <mergeCell ref="J1272:J1276"/>
-    <mergeCell ref="J1277:J1281"/>
-    <mergeCell ref="J1282:J1286"/>
-    <mergeCell ref="J1287:J1291"/>
-    <mergeCell ref="J1292:J1296"/>
-    <mergeCell ref="J1247:J1251"/>
-    <mergeCell ref="J1252:J1256"/>
-    <mergeCell ref="J1257:J1261"/>
-    <mergeCell ref="J1262:J1266"/>
-    <mergeCell ref="J1267:J1271"/>
-    <mergeCell ref="J1222:J1226"/>
-    <mergeCell ref="J1227:J1231"/>
-    <mergeCell ref="J1232:J1236"/>
-    <mergeCell ref="J1237:J1241"/>
-    <mergeCell ref="J1242:J1246"/>
-    <mergeCell ref="J1197:J1201"/>
-    <mergeCell ref="J1202:J1206"/>
-    <mergeCell ref="J1207:J1211"/>
-    <mergeCell ref="J1212:J1216"/>
-    <mergeCell ref="J1217:J1221"/>
-    <mergeCell ref="J1172:J1176"/>
-    <mergeCell ref="J1177:J1181"/>
-    <mergeCell ref="J1182:J1186"/>
-    <mergeCell ref="J1187:J1191"/>
-    <mergeCell ref="J1192:J1196"/>
-    <mergeCell ref="J1147:J1151"/>
-    <mergeCell ref="J1152:J1156"/>
-    <mergeCell ref="J1157:J1161"/>
-    <mergeCell ref="J1162:J1166"/>
-    <mergeCell ref="J1167:J1171"/>
-    <mergeCell ref="J1122:J1126"/>
-    <mergeCell ref="J1127:J1131"/>
-    <mergeCell ref="J1132:J1136"/>
-    <mergeCell ref="J1137:J1141"/>
-    <mergeCell ref="J1142:J1146"/>
-    <mergeCell ref="J1097:J1101"/>
-    <mergeCell ref="J1102:J1106"/>
-    <mergeCell ref="J1107:J1111"/>
-    <mergeCell ref="J1112:J1116"/>
-    <mergeCell ref="J1117:J1121"/>
-    <mergeCell ref="J1072:J1076"/>
-    <mergeCell ref="J1077:J1081"/>
-    <mergeCell ref="J1082:J1086"/>
-    <mergeCell ref="J1087:J1091"/>
-    <mergeCell ref="J1092:J1096"/>
-    <mergeCell ref="J1047:J1051"/>
-    <mergeCell ref="J1052:J1056"/>
-    <mergeCell ref="J1057:J1061"/>
-    <mergeCell ref="J1062:J1066"/>
-    <mergeCell ref="J1067:J1071"/>
-    <mergeCell ref="J1022:J1026"/>
-    <mergeCell ref="J1027:J1031"/>
-    <mergeCell ref="J1032:J1036"/>
-    <mergeCell ref="J1037:J1041"/>
-    <mergeCell ref="J1042:J1046"/>
-    <mergeCell ref="J997:J1001"/>
-    <mergeCell ref="J1002:J1006"/>
-    <mergeCell ref="J1007:J1011"/>
-    <mergeCell ref="J1012:J1016"/>
-    <mergeCell ref="J1017:J1021"/>
-    <mergeCell ref="J972:J976"/>
-    <mergeCell ref="J977:J981"/>
-    <mergeCell ref="J982:J986"/>
-    <mergeCell ref="J987:J991"/>
-    <mergeCell ref="J992:J996"/>
-    <mergeCell ref="J947:J951"/>
-    <mergeCell ref="J952:J956"/>
-    <mergeCell ref="J957:J961"/>
-    <mergeCell ref="J962:J966"/>
-    <mergeCell ref="J967:J971"/>
-    <mergeCell ref="J922:J926"/>
-    <mergeCell ref="J927:J931"/>
-    <mergeCell ref="J932:J936"/>
-    <mergeCell ref="J937:J941"/>
-    <mergeCell ref="J942:J946"/>
-    <mergeCell ref="J897:J901"/>
-    <mergeCell ref="J902:J906"/>
-    <mergeCell ref="J907:J911"/>
-    <mergeCell ref="J912:J916"/>
-    <mergeCell ref="J917:J921"/>
-    <mergeCell ref="J872:J876"/>
-    <mergeCell ref="J877:J881"/>
-    <mergeCell ref="J882:J886"/>
-    <mergeCell ref="J887:J891"/>
-    <mergeCell ref="J892:J896"/>
-    <mergeCell ref="J847:J851"/>
-    <mergeCell ref="J852:J856"/>
-    <mergeCell ref="J857:J861"/>
-    <mergeCell ref="J862:J866"/>
-    <mergeCell ref="J867:J871"/>
-    <mergeCell ref="J822:J826"/>
-    <mergeCell ref="J827:J831"/>
-    <mergeCell ref="J832:J836"/>
-    <mergeCell ref="J837:J841"/>
-    <mergeCell ref="J842:J846"/>
-    <mergeCell ref="J797:J801"/>
-    <mergeCell ref="J802:J806"/>
-    <mergeCell ref="J807:J811"/>
-    <mergeCell ref="J812:J816"/>
-    <mergeCell ref="J817:J821"/>
-    <mergeCell ref="J772:J776"/>
-    <mergeCell ref="J777:J781"/>
-    <mergeCell ref="J782:J786"/>
-    <mergeCell ref="J787:J791"/>
-    <mergeCell ref="J792:J796"/>
-    <mergeCell ref="J747:J751"/>
-    <mergeCell ref="J752:J756"/>
-    <mergeCell ref="J757:J761"/>
-    <mergeCell ref="J762:J766"/>
-    <mergeCell ref="J767:J771"/>
-    <mergeCell ref="J722:J726"/>
-    <mergeCell ref="J727:J731"/>
-    <mergeCell ref="J732:J736"/>
-    <mergeCell ref="J737:J741"/>
-    <mergeCell ref="J742:J746"/>
-    <mergeCell ref="J697:J701"/>
-    <mergeCell ref="J702:J706"/>
-    <mergeCell ref="J707:J711"/>
-    <mergeCell ref="J712:J716"/>
-    <mergeCell ref="J717:J721"/>
-    <mergeCell ref="J672:J676"/>
-    <mergeCell ref="J677:J681"/>
-    <mergeCell ref="J682:J686"/>
-    <mergeCell ref="J687:J691"/>
-    <mergeCell ref="J692:J696"/>
-    <mergeCell ref="J647:J651"/>
-    <mergeCell ref="J652:J656"/>
-    <mergeCell ref="J657:J661"/>
-    <mergeCell ref="J662:J666"/>
-    <mergeCell ref="J667:J671"/>
-    <mergeCell ref="J622:J626"/>
-    <mergeCell ref="J627:J631"/>
-    <mergeCell ref="J632:J636"/>
-    <mergeCell ref="J637:J641"/>
-    <mergeCell ref="J642:J646"/>
-    <mergeCell ref="J597:J601"/>
-    <mergeCell ref="J602:J606"/>
-    <mergeCell ref="J607:J611"/>
-    <mergeCell ref="J612:J616"/>
-    <mergeCell ref="J617:J621"/>
-    <mergeCell ref="J572:J576"/>
-    <mergeCell ref="J577:J581"/>
-    <mergeCell ref="J582:J586"/>
-    <mergeCell ref="J587:J591"/>
-    <mergeCell ref="J592:J596"/>
-    <mergeCell ref="J547:J551"/>
-    <mergeCell ref="J552:J556"/>
-    <mergeCell ref="J557:J561"/>
-    <mergeCell ref="J562:J566"/>
-    <mergeCell ref="J567:J571"/>
-    <mergeCell ref="J522:J526"/>
-    <mergeCell ref="J527:J531"/>
-    <mergeCell ref="J532:J536"/>
-    <mergeCell ref="J537:J541"/>
-    <mergeCell ref="J542:J546"/>
-    <mergeCell ref="J497:J501"/>
-    <mergeCell ref="J502:J506"/>
-    <mergeCell ref="J507:J511"/>
-    <mergeCell ref="J512:J516"/>
-    <mergeCell ref="J517:J521"/>
-    <mergeCell ref="J472:J476"/>
-    <mergeCell ref="J477:J481"/>
-    <mergeCell ref="J482:J486"/>
-    <mergeCell ref="J487:J491"/>
-    <mergeCell ref="J492:J496"/>
-    <mergeCell ref="J447:J451"/>
-    <mergeCell ref="J452:J456"/>
-    <mergeCell ref="J457:J461"/>
-    <mergeCell ref="J462:J466"/>
-    <mergeCell ref="J467:J471"/>
-    <mergeCell ref="J422:J426"/>
-    <mergeCell ref="J427:J431"/>
-    <mergeCell ref="J432:J436"/>
-    <mergeCell ref="J437:J441"/>
-    <mergeCell ref="J442:J446"/>
-    <mergeCell ref="J392:J396"/>
-    <mergeCell ref="J397:J401"/>
-    <mergeCell ref="J402:J406"/>
-    <mergeCell ref="J407:J411"/>
-    <mergeCell ref="J412:J421"/>
-    <mergeCell ref="J367:J371"/>
-    <mergeCell ref="J372:J376"/>
-    <mergeCell ref="J377:J381"/>
-    <mergeCell ref="J382:J386"/>
-    <mergeCell ref="J387:J391"/>
-    <mergeCell ref="J342:J346"/>
-    <mergeCell ref="J347:J351"/>
-    <mergeCell ref="J352:J356"/>
-    <mergeCell ref="J357:J361"/>
-    <mergeCell ref="J362:J366"/>
-    <mergeCell ref="J317:J321"/>
-    <mergeCell ref="J322:J326"/>
-    <mergeCell ref="J327:J331"/>
-    <mergeCell ref="J332:J336"/>
-    <mergeCell ref="J337:J341"/>
-    <mergeCell ref="J292:J296"/>
-    <mergeCell ref="J297:J301"/>
-    <mergeCell ref="J302:J306"/>
-    <mergeCell ref="J307:J311"/>
-    <mergeCell ref="J312:J316"/>
-    <mergeCell ref="J267:J271"/>
-    <mergeCell ref="J272:J276"/>
-    <mergeCell ref="J277:J281"/>
-    <mergeCell ref="J282:J286"/>
-    <mergeCell ref="J287:J291"/>
-    <mergeCell ref="J242:J246"/>
-    <mergeCell ref="J247:J251"/>
-    <mergeCell ref="J252:J256"/>
-    <mergeCell ref="J257:J261"/>
-    <mergeCell ref="J262:J266"/>
-    <mergeCell ref="J217:J221"/>
-    <mergeCell ref="J222:J226"/>
-    <mergeCell ref="J227:J231"/>
-    <mergeCell ref="J232:J236"/>
-    <mergeCell ref="J237:J241"/>
-    <mergeCell ref="J192:J196"/>
-    <mergeCell ref="J197:J201"/>
-    <mergeCell ref="J202:J206"/>
-    <mergeCell ref="J207:J211"/>
-    <mergeCell ref="J212:J216"/>
-    <mergeCell ref="J167:J171"/>
-    <mergeCell ref="J172:J176"/>
-    <mergeCell ref="J177:J181"/>
-    <mergeCell ref="J182:J186"/>
-    <mergeCell ref="J187:J191"/>
-    <mergeCell ref="J142:J146"/>
-    <mergeCell ref="J147:J151"/>
-    <mergeCell ref="J152:J156"/>
-    <mergeCell ref="J157:J161"/>
-    <mergeCell ref="J162:J166"/>
-    <mergeCell ref="J117:J121"/>
-    <mergeCell ref="J122:J126"/>
-    <mergeCell ref="J127:J131"/>
-    <mergeCell ref="J132:J136"/>
-    <mergeCell ref="J137:J141"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="J112:J116"/>
-    <mergeCell ref="J67:J71"/>
-    <mergeCell ref="J72:J76"/>
-    <mergeCell ref="J77:J81"/>
-    <mergeCell ref="J82:J86"/>
-    <mergeCell ref="J87:J91"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="J22:J26"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J1372:J1376"/>
+    <mergeCell ref="J1377:J1381"/>
+    <mergeCell ref="J1382:J1386"/>
+    <mergeCell ref="J1387:J1391"/>
+    <mergeCell ref="J1347:J1351"/>
+    <mergeCell ref="J1352:J1356"/>
+    <mergeCell ref="J1357:J1361"/>
+    <mergeCell ref="J1362:J1366"/>
+    <mergeCell ref="J1367:J1371"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/개인/data/부동산 기본 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{00E549E8-D797-4FFC-9E87-4E797B3B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF75316A-E9E8-454B-8137-03715126C453}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{00E549E8-D797-4FFC-9E87-4E797B3B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5017F78C-63F0-4BC3-AD57-A72F223F3050}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="buyer" sheetId="5" r:id="rId9"/>
     <sheet name="pop_raw" sheetId="10" r:id="rId10"/>
     <sheet name="notsold" sheetId="12" r:id="rId11"/>
+    <sheet name="afternotsold" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">city!$A$1:$K$1</definedName>
@@ -34126,8 +34127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED87FDA7-0193-4878-AADB-FBEF6B1B28A7}">
   <dimension ref="A1:IL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HQ1" workbookViewId="0">
-      <selection activeCell="HV1" sqref="HV1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -34875,6 +34876,20 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F16C7AF-5930-48A7-A8F2-2D72ACCDFEF8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -90292,6 +90307,275 @@
     </row>
   </sheetData>
   <mergeCells count="279">
+    <mergeCell ref="J1372:J1376"/>
+    <mergeCell ref="J1377:J1381"/>
+    <mergeCell ref="J1382:J1386"/>
+    <mergeCell ref="J1387:J1391"/>
+    <mergeCell ref="J1347:J1351"/>
+    <mergeCell ref="J1352:J1356"/>
+    <mergeCell ref="J1357:J1361"/>
+    <mergeCell ref="J1362:J1366"/>
+    <mergeCell ref="J1367:J1371"/>
+    <mergeCell ref="J1322:J1326"/>
+    <mergeCell ref="J1327:J1331"/>
+    <mergeCell ref="J1332:J1336"/>
+    <mergeCell ref="J1337:J1341"/>
+    <mergeCell ref="J1342:J1346"/>
+    <mergeCell ref="J1297:J1301"/>
+    <mergeCell ref="J1302:J1306"/>
+    <mergeCell ref="J1307:J1311"/>
+    <mergeCell ref="J1312:J1316"/>
+    <mergeCell ref="J1317:J1321"/>
+    <mergeCell ref="J1272:J1276"/>
+    <mergeCell ref="J1277:J1281"/>
+    <mergeCell ref="J1282:J1286"/>
+    <mergeCell ref="J1287:J1291"/>
+    <mergeCell ref="J1292:J1296"/>
+    <mergeCell ref="J1247:J1251"/>
+    <mergeCell ref="J1252:J1256"/>
+    <mergeCell ref="J1257:J1261"/>
+    <mergeCell ref="J1262:J1266"/>
+    <mergeCell ref="J1267:J1271"/>
+    <mergeCell ref="J1222:J1226"/>
+    <mergeCell ref="J1227:J1231"/>
+    <mergeCell ref="J1232:J1236"/>
+    <mergeCell ref="J1237:J1241"/>
+    <mergeCell ref="J1242:J1246"/>
+    <mergeCell ref="J1197:J1201"/>
+    <mergeCell ref="J1202:J1206"/>
+    <mergeCell ref="J1207:J1211"/>
+    <mergeCell ref="J1212:J1216"/>
+    <mergeCell ref="J1217:J1221"/>
+    <mergeCell ref="J1172:J1176"/>
+    <mergeCell ref="J1177:J1181"/>
+    <mergeCell ref="J1182:J1186"/>
+    <mergeCell ref="J1187:J1191"/>
+    <mergeCell ref="J1192:J1196"/>
+    <mergeCell ref="J1147:J1151"/>
+    <mergeCell ref="J1152:J1156"/>
+    <mergeCell ref="J1157:J1161"/>
+    <mergeCell ref="J1162:J1166"/>
+    <mergeCell ref="J1167:J1171"/>
+    <mergeCell ref="J1122:J1126"/>
+    <mergeCell ref="J1127:J1131"/>
+    <mergeCell ref="J1132:J1136"/>
+    <mergeCell ref="J1137:J1141"/>
+    <mergeCell ref="J1142:J1146"/>
+    <mergeCell ref="J1097:J1101"/>
+    <mergeCell ref="J1102:J1106"/>
+    <mergeCell ref="J1107:J1111"/>
+    <mergeCell ref="J1112:J1116"/>
+    <mergeCell ref="J1117:J1121"/>
+    <mergeCell ref="J1072:J1076"/>
+    <mergeCell ref="J1077:J1081"/>
+    <mergeCell ref="J1082:J1086"/>
+    <mergeCell ref="J1087:J1091"/>
+    <mergeCell ref="J1092:J1096"/>
+    <mergeCell ref="J1047:J1051"/>
+    <mergeCell ref="J1052:J1056"/>
+    <mergeCell ref="J1057:J1061"/>
+    <mergeCell ref="J1062:J1066"/>
+    <mergeCell ref="J1067:J1071"/>
+    <mergeCell ref="J1022:J1026"/>
+    <mergeCell ref="J1027:J1031"/>
+    <mergeCell ref="J1032:J1036"/>
+    <mergeCell ref="J1037:J1041"/>
+    <mergeCell ref="J1042:J1046"/>
+    <mergeCell ref="J997:J1001"/>
+    <mergeCell ref="J1002:J1006"/>
+    <mergeCell ref="J1007:J1011"/>
+    <mergeCell ref="J1012:J1016"/>
+    <mergeCell ref="J1017:J1021"/>
+    <mergeCell ref="J972:J976"/>
+    <mergeCell ref="J977:J981"/>
+    <mergeCell ref="J982:J986"/>
+    <mergeCell ref="J987:J991"/>
+    <mergeCell ref="J992:J996"/>
+    <mergeCell ref="J947:J951"/>
+    <mergeCell ref="J952:J956"/>
+    <mergeCell ref="J957:J961"/>
+    <mergeCell ref="J962:J966"/>
+    <mergeCell ref="J967:J971"/>
+    <mergeCell ref="J922:J926"/>
+    <mergeCell ref="J927:J931"/>
+    <mergeCell ref="J932:J936"/>
+    <mergeCell ref="J937:J941"/>
+    <mergeCell ref="J942:J946"/>
+    <mergeCell ref="J897:J901"/>
+    <mergeCell ref="J902:J906"/>
+    <mergeCell ref="J907:J911"/>
+    <mergeCell ref="J912:J916"/>
+    <mergeCell ref="J917:J921"/>
+    <mergeCell ref="J872:J876"/>
+    <mergeCell ref="J877:J881"/>
+    <mergeCell ref="J882:J886"/>
+    <mergeCell ref="J887:J891"/>
+    <mergeCell ref="J892:J896"/>
+    <mergeCell ref="J847:J851"/>
+    <mergeCell ref="J852:J856"/>
+    <mergeCell ref="J857:J861"/>
+    <mergeCell ref="J862:J866"/>
+    <mergeCell ref="J867:J871"/>
+    <mergeCell ref="J822:J826"/>
+    <mergeCell ref="J827:J831"/>
+    <mergeCell ref="J832:J836"/>
+    <mergeCell ref="J837:J841"/>
+    <mergeCell ref="J842:J846"/>
+    <mergeCell ref="J797:J801"/>
+    <mergeCell ref="J802:J806"/>
+    <mergeCell ref="J807:J811"/>
+    <mergeCell ref="J812:J816"/>
+    <mergeCell ref="J817:J821"/>
+    <mergeCell ref="J772:J776"/>
+    <mergeCell ref="J777:J781"/>
+    <mergeCell ref="J782:J786"/>
+    <mergeCell ref="J787:J791"/>
+    <mergeCell ref="J792:J796"/>
+    <mergeCell ref="J747:J751"/>
+    <mergeCell ref="J752:J756"/>
+    <mergeCell ref="J757:J761"/>
+    <mergeCell ref="J762:J766"/>
+    <mergeCell ref="J767:J771"/>
+    <mergeCell ref="J722:J726"/>
+    <mergeCell ref="J727:J731"/>
+    <mergeCell ref="J732:J736"/>
+    <mergeCell ref="J737:J741"/>
+    <mergeCell ref="J742:J746"/>
+    <mergeCell ref="J697:J701"/>
+    <mergeCell ref="J702:J706"/>
+    <mergeCell ref="J707:J711"/>
+    <mergeCell ref="J712:J716"/>
+    <mergeCell ref="J717:J721"/>
+    <mergeCell ref="J672:J676"/>
+    <mergeCell ref="J677:J681"/>
+    <mergeCell ref="J682:J686"/>
+    <mergeCell ref="J687:J691"/>
+    <mergeCell ref="J692:J696"/>
+    <mergeCell ref="J647:J651"/>
+    <mergeCell ref="J652:J656"/>
+    <mergeCell ref="J657:J661"/>
+    <mergeCell ref="J662:J666"/>
+    <mergeCell ref="J667:J671"/>
+    <mergeCell ref="J622:J626"/>
+    <mergeCell ref="J627:J631"/>
+    <mergeCell ref="J632:J636"/>
+    <mergeCell ref="J637:J641"/>
+    <mergeCell ref="J642:J646"/>
+    <mergeCell ref="J597:J601"/>
+    <mergeCell ref="J602:J606"/>
+    <mergeCell ref="J607:J611"/>
+    <mergeCell ref="J612:J616"/>
+    <mergeCell ref="J617:J621"/>
+    <mergeCell ref="J572:J576"/>
+    <mergeCell ref="J577:J581"/>
+    <mergeCell ref="J582:J586"/>
+    <mergeCell ref="J587:J591"/>
+    <mergeCell ref="J592:J596"/>
+    <mergeCell ref="J547:J551"/>
+    <mergeCell ref="J552:J556"/>
+    <mergeCell ref="J557:J561"/>
+    <mergeCell ref="J562:J566"/>
+    <mergeCell ref="J567:J571"/>
+    <mergeCell ref="J522:J526"/>
+    <mergeCell ref="J527:J531"/>
+    <mergeCell ref="J532:J536"/>
+    <mergeCell ref="J537:J541"/>
+    <mergeCell ref="J542:J546"/>
+    <mergeCell ref="J497:J501"/>
+    <mergeCell ref="J502:J506"/>
+    <mergeCell ref="J507:J511"/>
+    <mergeCell ref="J512:J516"/>
+    <mergeCell ref="J517:J521"/>
+    <mergeCell ref="J472:J476"/>
+    <mergeCell ref="J477:J481"/>
+    <mergeCell ref="J482:J486"/>
+    <mergeCell ref="J487:J491"/>
+    <mergeCell ref="J492:J496"/>
+    <mergeCell ref="J447:J451"/>
+    <mergeCell ref="J452:J456"/>
+    <mergeCell ref="J457:J461"/>
+    <mergeCell ref="J462:J466"/>
+    <mergeCell ref="J467:J471"/>
+    <mergeCell ref="J422:J426"/>
+    <mergeCell ref="J427:J431"/>
+    <mergeCell ref="J432:J436"/>
+    <mergeCell ref="J437:J441"/>
+    <mergeCell ref="J442:J446"/>
+    <mergeCell ref="J392:J396"/>
+    <mergeCell ref="J397:J401"/>
+    <mergeCell ref="J402:J406"/>
+    <mergeCell ref="J407:J411"/>
+    <mergeCell ref="J412:J421"/>
+    <mergeCell ref="J367:J371"/>
+    <mergeCell ref="J372:J376"/>
+    <mergeCell ref="J377:J381"/>
+    <mergeCell ref="J382:J386"/>
+    <mergeCell ref="J387:J391"/>
+    <mergeCell ref="J342:J346"/>
+    <mergeCell ref="J347:J351"/>
+    <mergeCell ref="J352:J356"/>
+    <mergeCell ref="J357:J361"/>
+    <mergeCell ref="J362:J366"/>
+    <mergeCell ref="J317:J321"/>
+    <mergeCell ref="J322:J326"/>
+    <mergeCell ref="J327:J331"/>
+    <mergeCell ref="J332:J336"/>
+    <mergeCell ref="J337:J341"/>
+    <mergeCell ref="J292:J296"/>
+    <mergeCell ref="J297:J301"/>
+    <mergeCell ref="J302:J306"/>
+    <mergeCell ref="J307:J311"/>
+    <mergeCell ref="J312:J316"/>
+    <mergeCell ref="J267:J271"/>
+    <mergeCell ref="J272:J276"/>
+    <mergeCell ref="J277:J281"/>
+    <mergeCell ref="J282:J286"/>
+    <mergeCell ref="J287:J291"/>
+    <mergeCell ref="J242:J246"/>
+    <mergeCell ref="J247:J251"/>
+    <mergeCell ref="J252:J256"/>
+    <mergeCell ref="J257:J261"/>
+    <mergeCell ref="J262:J266"/>
+    <mergeCell ref="J217:J221"/>
+    <mergeCell ref="J222:J226"/>
+    <mergeCell ref="J227:J231"/>
+    <mergeCell ref="J232:J236"/>
+    <mergeCell ref="J237:J241"/>
+    <mergeCell ref="J192:J196"/>
+    <mergeCell ref="J197:J201"/>
+    <mergeCell ref="J202:J206"/>
+    <mergeCell ref="J207:J211"/>
+    <mergeCell ref="J212:J216"/>
+    <mergeCell ref="J167:J171"/>
+    <mergeCell ref="J172:J176"/>
+    <mergeCell ref="J177:J181"/>
+    <mergeCell ref="J182:J186"/>
+    <mergeCell ref="J187:J191"/>
+    <mergeCell ref="J142:J146"/>
+    <mergeCell ref="J147:J151"/>
+    <mergeCell ref="J152:J156"/>
+    <mergeCell ref="J157:J161"/>
+    <mergeCell ref="J162:J166"/>
+    <mergeCell ref="J117:J121"/>
+    <mergeCell ref="J122:J126"/>
+    <mergeCell ref="J127:J131"/>
+    <mergeCell ref="J132:J136"/>
+    <mergeCell ref="J137:J141"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="J112:J116"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="J77:J81"/>
+    <mergeCell ref="J82:J86"/>
+    <mergeCell ref="J87:J91"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="J62:J66"/>
     <mergeCell ref="J17:J21"/>
     <mergeCell ref="J22:J26"/>
     <mergeCell ref="J27:J31"/>
@@ -90302,275 +90586,6 @@
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="J7:J11"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="J67:J71"/>
-    <mergeCell ref="J72:J76"/>
-    <mergeCell ref="J77:J81"/>
-    <mergeCell ref="J82:J86"/>
-    <mergeCell ref="J87:J91"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J117:J121"/>
-    <mergeCell ref="J122:J126"/>
-    <mergeCell ref="J127:J131"/>
-    <mergeCell ref="J132:J136"/>
-    <mergeCell ref="J137:J141"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="J112:J116"/>
-    <mergeCell ref="J167:J171"/>
-    <mergeCell ref="J172:J176"/>
-    <mergeCell ref="J177:J181"/>
-    <mergeCell ref="J182:J186"/>
-    <mergeCell ref="J187:J191"/>
-    <mergeCell ref="J142:J146"/>
-    <mergeCell ref="J147:J151"/>
-    <mergeCell ref="J152:J156"/>
-    <mergeCell ref="J157:J161"/>
-    <mergeCell ref="J162:J166"/>
-    <mergeCell ref="J217:J221"/>
-    <mergeCell ref="J222:J226"/>
-    <mergeCell ref="J227:J231"/>
-    <mergeCell ref="J232:J236"/>
-    <mergeCell ref="J237:J241"/>
-    <mergeCell ref="J192:J196"/>
-    <mergeCell ref="J197:J201"/>
-    <mergeCell ref="J202:J206"/>
-    <mergeCell ref="J207:J211"/>
-    <mergeCell ref="J212:J216"/>
-    <mergeCell ref="J267:J271"/>
-    <mergeCell ref="J272:J276"/>
-    <mergeCell ref="J277:J281"/>
-    <mergeCell ref="J282:J286"/>
-    <mergeCell ref="J287:J291"/>
-    <mergeCell ref="J242:J246"/>
-    <mergeCell ref="J247:J251"/>
-    <mergeCell ref="J252:J256"/>
-    <mergeCell ref="J257:J261"/>
-    <mergeCell ref="J262:J266"/>
-    <mergeCell ref="J317:J321"/>
-    <mergeCell ref="J322:J326"/>
-    <mergeCell ref="J327:J331"/>
-    <mergeCell ref="J332:J336"/>
-    <mergeCell ref="J337:J341"/>
-    <mergeCell ref="J292:J296"/>
-    <mergeCell ref="J297:J301"/>
-    <mergeCell ref="J302:J306"/>
-    <mergeCell ref="J307:J311"/>
-    <mergeCell ref="J312:J316"/>
-    <mergeCell ref="J367:J371"/>
-    <mergeCell ref="J372:J376"/>
-    <mergeCell ref="J377:J381"/>
-    <mergeCell ref="J382:J386"/>
-    <mergeCell ref="J387:J391"/>
-    <mergeCell ref="J342:J346"/>
-    <mergeCell ref="J347:J351"/>
-    <mergeCell ref="J352:J356"/>
-    <mergeCell ref="J357:J361"/>
-    <mergeCell ref="J362:J366"/>
-    <mergeCell ref="J422:J426"/>
-    <mergeCell ref="J427:J431"/>
-    <mergeCell ref="J432:J436"/>
-    <mergeCell ref="J437:J441"/>
-    <mergeCell ref="J442:J446"/>
-    <mergeCell ref="J392:J396"/>
-    <mergeCell ref="J397:J401"/>
-    <mergeCell ref="J402:J406"/>
-    <mergeCell ref="J407:J411"/>
-    <mergeCell ref="J412:J421"/>
-    <mergeCell ref="J472:J476"/>
-    <mergeCell ref="J477:J481"/>
-    <mergeCell ref="J482:J486"/>
-    <mergeCell ref="J487:J491"/>
-    <mergeCell ref="J492:J496"/>
-    <mergeCell ref="J447:J451"/>
-    <mergeCell ref="J452:J456"/>
-    <mergeCell ref="J457:J461"/>
-    <mergeCell ref="J462:J466"/>
-    <mergeCell ref="J467:J471"/>
-    <mergeCell ref="J522:J526"/>
-    <mergeCell ref="J527:J531"/>
-    <mergeCell ref="J532:J536"/>
-    <mergeCell ref="J537:J541"/>
-    <mergeCell ref="J542:J546"/>
-    <mergeCell ref="J497:J501"/>
-    <mergeCell ref="J502:J506"/>
-    <mergeCell ref="J507:J511"/>
-    <mergeCell ref="J512:J516"/>
-    <mergeCell ref="J517:J521"/>
-    <mergeCell ref="J572:J576"/>
-    <mergeCell ref="J577:J581"/>
-    <mergeCell ref="J582:J586"/>
-    <mergeCell ref="J587:J591"/>
-    <mergeCell ref="J592:J596"/>
-    <mergeCell ref="J547:J551"/>
-    <mergeCell ref="J552:J556"/>
-    <mergeCell ref="J557:J561"/>
-    <mergeCell ref="J562:J566"/>
-    <mergeCell ref="J567:J571"/>
-    <mergeCell ref="J622:J626"/>
-    <mergeCell ref="J627:J631"/>
-    <mergeCell ref="J632:J636"/>
-    <mergeCell ref="J637:J641"/>
-    <mergeCell ref="J642:J646"/>
-    <mergeCell ref="J597:J601"/>
-    <mergeCell ref="J602:J606"/>
-    <mergeCell ref="J607:J611"/>
-    <mergeCell ref="J612:J616"/>
-    <mergeCell ref="J617:J621"/>
-    <mergeCell ref="J672:J676"/>
-    <mergeCell ref="J677:J681"/>
-    <mergeCell ref="J682:J686"/>
-    <mergeCell ref="J687:J691"/>
-    <mergeCell ref="J692:J696"/>
-    <mergeCell ref="J647:J651"/>
-    <mergeCell ref="J652:J656"/>
-    <mergeCell ref="J657:J661"/>
-    <mergeCell ref="J662:J666"/>
-    <mergeCell ref="J667:J671"/>
-    <mergeCell ref="J722:J726"/>
-    <mergeCell ref="J727:J731"/>
-    <mergeCell ref="J732:J736"/>
-    <mergeCell ref="J737:J741"/>
-    <mergeCell ref="J742:J746"/>
-    <mergeCell ref="J697:J701"/>
-    <mergeCell ref="J702:J706"/>
-    <mergeCell ref="J707:J711"/>
-    <mergeCell ref="J712:J716"/>
-    <mergeCell ref="J717:J721"/>
-    <mergeCell ref="J772:J776"/>
-    <mergeCell ref="J777:J781"/>
-    <mergeCell ref="J782:J786"/>
-    <mergeCell ref="J787:J791"/>
-    <mergeCell ref="J792:J796"/>
-    <mergeCell ref="J747:J751"/>
-    <mergeCell ref="J752:J756"/>
-    <mergeCell ref="J757:J761"/>
-    <mergeCell ref="J762:J766"/>
-    <mergeCell ref="J767:J771"/>
-    <mergeCell ref="J822:J826"/>
-    <mergeCell ref="J827:J831"/>
-    <mergeCell ref="J832:J836"/>
-    <mergeCell ref="J837:J841"/>
-    <mergeCell ref="J842:J846"/>
-    <mergeCell ref="J797:J801"/>
-    <mergeCell ref="J802:J806"/>
-    <mergeCell ref="J807:J811"/>
-    <mergeCell ref="J812:J816"/>
-    <mergeCell ref="J817:J821"/>
-    <mergeCell ref="J872:J876"/>
-    <mergeCell ref="J877:J881"/>
-    <mergeCell ref="J882:J886"/>
-    <mergeCell ref="J887:J891"/>
-    <mergeCell ref="J892:J896"/>
-    <mergeCell ref="J847:J851"/>
-    <mergeCell ref="J852:J856"/>
-    <mergeCell ref="J857:J861"/>
-    <mergeCell ref="J862:J866"/>
-    <mergeCell ref="J867:J871"/>
-    <mergeCell ref="J922:J926"/>
-    <mergeCell ref="J927:J931"/>
-    <mergeCell ref="J932:J936"/>
-    <mergeCell ref="J937:J941"/>
-    <mergeCell ref="J942:J946"/>
-    <mergeCell ref="J897:J901"/>
-    <mergeCell ref="J902:J906"/>
-    <mergeCell ref="J907:J911"/>
-    <mergeCell ref="J912:J916"/>
-    <mergeCell ref="J917:J921"/>
-    <mergeCell ref="J972:J976"/>
-    <mergeCell ref="J977:J981"/>
-    <mergeCell ref="J982:J986"/>
-    <mergeCell ref="J987:J991"/>
-    <mergeCell ref="J992:J996"/>
-    <mergeCell ref="J947:J951"/>
-    <mergeCell ref="J952:J956"/>
-    <mergeCell ref="J957:J961"/>
-    <mergeCell ref="J962:J966"/>
-    <mergeCell ref="J967:J971"/>
-    <mergeCell ref="J1022:J1026"/>
-    <mergeCell ref="J1027:J1031"/>
-    <mergeCell ref="J1032:J1036"/>
-    <mergeCell ref="J1037:J1041"/>
-    <mergeCell ref="J1042:J1046"/>
-    <mergeCell ref="J997:J1001"/>
-    <mergeCell ref="J1002:J1006"/>
-    <mergeCell ref="J1007:J1011"/>
-    <mergeCell ref="J1012:J1016"/>
-    <mergeCell ref="J1017:J1021"/>
-    <mergeCell ref="J1072:J1076"/>
-    <mergeCell ref="J1077:J1081"/>
-    <mergeCell ref="J1082:J1086"/>
-    <mergeCell ref="J1087:J1091"/>
-    <mergeCell ref="J1092:J1096"/>
-    <mergeCell ref="J1047:J1051"/>
-    <mergeCell ref="J1052:J1056"/>
-    <mergeCell ref="J1057:J1061"/>
-    <mergeCell ref="J1062:J1066"/>
-    <mergeCell ref="J1067:J1071"/>
-    <mergeCell ref="J1122:J1126"/>
-    <mergeCell ref="J1127:J1131"/>
-    <mergeCell ref="J1132:J1136"/>
-    <mergeCell ref="J1137:J1141"/>
-    <mergeCell ref="J1142:J1146"/>
-    <mergeCell ref="J1097:J1101"/>
-    <mergeCell ref="J1102:J1106"/>
-    <mergeCell ref="J1107:J1111"/>
-    <mergeCell ref="J1112:J1116"/>
-    <mergeCell ref="J1117:J1121"/>
-    <mergeCell ref="J1172:J1176"/>
-    <mergeCell ref="J1177:J1181"/>
-    <mergeCell ref="J1182:J1186"/>
-    <mergeCell ref="J1187:J1191"/>
-    <mergeCell ref="J1192:J1196"/>
-    <mergeCell ref="J1147:J1151"/>
-    <mergeCell ref="J1152:J1156"/>
-    <mergeCell ref="J1157:J1161"/>
-    <mergeCell ref="J1162:J1166"/>
-    <mergeCell ref="J1167:J1171"/>
-    <mergeCell ref="J1222:J1226"/>
-    <mergeCell ref="J1227:J1231"/>
-    <mergeCell ref="J1232:J1236"/>
-    <mergeCell ref="J1237:J1241"/>
-    <mergeCell ref="J1242:J1246"/>
-    <mergeCell ref="J1197:J1201"/>
-    <mergeCell ref="J1202:J1206"/>
-    <mergeCell ref="J1207:J1211"/>
-    <mergeCell ref="J1212:J1216"/>
-    <mergeCell ref="J1217:J1221"/>
-    <mergeCell ref="J1272:J1276"/>
-    <mergeCell ref="J1277:J1281"/>
-    <mergeCell ref="J1282:J1286"/>
-    <mergeCell ref="J1287:J1291"/>
-    <mergeCell ref="J1292:J1296"/>
-    <mergeCell ref="J1247:J1251"/>
-    <mergeCell ref="J1252:J1256"/>
-    <mergeCell ref="J1257:J1261"/>
-    <mergeCell ref="J1262:J1266"/>
-    <mergeCell ref="J1267:J1271"/>
-    <mergeCell ref="J1322:J1326"/>
-    <mergeCell ref="J1327:J1331"/>
-    <mergeCell ref="J1332:J1336"/>
-    <mergeCell ref="J1337:J1341"/>
-    <mergeCell ref="J1342:J1346"/>
-    <mergeCell ref="J1297:J1301"/>
-    <mergeCell ref="J1302:J1306"/>
-    <mergeCell ref="J1307:J1311"/>
-    <mergeCell ref="J1312:J1316"/>
-    <mergeCell ref="J1317:J1321"/>
-    <mergeCell ref="J1372:J1376"/>
-    <mergeCell ref="J1377:J1381"/>
-    <mergeCell ref="J1382:J1386"/>
-    <mergeCell ref="J1387:J1391"/>
-    <mergeCell ref="J1347:J1351"/>
-    <mergeCell ref="J1352:J1356"/>
-    <mergeCell ref="J1357:J1361"/>
-    <mergeCell ref="J1362:J1366"/>
-    <mergeCell ref="J1367:J1371"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/개인/data/부동산 기본 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{00E549E8-D797-4FFC-9E87-4E797B3B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5017F78C-63F0-4BC3-AD57-A72F223F3050}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{00E549E8-D797-4FFC-9E87-4E797B3B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29CB13F-E58B-4F39-8D85-BFAEBAAEF495}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29505" yWindow="2280" windowWidth="23715" windowHeight="17550" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="pop_raw" sheetId="10" r:id="rId10"/>
     <sheet name="notsold" sheetId="12" r:id="rId11"/>
     <sheet name="afternotsold" sheetId="13" r:id="rId12"/>
+    <sheet name="real" sheetId="14" r:id="rId13"/>
+    <sheet name="realQ" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">city!$A$1:$K$1</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12838" uniqueCount="2732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12980" uniqueCount="2753">
   <si>
     <t>안양 동안구</t>
   </si>
@@ -8507,6 +8509,115 @@
     <t>서울 계</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>광역시</t>
+  </si>
+  <si>
+    <t>지방광역시</t>
+  </si>
+  <si>
+    <t>지방도</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서남권</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원
+장안구</t>
+  </si>
+  <si>
+    <t>수원
+권선구</t>
+  </si>
+  <si>
+    <t>수원
+팔달구</t>
+  </si>
+  <si>
+    <t>수원
+영통구</t>
+  </si>
+  <si>
+    <t>성남
+수정구</t>
+  </si>
+  <si>
+    <t>성남
+중원구</t>
+  </si>
+  <si>
+    <t>성남
+분당구</t>
+  </si>
+  <si>
+    <t>안양
+만안구</t>
+  </si>
+  <si>
+    <t>안양
+동안구</t>
+  </si>
+  <si>
+    <t>안산
+상록구</t>
+  </si>
+  <si>
+    <t>안산
+단원구</t>
+  </si>
+  <si>
+    <t>고양
+덕양구</t>
+  </si>
+  <si>
+    <t>고양
+일산동구</t>
+  </si>
+  <si>
+    <t>고양
+일산서구</t>
+  </si>
+  <si>
+    <t>용인
+처인구</t>
+  </si>
+  <si>
+    <t>용인
+기흥구</t>
+  </si>
+  <si>
+    <t>용인
+수지구</t>
+  </si>
 </sst>
 </file>
 
@@ -8516,7 +8627,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8670,8 +8781,41 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8731,8 +8875,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA49991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -8916,6 +9072,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF31869B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4BACC6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4BACC6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8938,7 +9139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9086,6 +9287,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -9314,10 +9533,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34883,13 +35098,475 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F16C7AF-5930-48A7-A8F2-2D72ACCDFEF8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF9A015-9B5F-4FD7-A48E-C95D2BD63B27}">
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:28" ht="31.8" thickBot="1">
+      <c r="A1" s="56" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>2735</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>632</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>631</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>627</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>649</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>636</v>
+      </c>
+      <c r="S1" s="56" t="s">
+        <v>613</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>616</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="V1" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>628</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y1" s="56" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z1" s="56" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AA1" s="56" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AB1" s="56" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D42F9-507B-4E83-99F8-3E90E154F80E}">
+  <dimension ref="A1:DJ1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:114" ht="27" thickBot="1">
+      <c r="A1" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>996</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>1200</v>
+      </c>
+      <c r="T1" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="60" t="s">
+        <v>1185</v>
+      </c>
+      <c r="W1" s="60" t="s">
+        <v>977</v>
+      </c>
+      <c r="X1" s="60" t="s">
+        <v>1145</v>
+      </c>
+      <c r="Y1" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z1" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA1" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB1" s="60" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC1" s="60" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD1" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE1" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF1" s="60" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG1" s="60" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH1" s="60" t="s">
+        <v>519</v>
+      </c>
+      <c r="AI1" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ1" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="AK1" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL1" s="60" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AM1" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN1" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO1" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ1" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR1" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="AS1" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="AT1" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU1" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV1" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW1" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="AX1" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY1" s="60" t="s">
+        <v>418</v>
+      </c>
+      <c r="AZ1" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="BA1" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="BB1" s="60" t="s">
+        <v>489</v>
+      </c>
+      <c r="BC1" s="60" t="s">
+        <v>402</v>
+      </c>
+      <c r="BD1" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE1" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF1" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG1" s="60" t="s">
+        <v>420</v>
+      </c>
+      <c r="BH1" s="60" t="s">
+        <v>518</v>
+      </c>
+      <c r="BI1" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ1" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK1" s="60" t="s">
+        <v>505</v>
+      </c>
+      <c r="BL1" s="60" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BM1" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN1" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="BO1" s="60" t="s">
+        <v>523</v>
+      </c>
+      <c r="BP1" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="BQ1" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="BR1" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="BS1" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="BT1" s="60" t="s">
+        <v>2736</v>
+      </c>
+      <c r="BU1" s="60" t="s">
+        <v>2737</v>
+      </c>
+      <c r="BV1" s="60" t="s">
+        <v>2738</v>
+      </c>
+      <c r="BW1" s="60" t="s">
+        <v>2739</v>
+      </c>
+      <c r="BX1" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="BY1" s="60" t="s">
+        <v>2740</v>
+      </c>
+      <c r="BZ1" s="60" t="s">
+        <v>2741</v>
+      </c>
+      <c r="CA1" s="60" t="s">
+        <v>2742</v>
+      </c>
+      <c r="CB1" s="60" t="s">
+        <v>857</v>
+      </c>
+      <c r="CC1" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD1" s="60" t="s">
+        <v>2743</v>
+      </c>
+      <c r="CE1" s="60" t="s">
+        <v>2744</v>
+      </c>
+      <c r="CF1" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="CG1" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="CH1" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="CI1" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ1" s="60" t="s">
+        <v>2745</v>
+      </c>
+      <c r="CK1" s="60" t="s">
+        <v>2746</v>
+      </c>
+      <c r="CL1" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="CM1" s="60" t="s">
+        <v>2747</v>
+      </c>
+      <c r="CN1" s="60" t="s">
+        <v>2748</v>
+      </c>
+      <c r="CO1" s="60" t="s">
+        <v>2749</v>
+      </c>
+      <c r="CP1" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ1" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="CR1" s="60" t="s">
+        <v>843</v>
+      </c>
+      <c r="CS1" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="CT1" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="CU1" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="CV1" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="CW1" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="CX1" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="CY1" s="60" t="s">
+        <v>2750</v>
+      </c>
+      <c r="CZ1" s="60" t="s">
+        <v>2751</v>
+      </c>
+      <c r="DA1" s="60" t="s">
+        <v>2752</v>
+      </c>
+      <c r="DB1" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="DC1" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="DD1" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="DE1" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="DF1" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="DG1" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="DH1" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="DI1" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="DJ1" s="61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -90307,15 +90984,266 @@
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="J1372:J1376"/>
-    <mergeCell ref="J1377:J1381"/>
-    <mergeCell ref="J1382:J1386"/>
-    <mergeCell ref="J1387:J1391"/>
-    <mergeCell ref="J1347:J1351"/>
-    <mergeCell ref="J1352:J1356"/>
-    <mergeCell ref="J1357:J1361"/>
-    <mergeCell ref="J1362:J1366"/>
-    <mergeCell ref="J1367:J1371"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="J77:J81"/>
+    <mergeCell ref="J82:J86"/>
+    <mergeCell ref="J87:J91"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J117:J121"/>
+    <mergeCell ref="J122:J126"/>
+    <mergeCell ref="J127:J131"/>
+    <mergeCell ref="J132:J136"/>
+    <mergeCell ref="J137:J141"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="J112:J116"/>
+    <mergeCell ref="J167:J171"/>
+    <mergeCell ref="J172:J176"/>
+    <mergeCell ref="J177:J181"/>
+    <mergeCell ref="J182:J186"/>
+    <mergeCell ref="J187:J191"/>
+    <mergeCell ref="J142:J146"/>
+    <mergeCell ref="J147:J151"/>
+    <mergeCell ref="J152:J156"/>
+    <mergeCell ref="J157:J161"/>
+    <mergeCell ref="J162:J166"/>
+    <mergeCell ref="J217:J221"/>
+    <mergeCell ref="J222:J226"/>
+    <mergeCell ref="J227:J231"/>
+    <mergeCell ref="J232:J236"/>
+    <mergeCell ref="J237:J241"/>
+    <mergeCell ref="J192:J196"/>
+    <mergeCell ref="J197:J201"/>
+    <mergeCell ref="J202:J206"/>
+    <mergeCell ref="J207:J211"/>
+    <mergeCell ref="J212:J216"/>
+    <mergeCell ref="J267:J271"/>
+    <mergeCell ref="J272:J276"/>
+    <mergeCell ref="J277:J281"/>
+    <mergeCell ref="J282:J286"/>
+    <mergeCell ref="J287:J291"/>
+    <mergeCell ref="J242:J246"/>
+    <mergeCell ref="J247:J251"/>
+    <mergeCell ref="J252:J256"/>
+    <mergeCell ref="J257:J261"/>
+    <mergeCell ref="J262:J266"/>
+    <mergeCell ref="J317:J321"/>
+    <mergeCell ref="J322:J326"/>
+    <mergeCell ref="J327:J331"/>
+    <mergeCell ref="J332:J336"/>
+    <mergeCell ref="J337:J341"/>
+    <mergeCell ref="J292:J296"/>
+    <mergeCell ref="J297:J301"/>
+    <mergeCell ref="J302:J306"/>
+    <mergeCell ref="J307:J311"/>
+    <mergeCell ref="J312:J316"/>
+    <mergeCell ref="J367:J371"/>
+    <mergeCell ref="J372:J376"/>
+    <mergeCell ref="J377:J381"/>
+    <mergeCell ref="J382:J386"/>
+    <mergeCell ref="J387:J391"/>
+    <mergeCell ref="J342:J346"/>
+    <mergeCell ref="J347:J351"/>
+    <mergeCell ref="J352:J356"/>
+    <mergeCell ref="J357:J361"/>
+    <mergeCell ref="J362:J366"/>
+    <mergeCell ref="J422:J426"/>
+    <mergeCell ref="J427:J431"/>
+    <mergeCell ref="J432:J436"/>
+    <mergeCell ref="J437:J441"/>
+    <mergeCell ref="J442:J446"/>
+    <mergeCell ref="J392:J396"/>
+    <mergeCell ref="J397:J401"/>
+    <mergeCell ref="J402:J406"/>
+    <mergeCell ref="J407:J411"/>
+    <mergeCell ref="J412:J421"/>
+    <mergeCell ref="J472:J476"/>
+    <mergeCell ref="J477:J481"/>
+    <mergeCell ref="J482:J486"/>
+    <mergeCell ref="J487:J491"/>
+    <mergeCell ref="J492:J496"/>
+    <mergeCell ref="J447:J451"/>
+    <mergeCell ref="J452:J456"/>
+    <mergeCell ref="J457:J461"/>
+    <mergeCell ref="J462:J466"/>
+    <mergeCell ref="J467:J471"/>
+    <mergeCell ref="J522:J526"/>
+    <mergeCell ref="J527:J531"/>
+    <mergeCell ref="J532:J536"/>
+    <mergeCell ref="J537:J541"/>
+    <mergeCell ref="J542:J546"/>
+    <mergeCell ref="J497:J501"/>
+    <mergeCell ref="J502:J506"/>
+    <mergeCell ref="J507:J511"/>
+    <mergeCell ref="J512:J516"/>
+    <mergeCell ref="J517:J521"/>
+    <mergeCell ref="J572:J576"/>
+    <mergeCell ref="J577:J581"/>
+    <mergeCell ref="J582:J586"/>
+    <mergeCell ref="J587:J591"/>
+    <mergeCell ref="J592:J596"/>
+    <mergeCell ref="J547:J551"/>
+    <mergeCell ref="J552:J556"/>
+    <mergeCell ref="J557:J561"/>
+    <mergeCell ref="J562:J566"/>
+    <mergeCell ref="J567:J571"/>
+    <mergeCell ref="J622:J626"/>
+    <mergeCell ref="J627:J631"/>
+    <mergeCell ref="J632:J636"/>
+    <mergeCell ref="J637:J641"/>
+    <mergeCell ref="J642:J646"/>
+    <mergeCell ref="J597:J601"/>
+    <mergeCell ref="J602:J606"/>
+    <mergeCell ref="J607:J611"/>
+    <mergeCell ref="J612:J616"/>
+    <mergeCell ref="J617:J621"/>
+    <mergeCell ref="J672:J676"/>
+    <mergeCell ref="J677:J681"/>
+    <mergeCell ref="J682:J686"/>
+    <mergeCell ref="J687:J691"/>
+    <mergeCell ref="J692:J696"/>
+    <mergeCell ref="J647:J651"/>
+    <mergeCell ref="J652:J656"/>
+    <mergeCell ref="J657:J661"/>
+    <mergeCell ref="J662:J666"/>
+    <mergeCell ref="J667:J671"/>
+    <mergeCell ref="J722:J726"/>
+    <mergeCell ref="J727:J731"/>
+    <mergeCell ref="J732:J736"/>
+    <mergeCell ref="J737:J741"/>
+    <mergeCell ref="J742:J746"/>
+    <mergeCell ref="J697:J701"/>
+    <mergeCell ref="J702:J706"/>
+    <mergeCell ref="J707:J711"/>
+    <mergeCell ref="J712:J716"/>
+    <mergeCell ref="J717:J721"/>
+    <mergeCell ref="J772:J776"/>
+    <mergeCell ref="J777:J781"/>
+    <mergeCell ref="J782:J786"/>
+    <mergeCell ref="J787:J791"/>
+    <mergeCell ref="J792:J796"/>
+    <mergeCell ref="J747:J751"/>
+    <mergeCell ref="J752:J756"/>
+    <mergeCell ref="J757:J761"/>
+    <mergeCell ref="J762:J766"/>
+    <mergeCell ref="J767:J771"/>
+    <mergeCell ref="J822:J826"/>
+    <mergeCell ref="J827:J831"/>
+    <mergeCell ref="J832:J836"/>
+    <mergeCell ref="J837:J841"/>
+    <mergeCell ref="J842:J846"/>
+    <mergeCell ref="J797:J801"/>
+    <mergeCell ref="J802:J806"/>
+    <mergeCell ref="J807:J811"/>
+    <mergeCell ref="J812:J816"/>
+    <mergeCell ref="J817:J821"/>
+    <mergeCell ref="J872:J876"/>
+    <mergeCell ref="J877:J881"/>
+    <mergeCell ref="J882:J886"/>
+    <mergeCell ref="J887:J891"/>
+    <mergeCell ref="J892:J896"/>
+    <mergeCell ref="J847:J851"/>
+    <mergeCell ref="J852:J856"/>
+    <mergeCell ref="J857:J861"/>
+    <mergeCell ref="J862:J866"/>
+    <mergeCell ref="J867:J871"/>
+    <mergeCell ref="J922:J926"/>
+    <mergeCell ref="J927:J931"/>
+    <mergeCell ref="J932:J936"/>
+    <mergeCell ref="J937:J941"/>
+    <mergeCell ref="J942:J946"/>
+    <mergeCell ref="J897:J901"/>
+    <mergeCell ref="J902:J906"/>
+    <mergeCell ref="J907:J911"/>
+    <mergeCell ref="J912:J916"/>
+    <mergeCell ref="J917:J921"/>
+    <mergeCell ref="J972:J976"/>
+    <mergeCell ref="J977:J981"/>
+    <mergeCell ref="J982:J986"/>
+    <mergeCell ref="J987:J991"/>
+    <mergeCell ref="J992:J996"/>
+    <mergeCell ref="J947:J951"/>
+    <mergeCell ref="J952:J956"/>
+    <mergeCell ref="J957:J961"/>
+    <mergeCell ref="J962:J966"/>
+    <mergeCell ref="J967:J971"/>
+    <mergeCell ref="J1022:J1026"/>
+    <mergeCell ref="J1027:J1031"/>
+    <mergeCell ref="J1032:J1036"/>
+    <mergeCell ref="J1037:J1041"/>
+    <mergeCell ref="J1042:J1046"/>
+    <mergeCell ref="J997:J1001"/>
+    <mergeCell ref="J1002:J1006"/>
+    <mergeCell ref="J1007:J1011"/>
+    <mergeCell ref="J1012:J1016"/>
+    <mergeCell ref="J1017:J1021"/>
+    <mergeCell ref="J1072:J1076"/>
+    <mergeCell ref="J1077:J1081"/>
+    <mergeCell ref="J1082:J1086"/>
+    <mergeCell ref="J1087:J1091"/>
+    <mergeCell ref="J1092:J1096"/>
+    <mergeCell ref="J1047:J1051"/>
+    <mergeCell ref="J1052:J1056"/>
+    <mergeCell ref="J1057:J1061"/>
+    <mergeCell ref="J1062:J1066"/>
+    <mergeCell ref="J1067:J1071"/>
+    <mergeCell ref="J1122:J1126"/>
+    <mergeCell ref="J1127:J1131"/>
+    <mergeCell ref="J1132:J1136"/>
+    <mergeCell ref="J1137:J1141"/>
+    <mergeCell ref="J1142:J1146"/>
+    <mergeCell ref="J1097:J1101"/>
+    <mergeCell ref="J1102:J1106"/>
+    <mergeCell ref="J1107:J1111"/>
+    <mergeCell ref="J1112:J1116"/>
+    <mergeCell ref="J1117:J1121"/>
+    <mergeCell ref="J1172:J1176"/>
+    <mergeCell ref="J1177:J1181"/>
+    <mergeCell ref="J1182:J1186"/>
+    <mergeCell ref="J1187:J1191"/>
+    <mergeCell ref="J1192:J1196"/>
+    <mergeCell ref="J1147:J1151"/>
+    <mergeCell ref="J1152:J1156"/>
+    <mergeCell ref="J1157:J1161"/>
+    <mergeCell ref="J1162:J1166"/>
+    <mergeCell ref="J1167:J1171"/>
+    <mergeCell ref="J1222:J1226"/>
+    <mergeCell ref="J1227:J1231"/>
+    <mergeCell ref="J1232:J1236"/>
+    <mergeCell ref="J1237:J1241"/>
+    <mergeCell ref="J1242:J1246"/>
+    <mergeCell ref="J1197:J1201"/>
+    <mergeCell ref="J1202:J1206"/>
+    <mergeCell ref="J1207:J1211"/>
+    <mergeCell ref="J1212:J1216"/>
+    <mergeCell ref="J1217:J1221"/>
+    <mergeCell ref="J1272:J1276"/>
+    <mergeCell ref="J1277:J1281"/>
+    <mergeCell ref="J1282:J1286"/>
+    <mergeCell ref="J1287:J1291"/>
+    <mergeCell ref="J1292:J1296"/>
+    <mergeCell ref="J1247:J1251"/>
+    <mergeCell ref="J1252:J1256"/>
+    <mergeCell ref="J1257:J1261"/>
+    <mergeCell ref="J1262:J1266"/>
+    <mergeCell ref="J1267:J1271"/>
     <mergeCell ref="J1322:J1326"/>
     <mergeCell ref="J1327:J1331"/>
     <mergeCell ref="J1332:J1336"/>
@@ -90326,266 +91254,15 @@
     <mergeCell ref="J1307:J1311"/>
     <mergeCell ref="J1312:J1316"/>
     <mergeCell ref="J1317:J1321"/>
-    <mergeCell ref="J1272:J1276"/>
-    <mergeCell ref="J1277:J1281"/>
-    <mergeCell ref="J1282:J1286"/>
-    <mergeCell ref="J1287:J1291"/>
-    <mergeCell ref="J1292:J1296"/>
-    <mergeCell ref="J1247:J1251"/>
-    <mergeCell ref="J1252:J1256"/>
-    <mergeCell ref="J1257:J1261"/>
-    <mergeCell ref="J1262:J1266"/>
-    <mergeCell ref="J1267:J1271"/>
-    <mergeCell ref="J1222:J1226"/>
-    <mergeCell ref="J1227:J1231"/>
-    <mergeCell ref="J1232:J1236"/>
-    <mergeCell ref="J1237:J1241"/>
-    <mergeCell ref="J1242:J1246"/>
-    <mergeCell ref="J1197:J1201"/>
-    <mergeCell ref="J1202:J1206"/>
-    <mergeCell ref="J1207:J1211"/>
-    <mergeCell ref="J1212:J1216"/>
-    <mergeCell ref="J1217:J1221"/>
-    <mergeCell ref="J1172:J1176"/>
-    <mergeCell ref="J1177:J1181"/>
-    <mergeCell ref="J1182:J1186"/>
-    <mergeCell ref="J1187:J1191"/>
-    <mergeCell ref="J1192:J1196"/>
-    <mergeCell ref="J1147:J1151"/>
-    <mergeCell ref="J1152:J1156"/>
-    <mergeCell ref="J1157:J1161"/>
-    <mergeCell ref="J1162:J1166"/>
-    <mergeCell ref="J1167:J1171"/>
-    <mergeCell ref="J1122:J1126"/>
-    <mergeCell ref="J1127:J1131"/>
-    <mergeCell ref="J1132:J1136"/>
-    <mergeCell ref="J1137:J1141"/>
-    <mergeCell ref="J1142:J1146"/>
-    <mergeCell ref="J1097:J1101"/>
-    <mergeCell ref="J1102:J1106"/>
-    <mergeCell ref="J1107:J1111"/>
-    <mergeCell ref="J1112:J1116"/>
-    <mergeCell ref="J1117:J1121"/>
-    <mergeCell ref="J1072:J1076"/>
-    <mergeCell ref="J1077:J1081"/>
-    <mergeCell ref="J1082:J1086"/>
-    <mergeCell ref="J1087:J1091"/>
-    <mergeCell ref="J1092:J1096"/>
-    <mergeCell ref="J1047:J1051"/>
-    <mergeCell ref="J1052:J1056"/>
-    <mergeCell ref="J1057:J1061"/>
-    <mergeCell ref="J1062:J1066"/>
-    <mergeCell ref="J1067:J1071"/>
-    <mergeCell ref="J1022:J1026"/>
-    <mergeCell ref="J1027:J1031"/>
-    <mergeCell ref="J1032:J1036"/>
-    <mergeCell ref="J1037:J1041"/>
-    <mergeCell ref="J1042:J1046"/>
-    <mergeCell ref="J997:J1001"/>
-    <mergeCell ref="J1002:J1006"/>
-    <mergeCell ref="J1007:J1011"/>
-    <mergeCell ref="J1012:J1016"/>
-    <mergeCell ref="J1017:J1021"/>
-    <mergeCell ref="J972:J976"/>
-    <mergeCell ref="J977:J981"/>
-    <mergeCell ref="J982:J986"/>
-    <mergeCell ref="J987:J991"/>
-    <mergeCell ref="J992:J996"/>
-    <mergeCell ref="J947:J951"/>
-    <mergeCell ref="J952:J956"/>
-    <mergeCell ref="J957:J961"/>
-    <mergeCell ref="J962:J966"/>
-    <mergeCell ref="J967:J971"/>
-    <mergeCell ref="J922:J926"/>
-    <mergeCell ref="J927:J931"/>
-    <mergeCell ref="J932:J936"/>
-    <mergeCell ref="J937:J941"/>
-    <mergeCell ref="J942:J946"/>
-    <mergeCell ref="J897:J901"/>
-    <mergeCell ref="J902:J906"/>
-    <mergeCell ref="J907:J911"/>
-    <mergeCell ref="J912:J916"/>
-    <mergeCell ref="J917:J921"/>
-    <mergeCell ref="J872:J876"/>
-    <mergeCell ref="J877:J881"/>
-    <mergeCell ref="J882:J886"/>
-    <mergeCell ref="J887:J891"/>
-    <mergeCell ref="J892:J896"/>
-    <mergeCell ref="J847:J851"/>
-    <mergeCell ref="J852:J856"/>
-    <mergeCell ref="J857:J861"/>
-    <mergeCell ref="J862:J866"/>
-    <mergeCell ref="J867:J871"/>
-    <mergeCell ref="J822:J826"/>
-    <mergeCell ref="J827:J831"/>
-    <mergeCell ref="J832:J836"/>
-    <mergeCell ref="J837:J841"/>
-    <mergeCell ref="J842:J846"/>
-    <mergeCell ref="J797:J801"/>
-    <mergeCell ref="J802:J806"/>
-    <mergeCell ref="J807:J811"/>
-    <mergeCell ref="J812:J816"/>
-    <mergeCell ref="J817:J821"/>
-    <mergeCell ref="J772:J776"/>
-    <mergeCell ref="J777:J781"/>
-    <mergeCell ref="J782:J786"/>
-    <mergeCell ref="J787:J791"/>
-    <mergeCell ref="J792:J796"/>
-    <mergeCell ref="J747:J751"/>
-    <mergeCell ref="J752:J756"/>
-    <mergeCell ref="J757:J761"/>
-    <mergeCell ref="J762:J766"/>
-    <mergeCell ref="J767:J771"/>
-    <mergeCell ref="J722:J726"/>
-    <mergeCell ref="J727:J731"/>
-    <mergeCell ref="J732:J736"/>
-    <mergeCell ref="J737:J741"/>
-    <mergeCell ref="J742:J746"/>
-    <mergeCell ref="J697:J701"/>
-    <mergeCell ref="J702:J706"/>
-    <mergeCell ref="J707:J711"/>
-    <mergeCell ref="J712:J716"/>
-    <mergeCell ref="J717:J721"/>
-    <mergeCell ref="J672:J676"/>
-    <mergeCell ref="J677:J681"/>
-    <mergeCell ref="J682:J686"/>
-    <mergeCell ref="J687:J691"/>
-    <mergeCell ref="J692:J696"/>
-    <mergeCell ref="J647:J651"/>
-    <mergeCell ref="J652:J656"/>
-    <mergeCell ref="J657:J661"/>
-    <mergeCell ref="J662:J666"/>
-    <mergeCell ref="J667:J671"/>
-    <mergeCell ref="J622:J626"/>
-    <mergeCell ref="J627:J631"/>
-    <mergeCell ref="J632:J636"/>
-    <mergeCell ref="J637:J641"/>
-    <mergeCell ref="J642:J646"/>
-    <mergeCell ref="J597:J601"/>
-    <mergeCell ref="J602:J606"/>
-    <mergeCell ref="J607:J611"/>
-    <mergeCell ref="J612:J616"/>
-    <mergeCell ref="J617:J621"/>
-    <mergeCell ref="J572:J576"/>
-    <mergeCell ref="J577:J581"/>
-    <mergeCell ref="J582:J586"/>
-    <mergeCell ref="J587:J591"/>
-    <mergeCell ref="J592:J596"/>
-    <mergeCell ref="J547:J551"/>
-    <mergeCell ref="J552:J556"/>
-    <mergeCell ref="J557:J561"/>
-    <mergeCell ref="J562:J566"/>
-    <mergeCell ref="J567:J571"/>
-    <mergeCell ref="J522:J526"/>
-    <mergeCell ref="J527:J531"/>
-    <mergeCell ref="J532:J536"/>
-    <mergeCell ref="J537:J541"/>
-    <mergeCell ref="J542:J546"/>
-    <mergeCell ref="J497:J501"/>
-    <mergeCell ref="J502:J506"/>
-    <mergeCell ref="J507:J511"/>
-    <mergeCell ref="J512:J516"/>
-    <mergeCell ref="J517:J521"/>
-    <mergeCell ref="J472:J476"/>
-    <mergeCell ref="J477:J481"/>
-    <mergeCell ref="J482:J486"/>
-    <mergeCell ref="J487:J491"/>
-    <mergeCell ref="J492:J496"/>
-    <mergeCell ref="J447:J451"/>
-    <mergeCell ref="J452:J456"/>
-    <mergeCell ref="J457:J461"/>
-    <mergeCell ref="J462:J466"/>
-    <mergeCell ref="J467:J471"/>
-    <mergeCell ref="J422:J426"/>
-    <mergeCell ref="J427:J431"/>
-    <mergeCell ref="J432:J436"/>
-    <mergeCell ref="J437:J441"/>
-    <mergeCell ref="J442:J446"/>
-    <mergeCell ref="J392:J396"/>
-    <mergeCell ref="J397:J401"/>
-    <mergeCell ref="J402:J406"/>
-    <mergeCell ref="J407:J411"/>
-    <mergeCell ref="J412:J421"/>
-    <mergeCell ref="J367:J371"/>
-    <mergeCell ref="J372:J376"/>
-    <mergeCell ref="J377:J381"/>
-    <mergeCell ref="J382:J386"/>
-    <mergeCell ref="J387:J391"/>
-    <mergeCell ref="J342:J346"/>
-    <mergeCell ref="J347:J351"/>
-    <mergeCell ref="J352:J356"/>
-    <mergeCell ref="J357:J361"/>
-    <mergeCell ref="J362:J366"/>
-    <mergeCell ref="J317:J321"/>
-    <mergeCell ref="J322:J326"/>
-    <mergeCell ref="J327:J331"/>
-    <mergeCell ref="J332:J336"/>
-    <mergeCell ref="J337:J341"/>
-    <mergeCell ref="J292:J296"/>
-    <mergeCell ref="J297:J301"/>
-    <mergeCell ref="J302:J306"/>
-    <mergeCell ref="J307:J311"/>
-    <mergeCell ref="J312:J316"/>
-    <mergeCell ref="J267:J271"/>
-    <mergeCell ref="J272:J276"/>
-    <mergeCell ref="J277:J281"/>
-    <mergeCell ref="J282:J286"/>
-    <mergeCell ref="J287:J291"/>
-    <mergeCell ref="J242:J246"/>
-    <mergeCell ref="J247:J251"/>
-    <mergeCell ref="J252:J256"/>
-    <mergeCell ref="J257:J261"/>
-    <mergeCell ref="J262:J266"/>
-    <mergeCell ref="J217:J221"/>
-    <mergeCell ref="J222:J226"/>
-    <mergeCell ref="J227:J231"/>
-    <mergeCell ref="J232:J236"/>
-    <mergeCell ref="J237:J241"/>
-    <mergeCell ref="J192:J196"/>
-    <mergeCell ref="J197:J201"/>
-    <mergeCell ref="J202:J206"/>
-    <mergeCell ref="J207:J211"/>
-    <mergeCell ref="J212:J216"/>
-    <mergeCell ref="J167:J171"/>
-    <mergeCell ref="J172:J176"/>
-    <mergeCell ref="J177:J181"/>
-    <mergeCell ref="J182:J186"/>
-    <mergeCell ref="J187:J191"/>
-    <mergeCell ref="J142:J146"/>
-    <mergeCell ref="J147:J151"/>
-    <mergeCell ref="J152:J156"/>
-    <mergeCell ref="J157:J161"/>
-    <mergeCell ref="J162:J166"/>
-    <mergeCell ref="J117:J121"/>
-    <mergeCell ref="J122:J126"/>
-    <mergeCell ref="J127:J131"/>
-    <mergeCell ref="J132:J136"/>
-    <mergeCell ref="J137:J141"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="J112:J116"/>
-    <mergeCell ref="J67:J71"/>
-    <mergeCell ref="J72:J76"/>
-    <mergeCell ref="J77:J81"/>
-    <mergeCell ref="J82:J86"/>
-    <mergeCell ref="J87:J91"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="J22:J26"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J1372:J1376"/>
+    <mergeCell ref="J1377:J1381"/>
+    <mergeCell ref="J1382:J1386"/>
+    <mergeCell ref="J1387:J1391"/>
+    <mergeCell ref="J1347:J1351"/>
+    <mergeCell ref="J1352:J1356"/>
+    <mergeCell ref="J1357:J1361"/>
+    <mergeCell ref="J1362:J1366"/>
+    <mergeCell ref="J1367:J1371"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/files/header.xlsx
+++ b/files/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/개인/data/부동산 기본 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{00E549E8-D797-4FFC-9E87-4E797B3B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A5B8A0-4C3A-4310-B5F5-4E2A3ECC0CA7}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{00E549E8-D797-4FFC-9E87-4E797B3B1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2285346-12D3-48DA-A996-E329F838AF3F}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="765" windowWidth="23250" windowHeight="18600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37612,8 +37612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6FAAD6-F089-45D8-8245-7A3C6E6A4A07}">
   <dimension ref="A1:K291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J267" sqref="J267"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H265" sqref="H265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -46560,7 +46560,7 @@
         <v>1850227390</v>
       </c>
       <c r="F242">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G242">
         <v>19</v>
@@ -46597,7 +46597,7 @@
         <v>770073413</v>
       </c>
       <c r="F243">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G243">
         <v>18</v>
@@ -46634,7 +46634,7 @@
         <v>10540373561</v>
       </c>
       <c r="F244">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G244">
         <v>17</v>
@@ -46671,7 +46671,7 @@
         <v>883517309</v>
       </c>
       <c r="F245">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G245">
         <v>16</v>
@@ -46708,7 +46708,7 @@
         <v>1062038815</v>
       </c>
       <c r="F246">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G246">
         <v>15</v>
@@ -46745,7 +46745,7 @@
         <v>19033343126</v>
       </c>
       <c r="F247">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G247">
         <v>14</v>
@@ -46782,7 +46782,7 @@
         <v>#N/A</v>
       </c>
       <c r="F248">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G248">
         <v>13</v>
@@ -46819,7 +46819,7 @@
         <v>12345209476</v>
       </c>
       <c r="F249">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G249">
         <v>12</v>
@@ -46856,7 +46856,7 @@
         <v>8069138982</v>
       </c>
       <c r="F250">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G250">
         <v>11</v>
@@ -46893,7 +46893,7 @@
         <v>539626515</v>
       </c>
       <c r="F251">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G251">
         <v>10</v>
@@ -46930,7 +46930,7 @@
         <v>8245540722</v>
       </c>
       <c r="F252">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G252">
         <v>9</v>
@@ -46967,7 +46967,7 @@
         <v>7406819938</v>
       </c>
       <c r="F253">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G253">
         <v>8</v>
@@ -47004,7 +47004,7 @@
         <v>10192514247</v>
       </c>
       <c r="F254">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G254">
         <v>7</v>
@@ -47041,7 +47041,7 @@
         <v>1063257852</v>
       </c>
       <c r="F255">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G255">
         <v>6</v>
@@ -47078,7 +47078,7 @@
         <v>605237005</v>
       </c>
       <c r="F256">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G256">
         <v>5</v>
@@ -47115,7 +47115,7 @@
         <v>16828280729</v>
       </c>
       <c r="F257">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G257">
         <v>4</v>
@@ -47152,7 +47152,7 @@
         <v>748032641</v>
       </c>
       <c r="F258">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G258">
         <v>15</v>
@@ -47189,7 +47189,7 @@
         <v>1130077695</v>
       </c>
       <c r="F259">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G259">
         <v>14</v>
@@ -47226,7 +47226,7 @@
         <v>591259247</v>
       </c>
       <c r="F260">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G260">
         <v>7</v>
@@ -47263,7 +47263,7 @@
         <v>206040841</v>
       </c>
       <c r="F261">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G261">
         <v>11</v>
@@ -47300,7 +47300,7 @@
         <v>636082715</v>
       </c>
       <c r="F262">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G262">
         <v>9</v>
@@ -47337,7 +47337,7 @@
         <v>940844524</v>
       </c>
       <c r="F263">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G263">
         <v>8</v>
@@ -47374,7 +47374,7 @@
         <v>121092176</v>
       </c>
       <c r="F264">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G264">
         <v>6</v>
@@ -47411,7 +47411,7 @@
         <v>141633070</v>
       </c>
       <c r="F265">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G265">
         <v>5</v>
@@ -47448,7 +47448,7 @@
         <v>58467312</v>
       </c>
       <c r="F266">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G266">
         <v>4</v>
@@ -47485,7 +47485,7 @@
         <v>155730955</v>
       </c>
       <c r="F267">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G267">
         <v>3</v>
@@ -47522,7 +47522,7 @@
         <v>268088330</v>
       </c>
       <c r="F268">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G268">
         <v>2</v>
@@ -90989,15 +90989,266 @@
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="J1372:J1376"/>
-    <mergeCell ref="J1377:J1381"/>
-    <mergeCell ref="J1382:J1386"/>
-    <mergeCell ref="J1387:J1391"/>
-    <mergeCell ref="J1347:J1351"/>
-    <mergeCell ref="J1352:J1356"/>
-    <mergeCell ref="J1357:J1361"/>
-    <mergeCell ref="J1362:J1366"/>
-    <mergeCell ref="J1367:J1371"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="J77:J81"/>
+    <mergeCell ref="J82:J86"/>
+    <mergeCell ref="J87:J91"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J117:J121"/>
+    <mergeCell ref="J122:J126"/>
+    <mergeCell ref="J127:J131"/>
+    <mergeCell ref="J132:J136"/>
+    <mergeCell ref="J137:J141"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="J112:J116"/>
+    <mergeCell ref="J167:J171"/>
+    <mergeCell ref="J172:J176"/>
+    <mergeCell ref="J177:J181"/>
+    <mergeCell ref="J182:J186"/>
+    <mergeCell ref="J187:J191"/>
+    <mergeCell ref="J142:J146"/>
+    <mergeCell ref="J147:J151"/>
+    <mergeCell ref="J152:J156"/>
+    <mergeCell ref="J157:J161"/>
+    <mergeCell ref="J162:J166"/>
+    <mergeCell ref="J217:J221"/>
+    <mergeCell ref="J222:J226"/>
+    <mergeCell ref="J227:J231"/>
+    <mergeCell ref="J232:J236"/>
+    <mergeCell ref="J237:J241"/>
+    <mergeCell ref="J192:J196"/>
+    <mergeCell ref="J197:J201"/>
+    <mergeCell ref="J202:J206"/>
+    <mergeCell ref="J207:J211"/>
+    <mergeCell ref="J212:J216"/>
+    <mergeCell ref="J267:J271"/>
+    <mergeCell ref="J272:J276"/>
+    <mergeCell ref="J277:J281"/>
+    <mergeCell ref="J282:J286"/>
+    <mergeCell ref="J287:J291"/>
+    <mergeCell ref="J242:J246"/>
+    <mergeCell ref="J247:J251"/>
+    <mergeCell ref="J252:J256"/>
+    <mergeCell ref="J257:J261"/>
+    <mergeCell ref="J262:J266"/>
+    <mergeCell ref="J317:J321"/>
+    <mergeCell ref="J322:J326"/>
+    <mergeCell ref="J327:J331"/>
+    <mergeCell ref="J332:J336"/>
+    <mergeCell ref="J337:J341"/>
+    <mergeCell ref="J292:J296"/>
+    <mergeCell ref="J297:J301"/>
+    <mergeCell ref="J302:J306"/>
+    <mergeCell ref="J307:J311"/>
+    <mergeCell ref="J312:J316"/>
+    <mergeCell ref="J367:J371"/>
+    <mergeCell ref="J372:J376"/>
+    <mergeCell ref="J377:J381"/>
+    <mergeCell ref="J382:J386"/>
+    <mergeCell ref="J387:J391"/>
+    <mergeCell ref="J342:J346"/>
+    <mergeCell ref="J347:J351"/>
+    <mergeCell ref="J352:J356"/>
+    <mergeCell ref="J357:J361"/>
+    <mergeCell ref="J362:J366"/>
+    <mergeCell ref="J422:J426"/>
+    <mergeCell ref="J427:J431"/>
+    <mergeCell ref="J432:J436"/>
+    <mergeCell ref="J437:J441"/>
+    <mergeCell ref="J442:J446"/>
+    <mergeCell ref="J392:J396"/>
+    <mergeCell ref="J397:J401"/>
+    <mergeCell ref="J402:J406"/>
+    <mergeCell ref="J407:J411"/>
+    <mergeCell ref="J412:J421"/>
+    <mergeCell ref="J472:J476"/>
+    <mergeCell ref="J477:J481"/>
+    <mergeCell ref="J482:J486"/>
+    <mergeCell ref="J487:J491"/>
+    <mergeCell ref="J492:J496"/>
+    <mergeCell ref="J447:J451"/>
+    <mergeCell ref="J452:J456"/>
+    <mergeCell ref="J457:J461"/>
+    <mergeCell ref="J462:J466"/>
+    <mergeCell ref="J467:J471"/>
+    <mergeCell ref="J522:J526"/>
+    <mergeCell ref="J527:J531"/>
+    <mergeCell ref="J532:J536"/>
+    <mergeCell ref="J537:J541"/>
+    <mergeCell ref="J542:J546"/>
+    <mergeCell ref="J497:J501"/>
+    <mergeCell ref="J502:J506"/>
+    <mergeCell ref="J507:J511"/>
+    <mergeCell ref="J512:J516"/>
+    <mergeCell ref="J517:J521"/>
+    <mergeCell ref="J572:J576"/>
+    <mergeCell ref="J577:J581"/>
+    <mergeCell ref="J582:J586"/>
+    <mergeCell ref="J587:J591"/>
+    <mergeCell ref="J592:J596"/>
+    <mergeCell ref="J547:J551"/>
+    <mergeCell ref="J552:J556"/>
+    <mergeCell ref="J557:J561"/>
+    <mergeCell ref="J562:J566"/>
+    <mergeCell ref="J567:J571"/>
+    <mergeCell ref="J622:J626"/>
+    <mergeCell ref="J627:J631"/>
+    <mergeCell ref="J632:J636"/>
+    <mergeCell ref="J637:J641"/>
+    <mergeCell ref="J642:J646"/>
+    <mergeCell ref="J597:J601"/>
+    <mergeCell ref="J602:J606"/>
+    <mergeCell ref="J607:J611"/>
+    <mergeCell ref="J612:J616"/>
+    <mergeCell ref="J617:J621"/>
+    <mergeCell ref="J672:J676"/>
+    <mergeCell ref="J677:J681"/>
+    <mergeCell ref="J682:J686"/>
+    <mergeCell ref="J687:J691"/>
+    <mergeCell ref="J692:J696"/>
+    <mergeCell ref="J647:J651"/>
+    <mergeCell ref="J652:J656"/>
+    <mergeCell ref="J657:J661"/>
+    <mergeCell ref="J662:J666"/>
+    <mergeCell ref="J667:J671"/>
+    <mergeCell ref="J722:J726"/>
+    <mergeCell ref="J727:J731"/>
+    <mergeCell ref="J732:J736"/>
+    <mergeCell ref="J737:J741"/>
+    <mergeCell ref="J742:J746"/>
+    <mergeCell ref="J697:J701"/>
+    <mergeCell ref="J702:J706"/>
+    <mergeCell ref="J707:J711"/>
+    <mergeCell ref="J712:J716"/>
+    <mergeCell ref="J717:J721"/>
+    <mergeCell ref="J772:J776"/>
+    <mergeCell ref="J777:J781"/>
+    <mergeCell ref="J782:J786"/>
+    <mergeCell ref="J787:J791"/>
+    <mergeCell ref="J792:J796"/>
+    <mergeCell ref="J747:J751"/>
+    <mergeCell ref="J752:J756"/>
+    <mergeCell ref="J757:J761"/>
+    <mergeCell ref="J762:J766"/>
+    <mergeCell ref="J767:J771"/>
+    <mergeCell ref="J822:J826"/>
+    <mergeCell ref="J827:J831"/>
+    <mergeCell ref="J832:J836"/>
+    <mergeCell ref="J837:J841"/>
+    <mergeCell ref="J842:J846"/>
+    <mergeCell ref="J797:J801"/>
+    <mergeCell ref="J802:J806"/>
+    <mergeCell ref="J807:J811"/>
+    <mergeCell ref="J812:J816"/>
+    <mergeCell ref="J817:J821"/>
+    <mergeCell ref="J872:J876"/>
+    <mergeCell ref="J877:J881"/>
+    <mergeCell ref="J882:J886"/>
+    <mergeCell ref="J887:J891"/>
+    <mergeCell ref="J892:J896"/>
+    <mergeCell ref="J847:J851"/>
+    <mergeCell ref="J852:J856"/>
+    <mergeCell ref="J857:J861"/>
+    <mergeCell ref="J862:J866"/>
+    <mergeCell ref="J867:J871"/>
+    <mergeCell ref="J922:J926"/>
+    <mergeCell ref="J927:J931"/>
+    <mergeCell ref="J932:J936"/>
+    <mergeCell ref="J937:J941"/>
+    <mergeCell ref="J942:J946"/>
+    <mergeCell ref="J897:J901"/>
+    <mergeCell ref="J902:J906"/>
+    <mergeCell ref="J907:J911"/>
+    <mergeCell ref="J912:J916"/>
+    <mergeCell ref="J917:J921"/>
+    <mergeCell ref="J972:J976"/>
+    <mergeCell ref="J977:J981"/>
+    <mergeCell ref="J982:J986"/>
+    <mergeCell ref="J987:J991"/>
+    <mergeCell ref="J992:J996"/>
+    <mergeCell ref="J947:J951"/>
+    <mergeCell ref="J952:J956"/>
+    <mergeCell ref="J957:J961"/>
+    <mergeCell ref="J962:J966"/>
+    <mergeCell ref="J967:J971"/>
+    <mergeCell ref="J1022:J1026"/>
+    <mergeCell ref="J1027:J1031"/>
+    <mergeCell ref="J1032:J1036"/>
+    <mergeCell ref="J1037:J1041"/>
+    <mergeCell ref="J1042:J1046"/>
+    <mergeCell ref="J997:J1001"/>
+    <mergeCell ref="J1002:J1006"/>
+    <mergeCell ref="J1007:J1011"/>
+    <mergeCell ref="J1012:J1016"/>
+    <mergeCell ref="J1017:J1021"/>
+    <mergeCell ref="J1072:J1076"/>
+    <mergeCell ref="J1077:J1081"/>
+    <mergeCell ref="J1082:J1086"/>
+    <mergeCell ref="J1087:J1091"/>
+    <mergeCell ref="J1092:J1096"/>
+    <mergeCell ref="J1047:J1051"/>
+    <mergeCell ref="J1052:J1056"/>
+    <mergeCell ref="J1057:J1061"/>
+    <mergeCell ref="J1062:J1066"/>
+    <mergeCell ref="J1067:J1071"/>
+    <mergeCell ref="J1122:J1126"/>
+    <mergeCell ref="J1127:J1131"/>
+    <mergeCell ref="J1132:J1136"/>
+    <mergeCell ref="J1137:J1141"/>
+    <mergeCell ref="J1142:J1146"/>
+    <mergeCell ref="J1097:J1101"/>
+    <mergeCell ref="J1102:J1106"/>
+    <mergeCell ref="J1107:J1111"/>
+    <mergeCell ref="J1112:J1116"/>
+    <mergeCell ref="J1117:J1121"/>
+    <mergeCell ref="J1172:J1176"/>
+    <mergeCell ref="J1177:J1181"/>
+    <mergeCell ref="J1182:J1186"/>
+    <mergeCell ref="J1187:J1191"/>
+    <mergeCell ref="J1192:J1196"/>
+    <mergeCell ref="J1147:J1151"/>
+    <mergeCell ref="J1152:J1156"/>
+    <mergeCell ref="J1157:J1161"/>
+    <mergeCell ref="J1162:J1166"/>
+    <mergeCell ref="J1167:J1171"/>
+    <mergeCell ref="J1222:J1226"/>
+    <mergeCell ref="J1227:J1231"/>
+    <mergeCell ref="J1232:J1236"/>
+    <mergeCell ref="J1237:J1241"/>
+    <mergeCell ref="J1242:J1246"/>
+    <mergeCell ref="J1197:J1201"/>
+    <mergeCell ref="J1202:J1206"/>
+    <mergeCell ref="J1207:J1211"/>
+    <mergeCell ref="J1212:J1216"/>
+    <mergeCell ref="J1217:J1221"/>
+    <mergeCell ref="J1272:J1276"/>
+    <mergeCell ref="J1277:J1281"/>
+    <mergeCell ref="J1282:J1286"/>
+    <mergeCell ref="J1287:J1291"/>
+    <mergeCell ref="J1292:J1296"/>
+    <mergeCell ref="J1247:J1251"/>
+    <mergeCell ref="J1252:J1256"/>
+    <mergeCell ref="J1257:J1261"/>
+    <mergeCell ref="J1262:J1266"/>
+    <mergeCell ref="J1267:J1271"/>
     <mergeCell ref="J1322:J1326"/>
     <mergeCell ref="J1327:J1331"/>
     <mergeCell ref="J1332:J1336"/>
@@ -91008,266 +91259,15 @@
     <mergeCell ref="J1307:J1311"/>
     <mergeCell ref="J1312:J1316"/>
     <mergeCell ref="J1317:J1321"/>
-    <mergeCell ref="J1272:J1276"/>
-    <mergeCell ref="J1277:J1281"/>
-    <mergeCell ref="J1282:J1286"/>
-    <mergeCell ref="J1287:J1291"/>
-    <mergeCell ref="J1292:J1296"/>
-    <mergeCell ref="J1247:J1251"/>
-    <mergeCell ref="J1252:J1256"/>
-    <mergeCell ref="J1257:J1261"/>
-    <mergeCell ref="J1262:J1266"/>
-    <mergeCell ref="J1267:J1271"/>
-    <mergeCell ref="J1222:J1226"/>
-    <mergeCell ref="J1227:J1231"/>
-    <mergeCell ref="J1232:J1236"/>
-    <mergeCell ref="J1237:J1241"/>
-    <mergeCell ref="J1242:J1246"/>
-    <mergeCell ref="J1197:J1201"/>
-    <mergeCell ref="J1202:J1206"/>
-    <mergeCell ref="J1207:J1211"/>
-    <mergeCell ref="J1212:J1216"/>
-    <mergeCell ref="J1217:J1221"/>
-    <mergeCell ref="J1172:J1176"/>
-    <mergeCell ref="J1177:J1181"/>
-    <mergeCell ref="J1182:J1186"/>
-    <mergeCell ref="J1187:J1191"/>
-    <mergeCell ref="J1192:J1196"/>
-    <mergeCell ref="J1147:J1151"/>
-    <mergeCell ref="J1152:J1156"/>
-    <mergeCell ref="J1157:J1161"/>
-    <mergeCell ref="J1162:J1166"/>
-    <mergeCell ref="J1167:J1171"/>
-    <mergeCell ref="J1122:J1126"/>
-    <mergeCell ref="J1127:J1131"/>
-    <mergeCell ref="J1132:J1136"/>
-    <mergeCell ref="J1137:J1141"/>
-    <mergeCell ref="J1142:J1146"/>
-    <mergeCell ref="J1097:J1101"/>
-    <mergeCell ref="J1102:J1106"/>
-    <mergeCell ref="J1107:J1111"/>
-    <mergeCell ref="J1112:J1116"/>
-    <mergeCell ref="J1117:J1121"/>
-    <mergeCell ref="J1072:J1076"/>
-    <mergeCell ref="J1077:J1081"/>
-    <mergeCell ref="J1082:J1086"/>
-    <mergeCell ref="J1087:J1091"/>
-    <mergeCell ref="J1092:J1096"/>
-    <mergeCell ref="J1047:J1051"/>
-    <mergeCell ref="J1052:J1056"/>
-    <mergeCell ref="J1057:J1061"/>
-    <mergeCell ref="J1062:J1066"/>
-    <mergeCell ref="J1067:J1071"/>
-    <mergeCell ref="J1022:J1026"/>
-    <mergeCell ref="J1027:J1031"/>
-    <mergeCell ref="J1032:J1036"/>
-    <mergeCell ref="J1037:J1041"/>
-    <mergeCell ref="J1042:J1046"/>
-    <mergeCell ref="J997:J1001"/>
-    <mergeCell ref="J1002:J1006"/>
-    <mergeCell ref="J1007:J1011"/>
-    <mergeCell ref="J1012:J1016"/>
-    <mergeCell ref="J1017:J1021"/>
-    <mergeCell ref="J972:J976"/>
-    <mergeCell ref="J977:J981"/>
-    <mergeCell ref="J982:J986"/>
-    <mergeCell ref="J987:J991"/>
-    <mergeCell ref="J992:J996"/>
-    <mergeCell ref="J947:J951"/>
-    <mergeCell ref="J952:J956"/>
-    <mergeCell ref="J957:J961"/>
-    <mergeCell ref="J962:J966"/>
-    <mergeCell ref="J967:J971"/>
-    <mergeCell ref="J922:J926"/>
-    <mergeCell ref="J927:J931"/>
-    <mergeCell ref="J932:J936"/>
-    <mergeCell ref="J937:J941"/>
-    <mergeCell ref="J942:J946"/>
-    <mergeCell ref="J897:J901"/>
-    <mergeCell ref="J902:J906"/>
-    <mergeCell ref="J907:J911"/>
-    <mergeCell ref="J912:J916"/>
-    <mergeCell ref="J917:J921"/>
-    <mergeCell ref="J872:J876"/>
-    <mergeCell ref="J877:J881"/>
-    <mergeCell ref="J882:J886"/>
-    <mergeCell ref="J887:J891"/>
-    <mergeCell ref="J892:J896"/>
-    <mergeCell ref="J847:J851"/>
-    <mergeCell ref="J852:J856"/>
-    <mergeCell ref="J857:J861"/>
-    <mergeCell ref="J862:J866"/>
-    <mergeCell ref="J867:J871"/>
-    <mergeCell ref="J822:J826"/>
-    <mergeCell ref="J827:J831"/>
-    <mergeCell ref="J832:J836"/>
-    <mergeCell ref="J837:J841"/>
-    <mergeCell ref="J842:J846"/>
-    <mergeCell ref="J797:J801"/>
-    <mergeCell ref="J802:J806"/>
-    <mergeCell ref="J807:J811"/>
-    <mergeCell ref="J812:J816"/>
-    <mergeCell ref="J817:J821"/>
-    <mergeCell ref="J772:J776"/>
-    <mergeCell ref="J777:J781"/>
-    <mergeCell ref="J782:J786"/>
-    <mergeCell ref="J787:J791"/>
-    <mergeCell ref="J792:J796"/>
-    <mergeCell ref="J747:J751"/>
-    <mergeCell ref="J752:J756"/>
-    <mergeCell ref="J757:J761"/>
-    <mergeCell ref="J762:J766"/>
-    <mergeCell ref="J767:J771"/>
-    <mergeCell ref="J722:J726"/>
-    <mergeCell ref="J727:J731"/>
-    <mergeCell ref="J732:J736"/>
-    <mergeCell ref="J737:J741"/>
-    <mergeCell ref="J742:J746"/>
-    <mergeCell ref="J697:J701"/>
-    <mergeCell ref="J702:J706"/>
-    <mergeCell ref="J707:J711"/>
-    <mergeCell ref="J712:J716"/>
-    <mergeCell ref="J717:J721"/>
-    <mergeCell ref="J672:J676"/>
-    <mergeCell ref="J677:J681"/>
-    <mergeCell ref="J682:J686"/>
-    <mergeCell ref="J687:J691"/>
-    <mergeCell ref="J692:J696"/>
-    <mergeCell ref="J647:J651"/>
-    <mergeCell ref="J652:J656"/>
-    <mergeCell ref="J657:J661"/>
-    <mergeCell ref="J662:J666"/>
-    <mergeCell ref="J667:J671"/>
-    <mergeCell ref="J622:J626"/>
-    <mergeCell ref="J627:J631"/>
-    <mergeCell ref="J632:J636"/>
-    <mergeCell ref="J637:J641"/>
-    <mergeCell ref="J642:J646"/>
-    <mergeCell ref="J597:J601"/>
-    <mergeCell ref="J602:J606"/>
-    <mergeCell ref="J607:J611"/>
-    <mergeCell ref="J612:J616"/>
-    <mergeCell ref="J617:J621"/>
-    <mergeCell ref="J572:J576"/>
-    <mergeCell ref="J577:J581"/>
-    <mergeCell ref="J582:J586"/>
-    <mergeCell ref="J587:J591"/>
-    <mergeCell ref="J592:J596"/>
-    <mergeCell ref="J547:J551"/>
-    <mergeCell ref="J552:J556"/>
-    <mergeCell ref="J557:J561"/>
-    <mergeCell ref="J562:J566"/>
-    <mergeCell ref="J567:J571"/>
-    <mergeCell ref="J522:J526"/>
-    <mergeCell ref="J527:J531"/>
-    <mergeCell ref="J532:J536"/>
-    <mergeCell ref="J537:J541"/>
-    <mergeCell ref="J542:J546"/>
-    <mergeCell ref="J497:J501"/>
-    <mergeCell ref="J502:J506"/>
-    <mergeCell ref="J507:J511"/>
-    <mergeCell ref="J512:J516"/>
-    <mergeCell ref="J517:J521"/>
-    <mergeCell ref="J472:J476"/>
-    <mergeCell ref="J477:J481"/>
-    <mergeCell ref="J482:J486"/>
-    <mergeCell ref="J487:J491"/>
-    <mergeCell ref="J492:J496"/>
-    <mergeCell ref="J447:J451"/>
-    <mergeCell ref="J452:J456"/>
-    <mergeCell ref="J457:J461"/>
-    <mergeCell ref="J462:J466"/>
-    <mergeCell ref="J467:J471"/>
-    <mergeCell ref="J422:J426"/>
-    <mergeCell ref="J427:J431"/>
-    <mergeCell ref="J432:J436"/>
-    <mergeCell ref="J437:J441"/>
-    <mergeCell ref="J442:J446"/>
-    <mergeCell ref="J392:J396"/>
-    <mergeCell ref="J397:J401"/>
-    <mergeCell ref="J402:J406"/>
-    <mergeCell ref="J407:J411"/>
-    <mergeCell ref="J412:J421"/>
-    <mergeCell ref="J367:J371"/>
-    <mergeCell ref="J372:J376"/>
-    <mergeCell ref="J377:J381"/>
-    <mergeCell ref="J382:J386"/>
-    <mergeCell ref="J387:J391"/>
-    <mergeCell ref="J342:J346"/>
-    <mergeCell ref="J347:J351"/>
-    <mergeCell ref="J352:J356"/>
-    <mergeCell ref="J357:J361"/>
-    <mergeCell ref="J362:J366"/>
-    <mergeCell ref="J317:J321"/>
-    <mergeCell ref="J322:J326"/>
-    <mergeCell ref="J327:J331"/>
-    <mergeCell ref="J332:J336"/>
-    <mergeCell ref="J337:J341"/>
-    <mergeCell ref="J292:J296"/>
-    <mergeCell ref="J297:J301"/>
-    <mergeCell ref="J302:J306"/>
-    <mergeCell ref="J307:J311"/>
-    <mergeCell ref="J312:J316"/>
-    <mergeCell ref="J267:J271"/>
-    <mergeCell ref="J272:J276"/>
-    <mergeCell ref="J277:J281"/>
-    <mergeCell ref="J282:J286"/>
-    <mergeCell ref="J287:J291"/>
-    <mergeCell ref="J242:J246"/>
-    <mergeCell ref="J247:J251"/>
-    <mergeCell ref="J252:J256"/>
-    <mergeCell ref="J257:J261"/>
-    <mergeCell ref="J262:J266"/>
-    <mergeCell ref="J217:J221"/>
-    <mergeCell ref="J222:J226"/>
-    <mergeCell ref="J227:J231"/>
-    <mergeCell ref="J232:J236"/>
-    <mergeCell ref="J237:J241"/>
-    <mergeCell ref="J192:J196"/>
-    <mergeCell ref="J197:J201"/>
-    <mergeCell ref="J202:J206"/>
-    <mergeCell ref="J207:J211"/>
-    <mergeCell ref="J212:J216"/>
-    <mergeCell ref="J167:J171"/>
-    <mergeCell ref="J172:J176"/>
-    <mergeCell ref="J177:J181"/>
-    <mergeCell ref="J182:J186"/>
-    <mergeCell ref="J187:J191"/>
-    <mergeCell ref="J142:J146"/>
-    <mergeCell ref="J147:J151"/>
-    <mergeCell ref="J152:J156"/>
-    <mergeCell ref="J157:J161"/>
-    <mergeCell ref="J162:J166"/>
-    <mergeCell ref="J117:J121"/>
-    <mergeCell ref="J122:J126"/>
-    <mergeCell ref="J127:J131"/>
-    <mergeCell ref="J132:J136"/>
-    <mergeCell ref="J137:J141"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="J112:J116"/>
-    <mergeCell ref="J67:J71"/>
-    <mergeCell ref="J72:J76"/>
-    <mergeCell ref="J77:J81"/>
-    <mergeCell ref="J82:J86"/>
-    <mergeCell ref="J87:J91"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="J22:J26"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J1372:J1376"/>
+    <mergeCell ref="J1377:J1381"/>
+    <mergeCell ref="J1382:J1386"/>
+    <mergeCell ref="J1387:J1391"/>
+    <mergeCell ref="J1347:J1351"/>
+    <mergeCell ref="J1352:J1356"/>
+    <mergeCell ref="J1357:J1361"/>
+    <mergeCell ref="J1362:J1366"/>
+    <mergeCell ref="J1367:J1371"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
